--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INOW Testing\src\main\java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\InsuranceNowAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7F1AF6-6109-4B5C-9560-61F66A8B353D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD7E3BF-495B-4E79-A774-97603FF7E318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="11" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="9" activeTab="13" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NewBussines" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="TS_01" sheetId="25" r:id="rId14"/>
     <sheet name="TS_03" sheetId="29" r:id="rId15"/>
     <sheet name="Sheet1" sheetId="28" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="30" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -9425,7 +9426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F566B7-0A48-4BC4-B93D-ABABAE27A05A}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -9539,8 +9540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA4E5AA-688C-484A-99F1-9AC8F41EC26C}">
   <dimension ref="A1:D370"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
+      <selection activeCell="C358" sqref="C358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13215,7 +13216,7 @@
         <v>21</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>729</v>
+        <v>1586</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>1571</v>
@@ -17194,6 +17195,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375049FF-D875-47AF-9AEB-92EA901955C9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30F9C19-6575-4C70-9947-759B460C6779}">
   <dimension ref="A2:D391"/>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INOW Testing\src\main\java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InsuranceNowAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7F1AF6-6109-4B5C-9560-61F66A8B353D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FA2021-774D-44F4-AF9E-28CD6115FF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="11" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="14" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NewBussines" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
     <sheet name="Reinstatement" sheetId="26" r:id="rId12"/>
     <sheet name="Credentials" sheetId="27" r:id="rId13"/>
     <sheet name="TS_01" sheetId="25" r:id="rId14"/>
-    <sheet name="TS_03" sheetId="29" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="28" r:id="rId16"/>
+    <sheet name="TS_02" sheetId="28" r:id="rId15"/>
+    <sheet name="TS_03" sheetId="29" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4639" uniqueCount="1589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6169" uniqueCount="1607">
   <si>
     <t>NewBussines</t>
   </si>
@@ -4818,6 +4818,60 @@
   </si>
   <si>
     <t xml:space="preserve">newBusinessVehicle2Ignore </t>
+  </si>
+  <si>
+    <t>Charle</t>
+  </si>
+  <si>
+    <t>Puth</t>
+  </si>
+  <si>
+    <t>10/01/2023</t>
+  </si>
+  <si>
+    <t>10/02/2023</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Malone</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>02/02/1985</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Millie</t>
+  </si>
+  <si>
+    <t>Bobby</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>03/02/1986</t>
+  </si>
+  <si>
+    <t>ANI001</t>
+  </si>
+  <si>
+    <t>Additional Interest - Trust</t>
+  </si>
+  <si>
+    <t>Excluded</t>
+  </si>
+  <si>
+    <t>Producer007</t>
   </si>
 </sst>
 </file>
@@ -9425,7 +9479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F566B7-0A48-4BC4-B93D-ABABAE27A05A}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -9539,8 +9593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA4E5AA-688C-484A-99F1-9AC8F41EC26C}">
   <dimension ref="A1:D370"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A353" workbookViewId="0">
+      <selection sqref="A1:D370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13361,6 +13415,7524 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3BCC8-1641-433F-8FC0-0BC9EA113D75}">
+  <dimension ref="D1:G736"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D1" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="24"/>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="24"/>
+      <c r="E5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="24"/>
+      <c r="E6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="24"/>
+      <c r="E7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="24"/>
+      <c r="E8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="24"/>
+      <c r="E9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D10" s="24"/>
+      <c r="E10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="24"/>
+      <c r="E11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="24"/>
+      <c r="E12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="24"/>
+      <c r="E13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="24"/>
+      <c r="E14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="24"/>
+      <c r="E15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="24"/>
+      <c r="E16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="24"/>
+      <c r="E17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="24"/>
+      <c r="E18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="24"/>
+      <c r="E19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="24"/>
+      <c r="E20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="24"/>
+      <c r="E21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="24"/>
+      <c r="E22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="24"/>
+      <c r="E23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="24"/>
+      <c r="E24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="24"/>
+      <c r="E25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="24"/>
+      <c r="E26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="24"/>
+      <c r="E27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="24"/>
+      <c r="E28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="24"/>
+      <c r="E29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="24"/>
+      <c r="E30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="24"/>
+      <c r="E31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D32" s="24"/>
+      <c r="E32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="24"/>
+      <c r="E33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D34" s="24"/>
+      <c r="E34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D35" s="24"/>
+      <c r="E35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D36" s="24"/>
+      <c r="E36" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D37" s="24"/>
+      <c r="E37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D38" s="24"/>
+      <c r="E38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D39" s="24"/>
+      <c r="E39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D40" s="24"/>
+      <c r="E40" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D41" s="24"/>
+      <c r="E41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D42" s="24"/>
+      <c r="E42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D43" s="24"/>
+      <c r="E43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D44" s="24"/>
+      <c r="E44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D45" s="24"/>
+      <c r="E45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D46" s="24"/>
+      <c r="E46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D47" s="24"/>
+      <c r="E47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D48" s="24"/>
+      <c r="E48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D49" s="25"/>
+      <c r="E49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D50" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D51" s="21"/>
+      <c r="E51" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D52" s="21"/>
+      <c r="E52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D53" s="21"/>
+      <c r="E53" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D54" s="21"/>
+      <c r="E54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D55" s="21"/>
+      <c r="E55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D56" s="21"/>
+      <c r="E56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D57" s="21"/>
+      <c r="E57" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D58" s="21"/>
+      <c r="E58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D59" s="22"/>
+      <c r="E59" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D60" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D61" s="21"/>
+      <c r="E61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D62" s="21"/>
+      <c r="E62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D63" s="21"/>
+      <c r="E63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D64" s="21"/>
+      <c r="E64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D65" s="21"/>
+      <c r="E65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="G65" s="17"/>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D66" s="21"/>
+      <c r="E66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D67" s="21"/>
+      <c r="E67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D68" s="21"/>
+      <c r="E68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G68" s="17"/>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D69" s="21"/>
+      <c r="E69" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D70" s="21"/>
+      <c r="E70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D71" s="21"/>
+      <c r="E71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D72" s="21"/>
+      <c r="E72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D73" s="21"/>
+      <c r="E73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D74" s="21"/>
+      <c r="E74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D75" s="21"/>
+      <c r="E75" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D76" s="21"/>
+      <c r="E76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D77" s="21"/>
+      <c r="E77" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D78" s="21"/>
+      <c r="E78" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D79" s="21"/>
+      <c r="E79" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D80" s="21"/>
+      <c r="E80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D81" s="21"/>
+      <c r="E81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D82" s="21"/>
+      <c r="E82" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D83" s="21"/>
+      <c r="E83" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D84" s="21"/>
+      <c r="E84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D85" s="21"/>
+      <c r="E85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D86" s="21"/>
+      <c r="E86" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D87" s="21"/>
+      <c r="E87" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D88" s="21"/>
+      <c r="E88" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D89" s="21"/>
+      <c r="E89" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D90" s="21"/>
+      <c r="E90" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D91" s="21"/>
+      <c r="E91" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D92" s="21"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D93" s="21"/>
+      <c r="E93" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D94" s="21"/>
+      <c r="E94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D95" s="21"/>
+      <c r="E95" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D96" s="21"/>
+      <c r="E96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D97" s="21"/>
+      <c r="E97" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D98" s="21"/>
+      <c r="E98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D99" s="21"/>
+      <c r="E99" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D100" s="21"/>
+      <c r="E100" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D101" s="21"/>
+      <c r="E101" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D102" s="21"/>
+      <c r="E102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D103" s="21"/>
+      <c r="E103" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D104" s="21"/>
+      <c r="E104" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D105" s="21"/>
+      <c r="E105" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D106" s="21"/>
+      <c r="E106" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D107" s="21"/>
+      <c r="E107" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D108" s="21"/>
+      <c r="E108" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D109" s="21"/>
+      <c r="E109" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D110" s="21"/>
+      <c r="E110" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D111" s="21"/>
+      <c r="E111" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D112" s="21"/>
+      <c r="E112" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D113" s="21"/>
+      <c r="E113" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D114" s="21"/>
+      <c r="E114" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D115" s="21"/>
+      <c r="E115" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D116" s="21"/>
+      <c r="E116" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D117" s="21"/>
+      <c r="E117" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D118" s="21"/>
+      <c r="E118" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D119" s="21"/>
+      <c r="E119" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D120" s="21"/>
+      <c r="E120" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D121" s="21"/>
+      <c r="E121" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D122" s="21"/>
+      <c r="E122" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D123" s="21"/>
+      <c r="E123" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D124" s="21"/>
+      <c r="E124" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D125" s="21"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D126" s="21"/>
+      <c r="E126" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D127" s="21"/>
+      <c r="E127" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D128" s="21"/>
+      <c r="E128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D129" s="21"/>
+      <c r="E129" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D130" s="21"/>
+      <c r="E130" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D131" s="21"/>
+      <c r="E131" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D132" s="21"/>
+      <c r="E132" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D133" s="21"/>
+      <c r="E133" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D134" s="21"/>
+      <c r="E134" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D135" s="21"/>
+      <c r="E135" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D136" s="21"/>
+      <c r="E136" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D137" s="21"/>
+      <c r="E137" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D138" s="21"/>
+      <c r="E138" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D139" s="21"/>
+      <c r="E139" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D140" s="21"/>
+      <c r="E140" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D141" s="21"/>
+      <c r="E141" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D142" s="21"/>
+      <c r="E142" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D143" s="21"/>
+      <c r="E143" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D144" s="21"/>
+      <c r="E144" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D145" s="21"/>
+      <c r="E145" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D146" s="21"/>
+      <c r="E146" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D147" s="21"/>
+      <c r="E147" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D148" s="21"/>
+      <c r="E148" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D149" s="21"/>
+      <c r="E149" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D150" s="21"/>
+      <c r="E150" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D151" s="21"/>
+      <c r="E151" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D152" s="21"/>
+      <c r="E152" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D153" s="21"/>
+      <c r="E153" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D154" s="21"/>
+      <c r="E154" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D155" s="21"/>
+      <c r="E155" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D156" s="21"/>
+      <c r="E156" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D157" s="22"/>
+      <c r="E157" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D158" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D159" s="21"/>
+      <c r="E159" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D160" s="21"/>
+      <c r="E160" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D161" s="21"/>
+      <c r="E161" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D162" s="21"/>
+      <c r="E162" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D163" s="21"/>
+      <c r="E163" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D164" s="21"/>
+      <c r="E164" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D165" s="21"/>
+      <c r="E165" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D166" s="21"/>
+      <c r="E166" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D167" s="21"/>
+      <c r="E167" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D168" s="21"/>
+      <c r="E168" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D169" s="21"/>
+      <c r="E169" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D170" s="21"/>
+      <c r="E170" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D171" s="21"/>
+      <c r="E171" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D172" s="21"/>
+      <c r="E172" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D173" s="22"/>
+      <c r="E173" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D174" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G174" s="17" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="175" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D175" s="21"/>
+      <c r="E175" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D176" s="21"/>
+      <c r="E176" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D177" s="21"/>
+      <c r="E177" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D178" s="21"/>
+      <c r="E178" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D179" s="21"/>
+      <c r="E179" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D180" s="21"/>
+      <c r="E180" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="G180" s="1"/>
+    </row>
+    <row r="181" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D181" s="21"/>
+      <c r="E181" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D182" s="21"/>
+      <c r="E182" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D183" s="21"/>
+      <c r="E183" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D184" s="21"/>
+      <c r="E184" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="185" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D185" s="21"/>
+      <c r="E185" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="186" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D186" s="21"/>
+      <c r="E186" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D187" s="21"/>
+      <c r="E187" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D188" s="21"/>
+      <c r="E188" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D189" s="21"/>
+      <c r="E189" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D190" s="21"/>
+      <c r="E190" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D191" s="21"/>
+      <c r="E191" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="192" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D192" s="21"/>
+      <c r="E192" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="193" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D193" s="21"/>
+      <c r="E193" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="194" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D194" s="21"/>
+      <c r="E194" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="195" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D195" s="21"/>
+      <c r="E195" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="196" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D196" s="21"/>
+      <c r="E196" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G196" s="1"/>
+    </row>
+    <row r="197" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D197" s="21"/>
+      <c r="E197" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G197" s="1"/>
+    </row>
+    <row r="198" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D198" s="21"/>
+      <c r="E198" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G198" s="1"/>
+    </row>
+    <row r="199" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D199" s="21"/>
+      <c r="E199" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G199" s="1"/>
+    </row>
+    <row r="200" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D200" s="21"/>
+      <c r="E200" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D201" s="21"/>
+      <c r="E201" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G201" s="1"/>
+    </row>
+    <row r="202" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D202" s="21"/>
+      <c r="E202" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G202" s="1"/>
+    </row>
+    <row r="203" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D203" s="21"/>
+      <c r="E203" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D204" s="21"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+    </row>
+    <row r="205" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D205" s="21"/>
+      <c r="E205" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G205" s="1"/>
+    </row>
+    <row r="206" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D206" s="21"/>
+      <c r="E206" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G206" s="1"/>
+    </row>
+    <row r="207" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D207" s="21"/>
+      <c r="E207" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G207" s="1"/>
+    </row>
+    <row r="208" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D208" s="21"/>
+      <c r="E208" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G208" s="1"/>
+    </row>
+    <row r="209" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D209" s="21"/>
+      <c r="E209" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G209" s="1"/>
+    </row>
+    <row r="210" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D210" s="21"/>
+      <c r="E210" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G210" s="1"/>
+    </row>
+    <row r="211" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D211" s="21"/>
+      <c r="E211" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F211" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="G211" s="1"/>
+    </row>
+    <row r="212" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D212" s="21"/>
+      <c r="E212" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="G212" s="1"/>
+    </row>
+    <row r="213" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D213" s="21"/>
+      <c r="E213" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G213" s="1"/>
+    </row>
+    <row r="214" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D214" s="21"/>
+      <c r="E214" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G214" s="1"/>
+    </row>
+    <row r="215" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D215" s="21"/>
+      <c r="E215" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G215" s="1"/>
+    </row>
+    <row r="216" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D216" s="21"/>
+      <c r="E216" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G216" s="1"/>
+    </row>
+    <row r="217" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D217" s="21"/>
+      <c r="E217" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G217" s="1"/>
+    </row>
+    <row r="218" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D218" s="21"/>
+      <c r="E218" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G218" s="1"/>
+    </row>
+    <row r="219" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D219" s="21"/>
+      <c r="E219" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G219" s="1"/>
+    </row>
+    <row r="220" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D220" s="21"/>
+      <c r="E220" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="G220" s="1"/>
+    </row>
+    <row r="221" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D221" s="21"/>
+      <c r="E221" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G221" s="1"/>
+    </row>
+    <row r="222" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D222" s="21"/>
+      <c r="E222" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G222" s="1"/>
+    </row>
+    <row r="223" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D223" s="21"/>
+      <c r="E223" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="G223" s="1"/>
+    </row>
+    <row r="224" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D224" s="21"/>
+      <c r="E224" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="G224" s="1"/>
+    </row>
+    <row r="225" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D225" s="21"/>
+      <c r="E225" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="G225" s="1"/>
+    </row>
+    <row r="226" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D226" s="21"/>
+      <c r="E226" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="G226" s="1"/>
+    </row>
+    <row r="227" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D227" s="21"/>
+      <c r="E227" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G227" s="1"/>
+    </row>
+    <row r="228" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D228" s="21"/>
+      <c r="E228" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G228" s="1"/>
+    </row>
+    <row r="229" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D229" s="21"/>
+      <c r="E229" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G229" s="1"/>
+    </row>
+    <row r="230" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D230" s="21"/>
+      <c r="E230" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G230" s="1"/>
+    </row>
+    <row r="231" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D231" s="21"/>
+      <c r="E231" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="G231" s="1"/>
+    </row>
+    <row r="232" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D232" s="21"/>
+      <c r="E232" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="G232" s="1"/>
+    </row>
+    <row r="233" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D233" s="21"/>
+      <c r="E233" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="G233" s="1"/>
+    </row>
+    <row r="234" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D234" s="21"/>
+      <c r="E234" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="G234" s="1"/>
+    </row>
+    <row r="235" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D235" s="21"/>
+      <c r="E235" s="7"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+    </row>
+    <row r="236" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D236" s="21"/>
+      <c r="E236" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="G236" s="1"/>
+    </row>
+    <row r="237" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D237" s="21"/>
+      <c r="E237" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="G237" s="1"/>
+    </row>
+    <row r="238" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D238" s="21"/>
+      <c r="E238" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="G238" s="1"/>
+    </row>
+    <row r="239" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D239" s="21"/>
+      <c r="E239" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G239" s="1"/>
+    </row>
+    <row r="240" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D240" s="21"/>
+      <c r="E240" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G240" s="1"/>
+    </row>
+    <row r="241" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D241" s="21"/>
+      <c r="E241" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G241" s="1"/>
+    </row>
+    <row r="242" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D242" s="21"/>
+      <c r="E242" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F242" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="G242" s="1"/>
+    </row>
+    <row r="243" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D243" s="21"/>
+      <c r="E243" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G243" s="1"/>
+    </row>
+    <row r="244" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D244" s="21"/>
+      <c r="E244" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G244" s="1"/>
+    </row>
+    <row r="245" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D245" s="21"/>
+      <c r="E245" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="G245" s="1"/>
+    </row>
+    <row r="246" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D246" s="21"/>
+      <c r="E246" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G246" s="1"/>
+    </row>
+    <row r="247" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D247" s="21"/>
+      <c r="E247" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G247" s="1"/>
+    </row>
+    <row r="248" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D248" s="21"/>
+      <c r="E248" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G248" s="1"/>
+    </row>
+    <row r="249" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D249" s="21"/>
+      <c r="E249" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G249" s="1"/>
+    </row>
+    <row r="250" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D250" s="21"/>
+      <c r="E250" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G250" s="1"/>
+    </row>
+    <row r="251" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D251" s="21"/>
+      <c r="E251" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G251" s="1"/>
+    </row>
+    <row r="252" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D252" s="21"/>
+      <c r="E252" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G252" s="1"/>
+    </row>
+    <row r="253" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D253" s="21"/>
+      <c r="E253" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G253" s="1"/>
+    </row>
+    <row r="254" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D254" s="21"/>
+      <c r="E254" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G254" s="1"/>
+    </row>
+    <row r="255" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D255" s="21"/>
+      <c r="E255" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G255" s="1"/>
+    </row>
+    <row r="256" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D256" s="21"/>
+      <c r="E256" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G256" s="1"/>
+    </row>
+    <row r="257" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D257" s="21"/>
+      <c r="E257" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G257" s="1"/>
+    </row>
+    <row r="258" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D258" s="21"/>
+      <c r="E258" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="G258" s="1"/>
+    </row>
+    <row r="259" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D259" s="21"/>
+      <c r="E259" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="G259" s="1"/>
+    </row>
+    <row r="260" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D260" s="21"/>
+      <c r="E260" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G260" s="1"/>
+    </row>
+    <row r="261" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D261" s="21"/>
+      <c r="E261" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G261" s="1"/>
+    </row>
+    <row r="262" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D262" s="21"/>
+      <c r="E262" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G262" s="1"/>
+    </row>
+    <row r="263" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D263" s="21"/>
+      <c r="E263" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="G263" s="1"/>
+    </row>
+    <row r="264" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D264" s="21"/>
+      <c r="E264" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="G264" s="1"/>
+    </row>
+    <row r="265" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D265" s="21"/>
+      <c r="E265" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G265" s="1"/>
+    </row>
+    <row r="266" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D266" s="21"/>
+      <c r="E266" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="G266" s="1"/>
+    </row>
+    <row r="267" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D267" s="21"/>
+      <c r="E267" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G267" s="1"/>
+    </row>
+    <row r="268" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D268" s="21"/>
+      <c r="E268" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="G268" s="1"/>
+    </row>
+    <row r="269" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D269" s="21"/>
+      <c r="E269" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="G269" s="1"/>
+    </row>
+    <row r="270" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D270" s="21"/>
+      <c r="E270" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G270" s="1"/>
+    </row>
+    <row r="271" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D271" s="21"/>
+      <c r="E271" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G271" s="1"/>
+    </row>
+    <row r="272" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D272" s="21"/>
+      <c r="E272" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G272" s="1"/>
+    </row>
+    <row r="273" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D273" s="21"/>
+      <c r="E273" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="G273" s="1"/>
+    </row>
+    <row r="274" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D274" s="21"/>
+      <c r="E274" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="G274" s="1"/>
+    </row>
+    <row r="275" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D275" s="21"/>
+      <c r="E275" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="G275" s="1"/>
+    </row>
+    <row r="276" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D276" s="21"/>
+      <c r="E276" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="G276" s="1"/>
+    </row>
+    <row r="277" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D277" s="22"/>
+      <c r="E277" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F277" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="G277" s="1"/>
+    </row>
+    <row r="278" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D278" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E278" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G278" s="1"/>
+    </row>
+    <row r="279" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D279" s="21"/>
+      <c r="E279" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G279" s="1"/>
+    </row>
+    <row r="280" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D280" s="21"/>
+      <c r="E280" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="G280" s="1"/>
+    </row>
+    <row r="281" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D281" s="21"/>
+      <c r="E281" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="G281" s="1"/>
+    </row>
+    <row r="282" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D282" s="21"/>
+      <c r="E282" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="G282" s="1"/>
+    </row>
+    <row r="283" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D283" s="21"/>
+      <c r="E283" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G283" s="1"/>
+    </row>
+    <row r="284" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D284" s="21"/>
+      <c r="E284" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="G284" s="1"/>
+    </row>
+    <row r="285" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D285" s="21"/>
+      <c r="E285" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="G285" s="1"/>
+    </row>
+    <row r="286" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D286" s="21"/>
+      <c r="E286" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="G286" s="1"/>
+    </row>
+    <row r="287" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D287" s="21"/>
+      <c r="E287" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G287" s="1"/>
+    </row>
+    <row r="288" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D288" s="21"/>
+      <c r="E288" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="G288" s="1"/>
+    </row>
+    <row r="289" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D289" s="21"/>
+      <c r="E289" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="G289" s="1"/>
+    </row>
+    <row r="290" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D290" s="21"/>
+      <c r="E290" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="G290" s="1"/>
+    </row>
+    <row r="291" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D291" s="21"/>
+      <c r="E291" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="G291" s="1"/>
+    </row>
+    <row r="292" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D292" s="21"/>
+      <c r="E292" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="G292" s="1"/>
+    </row>
+    <row r="293" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D293" s="21"/>
+      <c r="E293" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G293" s="1"/>
+    </row>
+    <row r="294" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D294" s="21"/>
+      <c r="E294" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="G294" s="1"/>
+    </row>
+    <row r="295" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D295" s="21"/>
+      <c r="E295" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G295" s="1"/>
+    </row>
+    <row r="296" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D296" s="21"/>
+      <c r="E296" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="G296" s="1"/>
+    </row>
+    <row r="297" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D297" s="21"/>
+      <c r="E297" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="G297" s="1"/>
+    </row>
+    <row r="298" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D298" s="21"/>
+      <c r="E298" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="G298" s="1"/>
+    </row>
+    <row r="299" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D299" s="21"/>
+      <c r="E299" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="G299" s="1"/>
+    </row>
+    <row r="300" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D300" s="21"/>
+      <c r="E300" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="G300" s="1"/>
+    </row>
+    <row r="301" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D301" s="21"/>
+      <c r="E301" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="G301" s="1"/>
+    </row>
+    <row r="302" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D302" s="21"/>
+      <c r="E302" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G302" s="1"/>
+    </row>
+    <row r="303" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D303" s="21"/>
+      <c r="E303" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="G303" s="1"/>
+    </row>
+    <row r="304" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D304" s="21"/>
+      <c r="E304" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G304" s="1"/>
+    </row>
+    <row r="305" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D305" s="21"/>
+      <c r="E305" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="G305" s="1"/>
+    </row>
+    <row r="306" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D306" s="21"/>
+      <c r="E306" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="G306" s="1"/>
+    </row>
+    <row r="307" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D307" s="21"/>
+      <c r="E307" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="G307" s="1"/>
+    </row>
+    <row r="308" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D308" s="21"/>
+      <c r="E308" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="G308" s="1"/>
+    </row>
+    <row r="309" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D309" s="21"/>
+      <c r="E309" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="G309" s="1"/>
+    </row>
+    <row r="310" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D310" s="21"/>
+      <c r="E310" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="G310" s="1"/>
+    </row>
+    <row r="311" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D311" s="21"/>
+      <c r="E311" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="G311" s="1"/>
+    </row>
+    <row r="312" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D312" s="21"/>
+      <c r="E312" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="G312" s="1"/>
+    </row>
+    <row r="313" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D313" s="21"/>
+      <c r="E313" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="G313" s="1"/>
+    </row>
+    <row r="314" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D314" s="21"/>
+      <c r="E314" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="G314" s="1"/>
+    </row>
+    <row r="315" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D315" s="21"/>
+      <c r="E315" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="G315" s="1"/>
+    </row>
+    <row r="316" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D316" s="21"/>
+      <c r="E316" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G316" s="1"/>
+    </row>
+    <row r="317" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D317" s="21"/>
+      <c r="E317" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G317" s="1"/>
+    </row>
+    <row r="318" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D318" s="21"/>
+      <c r="E318" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="G318" s="1"/>
+    </row>
+    <row r="319" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D319" s="21"/>
+      <c r="E319" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="G319" s="1"/>
+    </row>
+    <row r="320" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D320" s="21"/>
+      <c r="E320" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="G320" s="1"/>
+    </row>
+    <row r="321" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D321" s="21"/>
+      <c r="E321" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G321" s="1"/>
+    </row>
+    <row r="322" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D322" s="21"/>
+      <c r="E322" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="G322" s="1"/>
+    </row>
+    <row r="323" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D323" s="21"/>
+      <c r="E323" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="G323" s="1"/>
+    </row>
+    <row r="324" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D324" s="21"/>
+      <c r="E324" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G324" s="1"/>
+    </row>
+    <row r="325" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D325" s="21"/>
+      <c r="E325" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="G325" s="1"/>
+    </row>
+    <row r="326" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D326" s="21"/>
+      <c r="E326" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G326" s="1"/>
+    </row>
+    <row r="327" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D327" s="21"/>
+      <c r="E327" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G327" s="1"/>
+    </row>
+    <row r="328" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D328" s="21"/>
+      <c r="E328" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="G328" s="1"/>
+    </row>
+    <row r="329" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D329" s="21"/>
+      <c r="E329" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F329" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="G329" s="1"/>
+    </row>
+    <row r="330" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D330" s="21"/>
+      <c r="E330" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="G330" s="1"/>
+    </row>
+    <row r="331" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D331" s="22"/>
+      <c r="E331" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G331" s="1"/>
+    </row>
+    <row r="332" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D332" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E332" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="G332" s="1"/>
+    </row>
+    <row r="333" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D333" s="21"/>
+      <c r="E333" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="G333" s="1"/>
+    </row>
+    <row r="334" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D334" s="21"/>
+      <c r="E334" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G334" s="1"/>
+    </row>
+    <row r="335" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D335" s="21"/>
+      <c r="E335" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G335" s="1"/>
+    </row>
+    <row r="336" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D336" s="21"/>
+      <c r="E336" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G336" s="1"/>
+    </row>
+    <row r="337" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D337" s="21"/>
+      <c r="E337" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G337" s="1"/>
+    </row>
+    <row r="338" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D338" s="21"/>
+      <c r="E338" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="G338" s="1"/>
+    </row>
+    <row r="339" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D339" s="21"/>
+      <c r="E339" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="G339" s="1"/>
+    </row>
+    <row r="340" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D340" s="21"/>
+      <c r="E340" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="G340" s="1"/>
+    </row>
+    <row r="341" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D341" s="21"/>
+      <c r="E341" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="G341" s="1"/>
+    </row>
+    <row r="342" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D342" s="21"/>
+      <c r="E342" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="G342" s="1"/>
+    </row>
+    <row r="343" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D343" s="21"/>
+      <c r="E343" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="G343" s="1"/>
+    </row>
+    <row r="344" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D344" s="21"/>
+      <c r="E344" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="G344" s="1"/>
+    </row>
+    <row r="345" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D345" s="21"/>
+      <c r="E345" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="G345" s="1"/>
+    </row>
+    <row r="346" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D346" s="21"/>
+      <c r="E346" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="G346" s="1"/>
+    </row>
+    <row r="347" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D347" s="21"/>
+      <c r="E347" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="G347" s="1"/>
+    </row>
+    <row r="348" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D348" s="21"/>
+      <c r="E348" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="G348" s="1"/>
+    </row>
+    <row r="349" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D349" s="21"/>
+      <c r="E349" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G349" s="1"/>
+    </row>
+    <row r="350" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D350" s="21"/>
+      <c r="E350" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="G350" s="1"/>
+    </row>
+    <row r="351" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D351" s="21"/>
+      <c r="E351" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="G351" s="1"/>
+    </row>
+    <row r="352" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D352" s="21"/>
+      <c r="E352" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="G352" s="1"/>
+    </row>
+    <row r="353" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D353" s="22"/>
+      <c r="E353" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="G353" s="1"/>
+    </row>
+    <row r="354" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D354" s="1"/>
+      <c r="E354" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="G354" s="1"/>
+    </row>
+    <row r="355" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D355" s="1"/>
+      <c r="E355" s="7"/>
+      <c r="F355" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G355" s="1"/>
+    </row>
+    <row r="356" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D356" s="1"/>
+      <c r="E356" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="357" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D357" s="1"/>
+      <c r="E357" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="G357" s="1"/>
+    </row>
+    <row r="358" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D358" s="1"/>
+      <c r="E358" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="G358" s="1" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="359" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D359" s="1"/>
+      <c r="E359" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="G359" s="1"/>
+    </row>
+    <row r="360" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D360" s="1"/>
+      <c r="E360" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G360" s="1"/>
+    </row>
+    <row r="361" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D361" s="1"/>
+      <c r="E361" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G361" s="1"/>
+    </row>
+    <row r="362" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D362" s="1"/>
+      <c r="E362" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="G362" s="1"/>
+    </row>
+    <row r="363" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D363" s="1"/>
+      <c r="E363" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="G363" s="1"/>
+    </row>
+    <row r="364" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D364" s="1"/>
+      <c r="E364" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G364" s="1"/>
+    </row>
+    <row r="365" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D365" s="1"/>
+      <c r="E365" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G365" s="1"/>
+    </row>
+    <row r="366" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D366" s="1"/>
+      <c r="E366" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="G366" s="1"/>
+    </row>
+    <row r="367" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D367" s="1"/>
+      <c r="E367" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="G367" s="1"/>
+    </row>
+    <row r="368" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D368" s="1"/>
+      <c r="E368" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="G368" s="1"/>
+    </row>
+    <row r="369" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D369" s="1"/>
+      <c r="E369" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G369" s="1"/>
+    </row>
+    <row r="370" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D370" s="1"/>
+      <c r="E370" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G370" s="1"/>
+    </row>
+    <row r="371" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D371" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E371" s="26"/>
+      <c r="F371" s="26"/>
+      <c r="G371" s="26"/>
+    </row>
+    <row r="372" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D372" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G372" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D373" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E373" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F373" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G373" s="16" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="374" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D374" s="24"/>
+      <c r="E374" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G374" s="1"/>
+    </row>
+    <row r="375" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D375" s="24"/>
+      <c r="E375" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F375" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G375" s="1"/>
+    </row>
+    <row r="376" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D376" s="24"/>
+      <c r="E376" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G376" s="1"/>
+    </row>
+    <row r="377" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D377" s="24"/>
+      <c r="E377" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="G377" s="1"/>
+    </row>
+    <row r="378" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D378" s="24"/>
+      <c r="E378" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G378" s="1"/>
+    </row>
+    <row r="379" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D379" s="24"/>
+      <c r="E379" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G379" s="1" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="380" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D380" s="24"/>
+      <c r="E380" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G380" s="1"/>
+    </row>
+    <row r="381" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D381" s="24"/>
+      <c r="E381" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G381" s="1"/>
+    </row>
+    <row r="382" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D382" s="24"/>
+      <c r="E382" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G382" s="1"/>
+    </row>
+    <row r="383" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D383" s="24"/>
+      <c r="E383" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G383" s="1"/>
+    </row>
+    <row r="384" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D384" s="24"/>
+      <c r="E384" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G384" s="1"/>
+    </row>
+    <row r="385" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D385" s="24"/>
+      <c r="E385" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G385" s="1"/>
+    </row>
+    <row r="386" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D386" s="24"/>
+      <c r="E386" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="G386" s="1"/>
+    </row>
+    <row r="387" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D387" s="24"/>
+      <c r="E387" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="G387" s="1"/>
+    </row>
+    <row r="388" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D388" s="24"/>
+      <c r="E388" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="G388" s="1"/>
+    </row>
+    <row r="389" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D389" s="24"/>
+      <c r="E389" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="G389" s="1"/>
+    </row>
+    <row r="390" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D390" s="24"/>
+      <c r="E390" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="G390" s="1"/>
+    </row>
+    <row r="391" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D391" s="24"/>
+      <c r="E391" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="G391" s="1"/>
+    </row>
+    <row r="392" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D392" s="24"/>
+      <c r="E392" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="G392" s="1"/>
+    </row>
+    <row r="393" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D393" s="24"/>
+      <c r="E393" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="G393" s="1"/>
+    </row>
+    <row r="394" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D394" s="24"/>
+      <c r="E394" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G394" s="1"/>
+    </row>
+    <row r="395" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D395" s="24"/>
+      <c r="E395" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="G395" s="1"/>
+    </row>
+    <row r="396" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D396" s="24"/>
+      <c r="E396" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F396" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="G396" s="1"/>
+    </row>
+    <row r="397" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D397" s="24"/>
+      <c r="E397" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F397" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="G397" s="1"/>
+    </row>
+    <row r="398" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D398" s="24"/>
+      <c r="E398" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="G398" s="1"/>
+    </row>
+    <row r="399" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D399" s="24"/>
+      <c r="E399" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="G399" s="1"/>
+    </row>
+    <row r="400" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D400" s="24"/>
+      <c r="E400" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="G400" s="1"/>
+    </row>
+    <row r="401" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D401" s="24"/>
+      <c r="E401" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G401" s="1"/>
+    </row>
+    <row r="402" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D402" s="24"/>
+      <c r="E402" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F402" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="G402" s="1"/>
+    </row>
+    <row r="403" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D403" s="24"/>
+      <c r="E403" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="G403" s="1"/>
+    </row>
+    <row r="404" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D404" s="24"/>
+      <c r="E404" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="G404" s="1"/>
+    </row>
+    <row r="405" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D405" s="24"/>
+      <c r="E405" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="G405" s="1"/>
+    </row>
+    <row r="406" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D406" s="24"/>
+      <c r="E406" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G406" s="1"/>
+    </row>
+    <row r="407" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D407" s="24"/>
+      <c r="E407" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="G407" s="1"/>
+    </row>
+    <row r="408" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D408" s="24"/>
+      <c r="E408" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G408" s="1"/>
+    </row>
+    <row r="409" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D409" s="24"/>
+      <c r="E409" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G409" s="1"/>
+    </row>
+    <row r="410" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D410" s="24"/>
+      <c r="E410" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G410" s="1"/>
+    </row>
+    <row r="411" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D411" s="24"/>
+      <c r="E411" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G411" s="1"/>
+    </row>
+    <row r="412" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D412" s="24"/>
+      <c r="E412" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G412" s="1"/>
+    </row>
+    <row r="413" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D413" s="24"/>
+      <c r="E413" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G413" s="1"/>
+    </row>
+    <row r="414" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D414" s="24"/>
+      <c r="E414" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G414" s="1"/>
+    </row>
+    <row r="415" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D415" s="25"/>
+      <c r="E415" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G415" s="1"/>
+    </row>
+    <row r="416" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D416" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E416" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G416" s="1"/>
+    </row>
+    <row r="417" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D417" s="21"/>
+      <c r="E417" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G417" s="1"/>
+    </row>
+    <row r="418" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D418" s="21"/>
+      <c r="E418" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G418" s="1"/>
+    </row>
+    <row r="419" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D419" s="21"/>
+      <c r="E419" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G419" s="1"/>
+    </row>
+    <row r="420" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D420" s="21"/>
+      <c r="E420" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G420" s="1"/>
+    </row>
+    <row r="421" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D421" s="21"/>
+      <c r="E421" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G421" s="1"/>
+    </row>
+    <row r="422" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D422" s="21"/>
+      <c r="E422" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G422" s="1"/>
+    </row>
+    <row r="423" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D423" s="21"/>
+      <c r="E423" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G423" s="1"/>
+    </row>
+    <row r="424" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D424" s="21"/>
+      <c r="E424" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G424" s="1"/>
+    </row>
+    <row r="425" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D425" s="22"/>
+      <c r="E425" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G425" s="1"/>
+    </row>
+    <row r="426" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D426" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E426" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G426" s="1"/>
+    </row>
+    <row r="427" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D427" s="21"/>
+      <c r="E427" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G427" s="1"/>
+    </row>
+    <row r="428" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D428" s="21"/>
+      <c r="E428" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G428" s="1"/>
+    </row>
+    <row r="429" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D429" s="21"/>
+      <c r="E429" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G429" s="1"/>
+    </row>
+    <row r="430" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D430" s="21"/>
+      <c r="E430" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G430" s="1"/>
+    </row>
+    <row r="431" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D431" s="21"/>
+      <c r="E431" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G431" s="1"/>
+    </row>
+    <row r="432" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D432" s="21"/>
+      <c r="E432" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G432" s="1"/>
+    </row>
+    <row r="433" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D433" s="21"/>
+      <c r="E433" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G433" s="1"/>
+    </row>
+    <row r="434" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D434" s="21"/>
+      <c r="E434" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G434" s="1"/>
+    </row>
+    <row r="435" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D435" s="21"/>
+      <c r="E435" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G435" s="1"/>
+    </row>
+    <row r="436" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D436" s="21"/>
+      <c r="E436" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G436" s="1"/>
+    </row>
+    <row r="437" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D437" s="21"/>
+      <c r="E437" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G437" s="1"/>
+    </row>
+    <row r="438" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D438" s="21"/>
+      <c r="E438" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="G438" s="1"/>
+    </row>
+    <row r="439" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D439" s="21"/>
+      <c r="E439" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G439" s="1"/>
+    </row>
+    <row r="440" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D440" s="21"/>
+      <c r="E440" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G440" s="1"/>
+    </row>
+    <row r="441" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D441" s="21"/>
+      <c r="E441" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G441" s="1"/>
+    </row>
+    <row r="442" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D442" s="21"/>
+      <c r="E442" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G442" s="1"/>
+    </row>
+    <row r="443" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D443" s="21"/>
+      <c r="E443" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G443" s="1"/>
+    </row>
+    <row r="444" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D444" s="21"/>
+      <c r="E444" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G444" s="1"/>
+    </row>
+    <row r="445" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D445" s="21"/>
+      <c r="E445" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G445" s="1"/>
+    </row>
+    <row r="446" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D446" s="21"/>
+      <c r="E446" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D447" s="21"/>
+      <c r="E447" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D448" s="21"/>
+      <c r="E448" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D449" s="21"/>
+      <c r="E449" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D450" s="21"/>
+      <c r="E450" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D451" s="21"/>
+      <c r="E451" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D452" s="21"/>
+      <c r="E452" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D453" s="21"/>
+      <c r="E453" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D454" s="21"/>
+      <c r="E454" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D455" s="21"/>
+      <c r="E455" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D456" s="21"/>
+      <c r="E456" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D457" s="21"/>
+      <c r="E457" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D458" s="21"/>
+      <c r="E458" s="7"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D459" s="21"/>
+      <c r="E459" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D460" s="21"/>
+      <c r="E460" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D461" s="21"/>
+      <c r="E461" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D462" s="21"/>
+      <c r="E462" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D463" s="21"/>
+      <c r="E463" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D464" s="21"/>
+      <c r="E464" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D465" s="21"/>
+      <c r="E465" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D466" s="21"/>
+      <c r="E466" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D467" s="21"/>
+      <c r="E467" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D468" s="21"/>
+      <c r="E468" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D469" s="21"/>
+      <c r="E469" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D470" s="21"/>
+      <c r="E470" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D471" s="21"/>
+      <c r="E471" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D472" s="21"/>
+      <c r="E472" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D473" s="21"/>
+      <c r="E473" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D474" s="21"/>
+      <c r="E474" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D475" s="21"/>
+      <c r="E475" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D476" s="21"/>
+      <c r="E476" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D477" s="21"/>
+      <c r="E477" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D478" s="21"/>
+      <c r="E478" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D479" s="21"/>
+      <c r="E479" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D480" s="21"/>
+      <c r="E480" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D481" s="21"/>
+      <c r="E481" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D482" s="21"/>
+      <c r="E482" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D483" s="21"/>
+      <c r="E483" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D484" s="21"/>
+      <c r="E484" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D485" s="21"/>
+      <c r="E485" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D486" s="21"/>
+      <c r="E486" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D487" s="21"/>
+      <c r="E487" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D488" s="21"/>
+      <c r="E488" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D489" s="21"/>
+      <c r="E489" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D490" s="21"/>
+      <c r="E490" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D491" s="21"/>
+      <c r="E491" s="7"/>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D492" s="21"/>
+      <c r="E492" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D493" s="21"/>
+      <c r="E493" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D494" s="21"/>
+      <c r="E494" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D495" s="21"/>
+      <c r="E495" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D496" s="21"/>
+      <c r="E496" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D497" s="21"/>
+      <c r="E497" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D498" s="21"/>
+      <c r="E498" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D499" s="21"/>
+      <c r="E499" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F499" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D500" s="21"/>
+      <c r="E500" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G500" s="1"/>
+    </row>
+    <row r="501" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D501" s="21"/>
+      <c r="E501" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G501" s="1"/>
+    </row>
+    <row r="502" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D502" s="21"/>
+      <c r="E502" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G502" s="1"/>
+    </row>
+    <row r="503" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D503" s="21"/>
+      <c r="E503" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G503" s="1"/>
+    </row>
+    <row r="504" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D504" s="21"/>
+      <c r="E504" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G504" s="1"/>
+    </row>
+    <row r="505" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D505" s="21"/>
+      <c r="E505" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F505" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G505" s="1"/>
+    </row>
+    <row r="506" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D506" s="21"/>
+      <c r="E506" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G506" s="1"/>
+    </row>
+    <row r="507" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D507" s="21"/>
+      <c r="E507" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G507" s="1"/>
+    </row>
+    <row r="508" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D508" s="21"/>
+      <c r="E508" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G508" s="1"/>
+    </row>
+    <row r="509" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D509" s="21"/>
+      <c r="E509" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F509" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G509" s="1"/>
+    </row>
+    <row r="510" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D510" s="21"/>
+      <c r="E510" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G510" s="1"/>
+    </row>
+    <row r="511" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D511" s="21"/>
+      <c r="E511" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F511" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G511" s="1"/>
+    </row>
+    <row r="512" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D512" s="21"/>
+      <c r="E512" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G512" s="1"/>
+    </row>
+    <row r="513" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D513" s="21"/>
+      <c r="E513" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G513" s="1"/>
+    </row>
+    <row r="514" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D514" s="21"/>
+      <c r="E514" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G514" s="1"/>
+    </row>
+    <row r="515" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D515" s="21"/>
+      <c r="E515" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F515" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G515" s="1"/>
+    </row>
+    <row r="516" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D516" s="21"/>
+      <c r="E516" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F516" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G516" s="1"/>
+    </row>
+    <row r="517" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D517" s="21"/>
+      <c r="E517" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F517" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G517" s="1"/>
+    </row>
+    <row r="518" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D518" s="21"/>
+      <c r="E518" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F518" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G518" s="1"/>
+    </row>
+    <row r="519" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D519" s="21"/>
+      <c r="E519" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F519" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G519" s="1"/>
+    </row>
+    <row r="520" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D520" s="21"/>
+      <c r="E520" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G520" s="1"/>
+    </row>
+    <row r="521" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D521" s="21"/>
+      <c r="E521" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G521" s="1"/>
+    </row>
+    <row r="522" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D522" s="21"/>
+      <c r="E522" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F522" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G522" s="1"/>
+    </row>
+    <row r="523" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D523" s="22"/>
+      <c r="E523" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F523" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G523" s="1"/>
+    </row>
+    <row r="524" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D524" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E524" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G524" s="1" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="525" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D525" s="21"/>
+      <c r="E525" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G525" s="1"/>
+    </row>
+    <row r="526" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D526" s="21"/>
+      <c r="E526" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G526" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="527" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D527" s="21"/>
+      <c r="E527" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G527" s="1" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="528" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D528" s="21"/>
+      <c r="E528" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G528" s="1" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="529" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D529" s="21"/>
+      <c r="E529" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G529" s="1" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="530" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D530" s="21"/>
+      <c r="E530" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G530" s="17" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="531" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D531" s="21"/>
+      <c r="E531" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F531" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G531" s="1" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="532" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D532" s="21"/>
+      <c r="E532" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G532" s="1" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="533" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D533" s="21"/>
+      <c r="E533" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G533" s="1"/>
+    </row>
+    <row r="534" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D534" s="21"/>
+      <c r="E534" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G534" s="1" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="535" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D535" s="21"/>
+      <c r="E535" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G535" s="1" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="536" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D536" s="21"/>
+      <c r="E536" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G536" s="1" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="537" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D537" s="21"/>
+      <c r="E537" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G537" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="538" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D538" s="21"/>
+      <c r="E538" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G538" s="17" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="539" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D539" s="22"/>
+      <c r="E539" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G539" s="1"/>
+    </row>
+    <row r="540" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D540" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E540" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G540" s="1"/>
+    </row>
+    <row r="541" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D541" s="21"/>
+      <c r="E541" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G541" s="1"/>
+    </row>
+    <row r="542" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D542" s="21"/>
+      <c r="E542" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G542" s="1"/>
+    </row>
+    <row r="543" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D543" s="21"/>
+      <c r="E543" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G543" s="1"/>
+    </row>
+    <row r="544" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D544" s="21"/>
+      <c r="E544" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G544" s="1"/>
+    </row>
+    <row r="545" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D545" s="21"/>
+      <c r="E545" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G545" s="1"/>
+    </row>
+    <row r="546" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D546" s="21"/>
+      <c r="E546" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F546" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G546" s="1"/>
+    </row>
+    <row r="547" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D547" s="21"/>
+      <c r="E547" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G547" s="1"/>
+    </row>
+    <row r="548" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D548" s="21"/>
+      <c r="E548" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G548" s="1"/>
+    </row>
+    <row r="549" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D549" s="21"/>
+      <c r="E549" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G549" s="1"/>
+    </row>
+    <row r="550" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D550" s="21"/>
+      <c r="E550" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G550" s="1"/>
+    </row>
+    <row r="551" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D551" s="21"/>
+      <c r="E551" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G551" s="1"/>
+    </row>
+    <row r="552" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D552" s="21"/>
+      <c r="E552" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G552" s="1"/>
+    </row>
+    <row r="553" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D553" s="21"/>
+      <c r="E553" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G553" s="1"/>
+    </row>
+    <row r="554" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D554" s="21"/>
+      <c r="E554" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G554" s="1"/>
+    </row>
+    <row r="555" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D555" s="21"/>
+      <c r="E555" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G555" s="1"/>
+    </row>
+    <row r="556" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D556" s="21"/>
+      <c r="E556" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G556" s="1"/>
+    </row>
+    <row r="557" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D557" s="21"/>
+      <c r="E557" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G557" s="1"/>
+    </row>
+    <row r="558" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D558" s="21"/>
+      <c r="E558" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G558" s="1"/>
+    </row>
+    <row r="559" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D559" s="21"/>
+      <c r="E559" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G559" s="1"/>
+    </row>
+    <row r="560" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D560" s="21"/>
+      <c r="E560" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G560" s="1"/>
+    </row>
+    <row r="561" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D561" s="21"/>
+      <c r="E561" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G561" s="1"/>
+    </row>
+    <row r="562" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D562" s="21"/>
+      <c r="E562" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G562" s="1"/>
+    </row>
+    <row r="563" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D563" s="21"/>
+      <c r="E563" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G563" s="1"/>
+    </row>
+    <row r="564" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D564" s="21"/>
+      <c r="E564" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G564" s="1"/>
+    </row>
+    <row r="565" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D565" s="21"/>
+      <c r="E565" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F565" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G565" s="1"/>
+    </row>
+    <row r="566" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D566" s="21"/>
+      <c r="E566" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F566" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G566" s="1"/>
+    </row>
+    <row r="567" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D567" s="21"/>
+      <c r="E567" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F567" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G567" s="1"/>
+    </row>
+    <row r="568" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D568" s="21"/>
+      <c r="E568" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F568" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G568" s="1"/>
+    </row>
+    <row r="569" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D569" s="21"/>
+      <c r="E569" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G569" s="1"/>
+    </row>
+    <row r="570" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D570" s="21"/>
+      <c r="E570" s="10"/>
+      <c r="F570" s="1"/>
+      <c r="G570" s="1"/>
+    </row>
+    <row r="571" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D571" s="21"/>
+      <c r="E571" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F571" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G571" s="1"/>
+    </row>
+    <row r="572" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D572" s="21"/>
+      <c r="E572" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G572" s="1"/>
+    </row>
+    <row r="573" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D573" s="21"/>
+      <c r="E573" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F573" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G573" s="1"/>
+    </row>
+    <row r="574" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D574" s="21"/>
+      <c r="E574" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F574" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G574" s="1"/>
+    </row>
+    <row r="575" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D575" s="21"/>
+      <c r="E575" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F575" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G575" s="1"/>
+    </row>
+    <row r="576" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D576" s="21"/>
+      <c r="E576" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F576" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G576" s="1"/>
+    </row>
+    <row r="577" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D577" s="21"/>
+      <c r="E577" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F577" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="G577" s="1"/>
+    </row>
+    <row r="578" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D578" s="21"/>
+      <c r="E578" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F578" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G578" s="1"/>
+    </row>
+    <row r="579" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D579" s="21"/>
+      <c r="E579" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F579" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G579" s="1"/>
+    </row>
+    <row r="580" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D580" s="21"/>
+      <c r="E580" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F580" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G580" s="1"/>
+    </row>
+    <row r="581" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D581" s="21"/>
+      <c r="E581" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F581" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G581" s="1"/>
+    </row>
+    <row r="582" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D582" s="21"/>
+      <c r="E582" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F582" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G582" s="1"/>
+    </row>
+    <row r="583" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D583" s="21"/>
+      <c r="E583" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F583" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G583" s="1"/>
+    </row>
+    <row r="584" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D584" s="21"/>
+      <c r="E584" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G584" s="1"/>
+    </row>
+    <row r="585" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D585" s="21"/>
+      <c r="E585" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F585" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G585" s="1"/>
+    </row>
+    <row r="586" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D586" s="21"/>
+      <c r="E586" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F586" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G586" s="1"/>
+    </row>
+    <row r="587" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D587" s="21"/>
+      <c r="E587" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F587" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G587" s="1"/>
+    </row>
+    <row r="588" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D588" s="21"/>
+      <c r="E588" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F588" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G588" s="1"/>
+    </row>
+    <row r="589" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D589" s="21"/>
+      <c r="E589" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F589" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G589" s="1"/>
+    </row>
+    <row r="590" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D590" s="21"/>
+      <c r="E590" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F590" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G590" s="1"/>
+    </row>
+    <row r="591" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D591" s="21"/>
+      <c r="E591" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F591" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G591" s="1"/>
+    </row>
+    <row r="592" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D592" s="21"/>
+      <c r="E592" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F592" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G592" s="1"/>
+    </row>
+    <row r="593" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D593" s="21"/>
+      <c r="E593" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F593" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G593" s="1"/>
+    </row>
+    <row r="594" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D594" s="21"/>
+      <c r="E594" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F594" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G594" s="1"/>
+    </row>
+    <row r="595" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D595" s="21"/>
+      <c r="E595" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G595" s="1"/>
+    </row>
+    <row r="596" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D596" s="21"/>
+      <c r="E596" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G596" s="1"/>
+    </row>
+    <row r="597" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D597" s="21"/>
+      <c r="E597" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F597" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G597" s="1"/>
+    </row>
+    <row r="598" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D598" s="21"/>
+      <c r="E598" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F598" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G598" s="1"/>
+    </row>
+    <row r="599" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D599" s="21"/>
+      <c r="E599" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F599" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G599" s="1"/>
+    </row>
+    <row r="600" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D600" s="21"/>
+      <c r="E600" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G600" s="1"/>
+    </row>
+    <row r="601" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D601" s="21"/>
+      <c r="E601" s="7"/>
+      <c r="F601" s="1"/>
+      <c r="G601" s="1"/>
+    </row>
+    <row r="602" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D602" s="21"/>
+      <c r="E602" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G602" s="1"/>
+    </row>
+    <row r="603" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D603" s="21"/>
+      <c r="E603" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F603" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G603" s="1"/>
+    </row>
+    <row r="604" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D604" s="21"/>
+      <c r="E604" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F604" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G604" s="1"/>
+    </row>
+    <row r="605" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D605" s="21"/>
+      <c r="E605" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F605" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G605" s="1"/>
+    </row>
+    <row r="606" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D606" s="21"/>
+      <c r="E606" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F606" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G606" s="1"/>
+    </row>
+    <row r="607" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D607" s="21"/>
+      <c r="E607" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F607" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G607" s="1"/>
+    </row>
+    <row r="608" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D608" s="21"/>
+      <c r="E608" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F608" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="G608" s="1"/>
+    </row>
+    <row r="609" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D609" s="21"/>
+      <c r="E609" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F609" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G609" s="1"/>
+    </row>
+    <row r="610" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D610" s="21"/>
+      <c r="E610" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F610" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G610" s="1"/>
+    </row>
+    <row r="611" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D611" s="21"/>
+      <c r="E611" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F611" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G611" s="1"/>
+    </row>
+    <row r="612" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D612" s="21"/>
+      <c r="E612" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F612" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G612" s="1"/>
+    </row>
+    <row r="613" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D613" s="21"/>
+      <c r="E613" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F613" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G613" s="1"/>
+    </row>
+    <row r="614" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D614" s="21"/>
+      <c r="E614" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F614" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G614" s="1"/>
+    </row>
+    <row r="615" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D615" s="21"/>
+      <c r="E615" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F615" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G615" s="1"/>
+    </row>
+    <row r="616" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D616" s="21"/>
+      <c r="E616" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F616" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G616" s="1"/>
+    </row>
+    <row r="617" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D617" s="21"/>
+      <c r="E617" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F617" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G617" s="1"/>
+    </row>
+    <row r="618" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D618" s="21"/>
+      <c r="E618" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F618" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G618" s="1"/>
+    </row>
+    <row r="619" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D619" s="21"/>
+      <c r="E619" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F619" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G619" s="1"/>
+    </row>
+    <row r="620" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D620" s="21"/>
+      <c r="E620" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F620" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G620" s="1"/>
+    </row>
+    <row r="621" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D621" s="21"/>
+      <c r="E621" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F621" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G621" s="1"/>
+    </row>
+    <row r="622" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D622" s="21"/>
+      <c r="E622" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F622" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G622" s="1"/>
+    </row>
+    <row r="623" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D623" s="21"/>
+      <c r="E623" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F623" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G623" s="1"/>
+    </row>
+    <row r="624" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D624" s="21"/>
+      <c r="E624" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F624" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G624" s="1"/>
+    </row>
+    <row r="625" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D625" s="21"/>
+      <c r="E625" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F625" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G625" s="1"/>
+    </row>
+    <row r="626" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D626" s="21"/>
+      <c r="E626" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F626" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G626" s="1"/>
+    </row>
+    <row r="627" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D627" s="21"/>
+      <c r="E627" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F627" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G627" s="1"/>
+    </row>
+    <row r="628" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D628" s="21"/>
+      <c r="E628" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F628" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G628" s="1"/>
+    </row>
+    <row r="629" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D629" s="21"/>
+      <c r="E629" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F629" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G629" s="1"/>
+    </row>
+    <row r="630" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D630" s="21"/>
+      <c r="E630" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F630" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G630" s="1"/>
+    </row>
+    <row r="631" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D631" s="21"/>
+      <c r="E631" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F631" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G631" s="1"/>
+    </row>
+    <row r="632" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D632" s="21"/>
+      <c r="E632" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F632" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="G632" s="1"/>
+    </row>
+    <row r="633" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D633" s="21"/>
+      <c r="E633" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F633" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="G633" s="1"/>
+    </row>
+    <row r="634" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D634" s="21"/>
+      <c r="E634" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F634" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="G634" s="1"/>
+    </row>
+    <row r="635" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D635" s="21"/>
+      <c r="E635" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F635" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="G635" s="1"/>
+    </row>
+    <row r="636" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D636" s="21"/>
+      <c r="E636" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F636" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="G636" s="1"/>
+    </row>
+    <row r="637" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D637" s="21"/>
+      <c r="E637" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F637" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="G637" s="1"/>
+    </row>
+    <row r="638" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D638" s="21"/>
+      <c r="E638" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F638" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="G638" s="1"/>
+    </row>
+    <row r="639" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D639" s="21"/>
+      <c r="E639" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F639" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G639" s="1"/>
+    </row>
+    <row r="640" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D640" s="21"/>
+      <c r="E640" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F640" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="G640" s="1"/>
+    </row>
+    <row r="641" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D641" s="21"/>
+      <c r="E641" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F641" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="G641" s="1"/>
+    </row>
+    <row r="642" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D642" s="21"/>
+      <c r="E642" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F642" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="G642" s="1"/>
+    </row>
+    <row r="643" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D643" s="22"/>
+      <c r="E643" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F643" s="12" t="s">
+        <v>799</v>
+      </c>
+      <c r="G643" s="1"/>
+    </row>
+    <row r="644" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D644" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E644" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F644" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G644" s="1"/>
+    </row>
+    <row r="645" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D645" s="21"/>
+      <c r="E645" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F645" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G645" s="1"/>
+    </row>
+    <row r="646" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D646" s="21"/>
+      <c r="E646" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F646" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G646" s="1"/>
+    </row>
+    <row r="647" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D647" s="21"/>
+      <c r="E647" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F647" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G647" s="1"/>
+    </row>
+    <row r="648" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D648" s="21"/>
+      <c r="E648" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F648" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G648" s="1"/>
+    </row>
+    <row r="649" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D649" s="21"/>
+      <c r="E649" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F649" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G649" s="1"/>
+    </row>
+    <row r="650" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D650" s="21"/>
+      <c r="E650" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F650" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G650" s="1"/>
+    </row>
+    <row r="651" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D651" s="21"/>
+      <c r="E651" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F651" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G651" s="1"/>
+    </row>
+    <row r="652" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D652" s="21"/>
+      <c r="E652" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F652" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G652" s="1"/>
+    </row>
+    <row r="653" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D653" s="21"/>
+      <c r="E653" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F653" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G653" s="1"/>
+    </row>
+    <row r="654" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D654" s="21"/>
+      <c r="E654" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F654" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G654" s="1"/>
+    </row>
+    <row r="655" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D655" s="21"/>
+      <c r="E655" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F655" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G655" s="1"/>
+    </row>
+    <row r="656" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D656" s="21"/>
+      <c r="E656" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F656" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="G656" s="1"/>
+    </row>
+    <row r="657" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D657" s="21"/>
+      <c r="E657" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F657" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G657" s="1"/>
+    </row>
+    <row r="658" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D658" s="21"/>
+      <c r="E658" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F658" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G658" s="1"/>
+    </row>
+    <row r="659" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D659" s="21"/>
+      <c r="E659" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F659" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G659" s="1"/>
+    </row>
+    <row r="660" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D660" s="21"/>
+      <c r="E660" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F660" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G660" s="1"/>
+    </row>
+    <row r="661" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D661" s="21"/>
+      <c r="E661" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F661" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G661" s="1"/>
+    </row>
+    <row r="662" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D662" s="21"/>
+      <c r="E662" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F662" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G662" s="1"/>
+    </row>
+    <row r="663" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D663" s="21"/>
+      <c r="E663" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F663" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G663" s="1"/>
+    </row>
+    <row r="664" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D664" s="21"/>
+      <c r="E664" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F664" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G664" s="1"/>
+    </row>
+    <row r="665" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D665" s="21"/>
+      <c r="E665" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F665" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G665" s="1"/>
+    </row>
+    <row r="666" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D666" s="21"/>
+      <c r="E666" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F666" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G666" s="1"/>
+    </row>
+    <row r="667" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D667" s="21"/>
+      <c r="E667" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F667" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G667" s="1"/>
+    </row>
+    <row r="668" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D668" s="21"/>
+      <c r="E668" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F668" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G668" s="1"/>
+    </row>
+    <row r="669" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D669" s="21"/>
+      <c r="E669" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F669" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G669" s="1"/>
+    </row>
+    <row r="670" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D670" s="21"/>
+      <c r="E670" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F670" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G670" s="1"/>
+    </row>
+    <row r="671" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D671" s="21"/>
+      <c r="E671" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F671" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G671" s="1"/>
+    </row>
+    <row r="672" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D672" s="21"/>
+      <c r="E672" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F672" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G672" s="1"/>
+    </row>
+    <row r="673" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D673" s="21"/>
+      <c r="E673" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F673" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G673" s="1"/>
+    </row>
+    <row r="674" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D674" s="21"/>
+      <c r="E674" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F674" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="G674" s="1"/>
+    </row>
+    <row r="675" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D675" s="21"/>
+      <c r="E675" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F675" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G675" s="1"/>
+    </row>
+    <row r="676" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D676" s="21"/>
+      <c r="E676" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F676" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G676" s="1"/>
+    </row>
+    <row r="677" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D677" s="21"/>
+      <c r="E677" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F677" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G677" s="1"/>
+    </row>
+    <row r="678" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D678" s="21"/>
+      <c r="E678" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F678" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G678" s="1"/>
+    </row>
+    <row r="679" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D679" s="21"/>
+      <c r="E679" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F679" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G679" s="1"/>
+    </row>
+    <row r="680" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D680" s="21"/>
+      <c r="E680" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F680" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G680" s="1"/>
+    </row>
+    <row r="681" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D681" s="21"/>
+      <c r="E681" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F681" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G681" s="1"/>
+    </row>
+    <row r="682" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D682" s="21"/>
+      <c r="E682" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F682" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G682" s="1"/>
+    </row>
+    <row r="683" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D683" s="21"/>
+      <c r="E683" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F683" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G683" s="1"/>
+    </row>
+    <row r="684" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D684" s="21"/>
+      <c r="E684" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F684" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G684" s="1"/>
+    </row>
+    <row r="685" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D685" s="21"/>
+      <c r="E685" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F685" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G685" s="1"/>
+    </row>
+    <row r="686" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D686" s="21"/>
+      <c r="E686" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F686" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G686" s="1"/>
+    </row>
+    <row r="687" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D687" s="21"/>
+      <c r="E687" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F687" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G687" s="1"/>
+    </row>
+    <row r="688" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D688" s="21"/>
+      <c r="E688" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F688" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G688" s="1"/>
+    </row>
+    <row r="689" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D689" s="21"/>
+      <c r="E689" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F689" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G689" s="1"/>
+    </row>
+    <row r="690" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D690" s="21"/>
+      <c r="E690" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F690" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G690" s="1"/>
+    </row>
+    <row r="691" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D691" s="21"/>
+      <c r="E691" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F691" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G691" s="1"/>
+    </row>
+    <row r="692" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D692" s="21"/>
+      <c r="E692" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F692" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="G692" s="1"/>
+    </row>
+    <row r="693" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D693" s="21"/>
+      <c r="E693" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F693" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G693" s="1"/>
+    </row>
+    <row r="694" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D694" s="21"/>
+      <c r="E694" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F694" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G694" s="1"/>
+    </row>
+    <row r="695" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D695" s="21"/>
+      <c r="E695" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F695" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G695" s="1"/>
+    </row>
+    <row r="696" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D696" s="21"/>
+      <c r="E696" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F696" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G696" s="1"/>
+    </row>
+    <row r="697" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D697" s="22"/>
+      <c r="E697" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F697" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G697" s="1"/>
+    </row>
+    <row r="698" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D698" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E698" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F698" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G698" s="1" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="699" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D699" s="21"/>
+      <c r="E699" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F699" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G699" s="1" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="700" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D700" s="21"/>
+      <c r="E700" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F700" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G700" s="1"/>
+    </row>
+    <row r="701" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D701" s="21"/>
+      <c r="E701" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F701" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G701" s="1"/>
+    </row>
+    <row r="702" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D702" s="21"/>
+      <c r="E702" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F702" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G702" s="1"/>
+    </row>
+    <row r="703" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D703" s="21"/>
+      <c r="E703" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F703" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G703" s="1"/>
+    </row>
+    <row r="704" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D704" s="21"/>
+      <c r="E704" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F704" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G704" s="1"/>
+    </row>
+    <row r="705" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D705" s="21"/>
+      <c r="E705" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F705" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G705" s="1"/>
+    </row>
+    <row r="706" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D706" s="21"/>
+      <c r="E706" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F706" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G706" s="1"/>
+    </row>
+    <row r="707" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D707" s="21"/>
+      <c r="E707" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F707" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G707" s="1"/>
+    </row>
+    <row r="708" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D708" s="21"/>
+      <c r="E708" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F708" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G708" s="1"/>
+    </row>
+    <row r="709" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D709" s="21"/>
+      <c r="E709" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F709" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G709" s="1"/>
+    </row>
+    <row r="710" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D710" s="21"/>
+      <c r="E710" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F710" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G710" s="1"/>
+    </row>
+    <row r="711" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D711" s="21"/>
+      <c r="E711" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F711" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G711" s="1"/>
+    </row>
+    <row r="712" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D712" s="21"/>
+      <c r="E712" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F712" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G712" s="1"/>
+    </row>
+    <row r="713" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D713" s="21"/>
+      <c r="E713" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F713" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G713" s="1"/>
+    </row>
+    <row r="714" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D714" s="21"/>
+      <c r="E714" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F714" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G714" s="1"/>
+    </row>
+    <row r="715" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D715" s="21"/>
+      <c r="E715" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F715" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G715" s="1"/>
+    </row>
+    <row r="716" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D716" s="21"/>
+      <c r="E716" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F716" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G716" s="1"/>
+    </row>
+    <row r="717" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D717" s="21"/>
+      <c r="E717" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F717" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G717" s="1"/>
+    </row>
+    <row r="718" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D718" s="21"/>
+      <c r="E718" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F718" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G718" s="1"/>
+    </row>
+    <row r="719" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D719" s="22"/>
+      <c r="E719" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F719" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G719" s="1"/>
+    </row>
+    <row r="720" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D720" s="1"/>
+      <c r="E720" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F720" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G720" s="1"/>
+    </row>
+    <row r="721" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D721" s="1"/>
+      <c r="E721" s="7"/>
+      <c r="F721" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G721" s="1"/>
+    </row>
+    <row r="722" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D722" s="1"/>
+      <c r="E722" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F722" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G722" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="723" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D723" s="1"/>
+      <c r="E723" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F723" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G723" s="1"/>
+    </row>
+    <row r="724" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D724" s="1"/>
+      <c r="E724" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F724" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G724" s="1"/>
+    </row>
+    <row r="725" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D725" s="1"/>
+      <c r="E725" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F725" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G725" s="1"/>
+    </row>
+    <row r="726" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D726" s="1"/>
+      <c r="E726" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F726" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G726" s="1"/>
+    </row>
+    <row r="727" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D727" s="1"/>
+      <c r="E727" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F727" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G727" s="1"/>
+    </row>
+    <row r="728" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D728" s="1"/>
+      <c r="E728" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F728" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G728" s="1"/>
+    </row>
+    <row r="729" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D729" s="1"/>
+      <c r="E729" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F729" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G729" s="1"/>
+    </row>
+    <row r="730" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D730" s="1"/>
+      <c r="E730" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F730" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G730" s="1"/>
+    </row>
+    <row r="731" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D731" s="1"/>
+      <c r="E731" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F731" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G731" s="1"/>
+    </row>
+    <row r="732" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D732" s="1"/>
+      <c r="E732" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F732" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G732" s="1"/>
+    </row>
+    <row r="733" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D733" s="1"/>
+      <c r="E733" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F733" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G733" s="1"/>
+    </row>
+    <row r="734" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D734" s="1"/>
+      <c r="E734" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F734" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G734" s="1"/>
+    </row>
+    <row r="735" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D735" s="1"/>
+      <c r="E735" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F735" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="G735" s="1"/>
+    </row>
+    <row r="736" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D736" s="1"/>
+      <c r="E736" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F736" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G736" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="D174:D277"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D3:D49"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D157"/>
+    <mergeCell ref="D158:D173"/>
+    <mergeCell ref="D524:D539"/>
+    <mergeCell ref="D540:D643"/>
+    <mergeCell ref="D644:D697"/>
+    <mergeCell ref="D698:D719"/>
+    <mergeCell ref="D278:D331"/>
+    <mergeCell ref="D332:D353"/>
+    <mergeCell ref="D371:G371"/>
+    <mergeCell ref="D373:D415"/>
+    <mergeCell ref="D416:D425"/>
+    <mergeCell ref="D426:D523"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G44" r:id="rId1" xr:uid="{249BC4C0-3423-4E91-A0D7-112396468B55}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC48D60B-A2DA-4B33-8870-4BC720D13BF5}">
   <dimension ref="A1:D370"/>
   <sheetViews>
@@ -17182,24 +24754,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3BCC8-1641-433F-8FC0-0BC9EA113D75}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30F9C19-6575-4C70-9947-759B460C6779}">
   <dimension ref="A2:D391"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25471,7 +33031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CD239B-6B74-4B72-B9C6-5C6171EEBF96}">
   <dimension ref="A2:D391"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A364" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\InsuranceNowAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD7E3BF-495B-4E79-A774-97603FF7E318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8279C828-21CC-4DAC-A27D-D80D40A8B91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="9" activeTab="13" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4639" uniqueCount="1589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4642" uniqueCount="1590">
   <si>
     <t>NewBussines</t>
   </si>
@@ -4819,6 +4819,9 @@
   </si>
   <si>
     <t xml:space="preserve">newBusinessVehicle2Ignore </t>
+  </si>
+  <si>
+    <t>newBusinessHastheinsuredoperatedanuninsuredmotorvehicleformorethan30daysinthepast12months</t>
   </si>
 </sst>
 </file>
@@ -9538,10 +9541,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA4E5AA-688C-484A-99F1-9AC8F41EC26C}">
-  <dimension ref="A1:D370"/>
+  <dimension ref="A1:D371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
-      <selection activeCell="C358" sqref="C358"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9668,37 +9671,37 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>1589</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>411</v>
+      <c r="C12" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1542</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
@@ -9706,10 +9709,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -9718,21 +9721,21 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>413</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1539</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1540</v>
-      </c>
+      <c r="C16" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
@@ -9740,9 +9743,11 @@
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>415</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1540</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
@@ -9750,29 +9755,29 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>1541</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D19" s="1"/>
+      <c r="C19" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>1541</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
-      <c r="B20" s="8" t="s">
-        <v>8</v>
+      <c r="B20" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -9782,7 +9787,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -9792,7 +9797,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -9801,8 +9806,8 @@
       <c r="B23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>422</v>
+      <c r="C23" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -9812,7 +9817,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -9822,7 +9827,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -9831,8 +9836,8 @@
       <c r="B26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>425</v>
+      <c r="C26" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="D26" s="1"/>
     </row>
@@ -9842,7 +9847,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D27" s="1"/>
     </row>
@@ -9852,7 +9857,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -9862,7 +9867,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D29" s="1"/>
     </row>
@@ -9871,8 +9876,8 @@
       <c r="B30" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>429</v>
+      <c r="C30" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="D30" s="1"/>
     </row>
@@ -9882,7 +9887,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D31" s="1"/>
     </row>
@@ -9892,7 +9897,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D32" s="1"/>
     </row>
@@ -9901,8 +9906,8 @@
       <c r="B33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>432</v>
+      <c r="C33" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="D33" s="1"/>
     </row>
@@ -9912,17 +9917,17 @@
         <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>763</v>
+        <v>432</v>
       </c>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
-      <c r="B35" s="7" t="s">
-        <v>4</v>
+      <c r="B35" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>433</v>
+        <v>763</v>
       </c>
       <c r="D35" s="1"/>
     </row>
@@ -9931,23 +9936,21 @@
       <c r="B36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>1546</v>
-      </c>
+      <c r="C36" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>743</v>
+      <c r="C37" s="2" t="s">
+        <v>742</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -9956,10 +9959,10 @@
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>1536</v>
+        <v>743</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>1547</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -9968,10 +9971,10 @@
         <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>1545</v>
+        <v>744</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1536</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -9980,9 +9983,11 @@
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>745</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>1545</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
@@ -9990,17 +9995,17 @@
         <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
-      <c r="B42" s="8" t="s">
-        <v>9</v>
+      <c r="B42" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>434</v>
+        <v>747</v>
       </c>
       <c r="D42" s="1"/>
     </row>
@@ -10010,7 +10015,7 @@
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D43" s="1"/>
     </row>
@@ -10020,11 +10025,9 @@
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>1548</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
@@ -10032,9 +10035,11 @@
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>436</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>1548</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
@@ -10042,11 +10047,9 @@
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>1543</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
@@ -10054,10 +10057,10 @@
         <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -10066,44 +10069,44 @@
         <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>439</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1544</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
       <c r="B51" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -10112,10 +10115,10 @@
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1553</v>
+        <v>443</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -10124,10 +10127,10 @@
         <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -10136,7 +10139,7 @@
         <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1554</v>
+        <v>445</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>1552</v>
@@ -10148,7 +10151,7 @@
         <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>447</v>
+        <v>1554</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>1552</v>
@@ -10160,10 +10163,10 @@
         <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>25</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -10172,9 +10175,11 @@
         <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>448</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
@@ -10182,43 +10187,43 @@
         <v>10</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="B60" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
       <c r="B61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D61" s="1"/>
+        <v>452</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1556</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
@@ -10226,11 +10231,9 @@
         <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>1576</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
@@ -10238,10 +10241,10 @@
         <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1555</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -10250,10 +10253,10 @@
         <v>11</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -10262,10 +10265,10 @@
         <v>11</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>1562</v>
+        <v>456</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -10274,10 +10277,10 @@
         <v>11</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>1558</v>
+        <v>1563</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>1562</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -10286,10 +10289,10 @@
         <v>11</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -10298,9 +10301,11 @@
         <v>11</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D68" s="17"/>
+        <v>459</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>1559</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="21"/>
@@ -10308,11 +10313,9 @@
         <v>11</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>1564</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="D69" s="17"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
@@ -10320,9 +10323,11 @@
         <v>11</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D70" s="1"/>
+        <v>1565</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>1564</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
@@ -10330,11 +10335,9 @@
         <v>11</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>1560</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
@@ -10342,10 +10345,10 @@
         <v>11</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>1561</v>
+        <v>463</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>1560</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -10354,10 +10357,10 @@
         <v>11</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>25</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -10366,9 +10369,11 @@
         <v>11</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D74" s="1"/>
+        <v>465</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
@@ -10376,21 +10381,19 @@
         <v>11</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="21"/>
       <c r="B76" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>1566</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="21"/>
@@ -10398,9 +10401,11 @@
         <v>12</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D77" s="1"/>
+        <v>468</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>1566</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
@@ -10408,17 +10413,17 @@
         <v>12</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="21"/>
       <c r="B79" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D79" s="1"/>
     </row>
@@ -10428,7 +10433,7 @@
         <v>13</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D80" s="1"/>
     </row>
@@ -10438,7 +10443,7 @@
         <v>13</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D81" s="1"/>
     </row>
@@ -10448,7 +10453,7 @@
         <v>13</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D82" s="1"/>
     </row>
@@ -10458,7 +10463,7 @@
         <v>13</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D83" s="1"/>
     </row>
@@ -10468,7 +10473,7 @@
         <v>13</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D84" s="1"/>
     </row>
@@ -10478,17 +10483,17 @@
         <v>13</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D85" s="1"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="21"/>
       <c r="B86" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D86" s="1"/>
     </row>
@@ -10498,7 +10503,7 @@
         <v>14</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D87" s="1"/>
     </row>
@@ -10508,7 +10513,7 @@
         <v>14</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D88" s="1"/>
     </row>
@@ -10518,7 +10523,7 @@
         <v>14</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D89" s="1"/>
     </row>
@@ -10528,7 +10533,7 @@
         <v>14</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D90" s="1"/>
     </row>
@@ -10538,24 +10543,24 @@
         <v>14</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="21"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="1"/>
+      <c r="B92" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>483</v>
+      </c>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="21"/>
-      <c r="B93" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>484</v>
-      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -10564,7 +10569,7 @@
         <v>11</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D94" s="1"/>
     </row>
@@ -10574,7 +10579,7 @@
         <v>11</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D95" s="1"/>
     </row>
@@ -10584,7 +10589,7 @@
         <v>11</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D96" s="1"/>
     </row>
@@ -10594,7 +10599,7 @@
         <v>11</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D97" s="1"/>
     </row>
@@ -10604,7 +10609,7 @@
         <v>11</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D98" s="1"/>
     </row>
@@ -10614,7 +10619,7 @@
         <v>11</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D99" s="1"/>
     </row>
@@ -10624,7 +10629,7 @@
         <v>11</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D100" s="1"/>
     </row>
@@ -10634,7 +10639,7 @@
         <v>11</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D101" s="1"/>
     </row>
@@ -10644,7 +10649,7 @@
         <v>11</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D102" s="1"/>
     </row>
@@ -10654,7 +10659,7 @@
         <v>11</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D103" s="1"/>
     </row>
@@ -10664,7 +10669,7 @@
         <v>11</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D104" s="1"/>
     </row>
@@ -10674,7 +10679,7 @@
         <v>11</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>804</v>
+        <v>495</v>
       </c>
       <c r="D105" s="1"/>
     </row>
@@ -10684,7 +10689,7 @@
         <v>11</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>496</v>
+        <v>804</v>
       </c>
       <c r="D106" s="1"/>
     </row>
@@ -10694,7 +10699,7 @@
         <v>11</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D107" s="1"/>
     </row>
@@ -10704,17 +10709,17 @@
         <v>11</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D108" s="1"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="21"/>
       <c r="B109" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D109" s="1"/>
     </row>
@@ -10724,7 +10729,7 @@
         <v>12</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D110" s="1"/>
     </row>
@@ -10734,17 +10739,17 @@
         <v>12</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D111" s="1"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="21"/>
       <c r="B112" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D112" s="1"/>
     </row>
@@ -10754,7 +10759,7 @@
         <v>13</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D113" s="1"/>
     </row>
@@ -10764,7 +10769,7 @@
         <v>13</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D114" s="1"/>
     </row>
@@ -10774,7 +10779,7 @@
         <v>13</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D115" s="1"/>
     </row>
@@ -10784,7 +10789,7 @@
         <v>13</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D116" s="1"/>
     </row>
@@ -10794,7 +10799,7 @@
         <v>13</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D117" s="1"/>
     </row>
@@ -10804,17 +10809,17 @@
         <v>13</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D118" s="1"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="21"/>
       <c r="B119" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D119" s="1"/>
     </row>
@@ -10824,7 +10829,7 @@
         <v>14</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D120" s="1"/>
     </row>
@@ -10834,7 +10839,7 @@
         <v>14</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D121" s="1"/>
     </row>
@@ -10844,7 +10849,7 @@
         <v>14</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D122" s="1"/>
     </row>
@@ -10854,7 +10859,7 @@
         <v>14</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D123" s="1"/>
     </row>
@@ -10864,24 +10869,24 @@
         <v>14</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D124" s="1"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="21"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="1"/>
+      <c r="B125" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>514</v>
+      </c>
       <c r="D125" s="1"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="21"/>
-      <c r="B126" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>515</v>
-      </c>
+      <c r="B126" s="7"/>
+      <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -10890,7 +10895,7 @@
         <v>11</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D127" s="1"/>
     </row>
@@ -10900,7 +10905,7 @@
         <v>11</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D128" s="1"/>
     </row>
@@ -10910,7 +10915,7 @@
         <v>11</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D129" s="1"/>
     </row>
@@ -10920,7 +10925,7 @@
         <v>11</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D130" s="1"/>
     </row>
@@ -10930,7 +10935,7 @@
         <v>11</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D131" s="1"/>
     </row>
@@ -10940,7 +10945,7 @@
         <v>11</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D132" s="1"/>
     </row>
@@ -10950,7 +10955,7 @@
         <v>11</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D133" s="1"/>
     </row>
@@ -10960,7 +10965,7 @@
         <v>11</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D134" s="1"/>
     </row>
@@ -10970,7 +10975,7 @@
         <v>11</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D135" s="1"/>
     </row>
@@ -10980,7 +10985,7 @@
         <v>11</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D136" s="1"/>
     </row>
@@ -10990,7 +10995,7 @@
         <v>11</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D137" s="1"/>
     </row>
@@ -11000,7 +11005,7 @@
         <v>11</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>805</v>
+        <v>526</v>
       </c>
       <c r="D138" s="1"/>
     </row>
@@ -11010,7 +11015,7 @@
         <v>11</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>527</v>
+        <v>805</v>
       </c>
       <c r="D139" s="1"/>
     </row>
@@ -11020,7 +11025,7 @@
         <v>11</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D140" s="1"/>
     </row>
@@ -11030,17 +11035,17 @@
         <v>11</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D141" s="1"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="21"/>
       <c r="B142" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D142" s="1"/>
     </row>
@@ -11050,7 +11055,7 @@
         <v>12</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D143" s="1"/>
     </row>
@@ -11060,17 +11065,17 @@
         <v>12</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D144" s="1"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="21"/>
       <c r="B145" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D145" s="1"/>
     </row>
@@ -11080,7 +11085,7 @@
         <v>13</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D146" s="1"/>
     </row>
@@ -11090,7 +11095,7 @@
         <v>13</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D147" s="1"/>
     </row>
@@ -11100,7 +11105,7 @@
         <v>13</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D148" s="1"/>
     </row>
@@ -11110,7 +11115,7 @@
         <v>13</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D149" s="1"/>
     </row>
@@ -11120,7 +11125,7 @@
         <v>13</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D150" s="1"/>
     </row>
@@ -11130,17 +11135,17 @@
         <v>13</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D151" s="1"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="21"/>
       <c r="B152" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D152" s="1"/>
     </row>
@@ -11150,7 +11155,7 @@
         <v>14</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D153" s="1"/>
     </row>
@@ -11160,7 +11165,7 @@
         <v>14</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D154" s="1"/>
     </row>
@@ -11170,7 +11175,7 @@
         <v>14</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D155" s="1"/>
     </row>
@@ -11180,39 +11185,39 @@
         <v>14</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D156" s="1"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="22"/>
+      <c r="A157" s="21"/>
       <c r="B157" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C157" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="22"/>
+      <c r="B158" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D157" s="1"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="20" t="s">
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B158" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D158" s="1"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="21"/>
       <c r="B159" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D159" s="1"/>
     </row>
@@ -11222,7 +11227,7 @@
         <v>15</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D160" s="1"/>
     </row>
@@ -11232,7 +11237,7 @@
         <v>15</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D161" s="1"/>
     </row>
@@ -11242,7 +11247,7 @@
         <v>15</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D162" s="1"/>
     </row>
@@ -11252,7 +11257,7 @@
         <v>15</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D163" s="1"/>
     </row>
@@ -11262,7 +11267,7 @@
         <v>15</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D164" s="1"/>
     </row>
@@ -11272,7 +11277,7 @@
         <v>15</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D165" s="1"/>
     </row>
@@ -11282,27 +11287,27 @@
         <v>15</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D166" s="1"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="21"/>
-      <c r="B167" s="11" t="s">
+      <c r="B167" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="21"/>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D168" s="1"/>
     </row>
@@ -11312,7 +11317,7 @@
         <v>15</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D169" s="1"/>
     </row>
@@ -11322,7 +11327,7 @@
         <v>15</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D170" s="1"/>
     </row>
@@ -11332,7 +11337,7 @@
         <v>15</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D171" s="1"/>
     </row>
@@ -11342,43 +11347,43 @@
         <v>15</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D172" s="1"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="22"/>
+      <c r="A173" s="21"/>
       <c r="B173" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C173" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="22"/>
+      <c r="B174" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D173" s="1"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="20" t="s">
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B174" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C174" s="1" t="s">
+      <c r="B175" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D174" s="17" t="s">
+      <c r="D175" s="17" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="21"/>
-      <c r="B175" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D175" s="1"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="21"/>
@@ -11386,7 +11391,7 @@
         <v>16</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D176" s="1"/>
     </row>
@@ -11396,7 +11401,7 @@
         <v>16</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D177" s="1"/>
     </row>
@@ -11406,7 +11411,7 @@
         <v>16</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D178" s="1"/>
     </row>
@@ -11416,7 +11421,7 @@
         <v>16</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D179" s="1"/>
     </row>
@@ -11425,8 +11430,8 @@
       <c r="B180" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C180" s="12" t="s">
-        <v>568</v>
+      <c r="C180" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="D180" s="1"/>
     </row>
@@ -11435,8 +11440,8 @@
       <c r="B181" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>569</v>
+      <c r="C181" s="12" t="s">
+        <v>568</v>
       </c>
       <c r="D181" s="1"/>
     </row>
@@ -11446,7 +11451,7 @@
         <v>16</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D182" s="1"/>
     </row>
@@ -11456,7 +11461,7 @@
         <v>16</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D183" s="1"/>
     </row>
@@ -11466,11 +11471,9 @@
         <v>16</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>1568</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="D184" s="1"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="21"/>
@@ -11478,10 +11481,10 @@
         <v>16</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1572</v>
+        <v>572</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -11490,9 +11493,11 @@
         <v>16</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D186" s="1"/>
+        <v>1572</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="21"/>
@@ -11500,7 +11505,7 @@
         <v>16</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D187" s="1"/>
     </row>
@@ -11510,7 +11515,7 @@
         <v>16</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D188" s="1"/>
     </row>
@@ -11520,7 +11525,7 @@
         <v>16</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D189" s="1"/>
     </row>
@@ -11530,7 +11535,7 @@
         <v>16</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D190" s="1"/>
     </row>
@@ -11540,11 +11545,9 @@
         <v>16</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>1570</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="D191" s="1"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="21"/>
@@ -11552,7 +11555,7 @@
         <v>16</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>1570</v>
@@ -11564,10 +11567,10 @@
         <v>16</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -11576,7 +11579,7 @@
         <v>16</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1573</v>
+        <v>581</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>1571</v>
@@ -11588,7 +11591,7 @@
         <v>16</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>1571</v>
@@ -11600,9 +11603,11 @@
         <v>16</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D196" s="1"/>
+        <v>1574</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>1571</v>
+      </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="21"/>
@@ -11610,7 +11615,7 @@
         <v>16</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D197" s="1"/>
     </row>
@@ -11620,7 +11625,7 @@
         <v>16</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D198" s="1"/>
     </row>
@@ -11630,7 +11635,7 @@
         <v>16</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D199" s="1"/>
     </row>
@@ -11640,7 +11645,7 @@
         <v>16</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D200" s="1"/>
     </row>
@@ -11650,7 +11655,7 @@
         <v>16</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D201" s="1"/>
     </row>
@@ -11660,7 +11665,7 @@
         <v>16</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D202" s="1"/>
     </row>
@@ -11670,24 +11675,24 @@
         <v>16</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D203" s="1"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="21"/>
-      <c r="B204" s="10"/>
-      <c r="C204" s="1"/>
+      <c r="B204" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>591</v>
+      </c>
       <c r="D204" s="1"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="21"/>
-      <c r="B205" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>592</v>
-      </c>
+      <c r="B205" s="10"/>
+      <c r="C205" s="1"/>
       <c r="D205" s="1"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -11696,7 +11701,7 @@
         <v>16</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D206" s="1"/>
     </row>
@@ -11706,7 +11711,7 @@
         <v>16</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D207" s="1"/>
     </row>
@@ -11716,7 +11721,7 @@
         <v>16</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D208" s="1"/>
     </row>
@@ -11726,7 +11731,7 @@
         <v>16</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D209" s="1"/>
     </row>
@@ -11736,7 +11741,7 @@
         <v>16</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D210" s="1"/>
     </row>
@@ -11745,8 +11750,8 @@
       <c r="B211" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="12" t="s">
-        <v>598</v>
+      <c r="C211" s="1" t="s">
+        <v>597</v>
       </c>
       <c r="D211" s="1"/>
     </row>
@@ -11755,8 +11760,8 @@
       <c r="B212" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>599</v>
+      <c r="C212" s="12" t="s">
+        <v>598</v>
       </c>
       <c r="D212" s="1"/>
     </row>
@@ -11766,7 +11771,7 @@
         <v>16</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D213" s="1"/>
     </row>
@@ -11776,7 +11781,7 @@
         <v>16</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D214" s="1"/>
     </row>
@@ -11786,7 +11791,7 @@
         <v>16</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D215" s="1"/>
     </row>
@@ -11796,7 +11801,7 @@
         <v>16</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D216" s="1"/>
     </row>
@@ -11806,7 +11811,7 @@
         <v>16</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D217" s="1"/>
     </row>
@@ -11816,7 +11821,7 @@
         <v>16</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D218" s="1"/>
     </row>
@@ -11826,7 +11831,7 @@
         <v>16</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D219" s="1"/>
     </row>
@@ -11836,7 +11841,7 @@
         <v>16</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D220" s="1"/>
     </row>
@@ -11846,7 +11851,7 @@
         <v>16</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D221" s="1"/>
     </row>
@@ -11856,7 +11861,7 @@
         <v>16</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D222" s="1"/>
     </row>
@@ -11866,7 +11871,7 @@
         <v>16</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D223" s="1"/>
     </row>
@@ -11876,7 +11881,7 @@
         <v>16</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D224" s="1"/>
     </row>
@@ -11886,7 +11891,7 @@
         <v>16</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D225" s="1"/>
     </row>
@@ -11896,7 +11901,7 @@
         <v>16</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D226" s="1"/>
     </row>
@@ -11906,7 +11911,7 @@
         <v>16</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D227" s="1"/>
     </row>
@@ -11916,7 +11921,7 @@
         <v>16</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D228" s="1"/>
     </row>
@@ -11926,7 +11931,7 @@
         <v>16</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D229" s="1"/>
     </row>
@@ -11936,7 +11941,7 @@
         <v>16</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D230" s="1"/>
     </row>
@@ -11946,7 +11951,7 @@
         <v>16</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D231" s="1"/>
     </row>
@@ -11956,7 +11961,7 @@
         <v>16</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D232" s="1"/>
     </row>
@@ -11966,7 +11971,7 @@
         <v>16</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D233" s="1"/>
     </row>
@@ -11976,24 +11981,24 @@
         <v>16</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D234" s="1"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="21"/>
-      <c r="B235" s="7"/>
-      <c r="C235" s="1"/>
+      <c r="B235" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>621</v>
+      </c>
       <c r="D235" s="1"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="21"/>
-      <c r="B236" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>622</v>
-      </c>
+      <c r="B236" s="7"/>
+      <c r="C236" s="1"/>
       <c r="D236" s="1"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -12002,7 +12007,7 @@
         <v>16</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D237" s="1"/>
     </row>
@@ -12012,7 +12017,7 @@
         <v>16</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D238" s="1"/>
     </row>
@@ -12022,7 +12027,7 @@
         <v>16</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D239" s="1"/>
     </row>
@@ -12032,7 +12037,7 @@
         <v>16</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D240" s="1"/>
     </row>
@@ -12042,7 +12047,7 @@
         <v>16</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D241" s="1"/>
     </row>
@@ -12051,8 +12056,8 @@
       <c r="B242" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C242" s="12" t="s">
-        <v>628</v>
+      <c r="C242" s="1" t="s">
+        <v>627</v>
       </c>
       <c r="D242" s="1"/>
     </row>
@@ -12061,8 +12066,8 @@
       <c r="B243" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C243" s="1" t="s">
-        <v>629</v>
+      <c r="C243" s="12" t="s">
+        <v>628</v>
       </c>
       <c r="D243" s="1"/>
     </row>
@@ -12072,7 +12077,7 @@
         <v>16</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D244" s="1"/>
     </row>
@@ -12082,7 +12087,7 @@
         <v>16</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D245" s="1"/>
     </row>
@@ -12092,7 +12097,7 @@
         <v>16</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D246" s="1"/>
     </row>
@@ -12102,7 +12107,7 @@
         <v>16</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D247" s="1"/>
     </row>
@@ -12112,7 +12117,7 @@
         <v>16</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D248" s="1"/>
     </row>
@@ -12122,7 +12127,7 @@
         <v>16</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D249" s="1"/>
     </row>
@@ -12132,7 +12137,7 @@
         <v>16</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D250" s="1"/>
     </row>
@@ -12142,7 +12147,7 @@
         <v>16</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D251" s="1"/>
     </row>
@@ -12152,7 +12157,7 @@
         <v>16</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D252" s="1"/>
     </row>
@@ -12162,7 +12167,7 @@
         <v>16</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D253" s="1"/>
     </row>
@@ -12172,7 +12177,7 @@
         <v>16</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D254" s="1"/>
     </row>
@@ -12182,7 +12187,7 @@
         <v>16</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D255" s="1"/>
     </row>
@@ -12192,7 +12197,7 @@
         <v>16</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D256" s="1"/>
     </row>
@@ -12202,7 +12207,7 @@
         <v>16</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D257" s="1"/>
     </row>
@@ -12212,7 +12217,7 @@
         <v>16</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D258" s="1"/>
     </row>
@@ -12222,7 +12227,7 @@
         <v>16</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D259" s="1"/>
     </row>
@@ -12232,7 +12237,7 @@
         <v>16</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D260" s="1"/>
     </row>
@@ -12242,7 +12247,7 @@
         <v>16</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D261" s="1"/>
     </row>
@@ -12252,7 +12257,7 @@
         <v>16</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D262" s="1"/>
     </row>
@@ -12262,7 +12267,7 @@
         <v>16</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D263" s="1"/>
     </row>
@@ -12272,7 +12277,7 @@
         <v>16</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D264" s="1"/>
     </row>
@@ -12282,17 +12287,17 @@
         <v>16</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D265" s="1"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="21"/>
-      <c r="B266" s="10" t="s">
-        <v>17</v>
+      <c r="B266" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>751</v>
+        <v>651</v>
       </c>
       <c r="D266" s="1"/>
     </row>
@@ -12302,7 +12307,7 @@
         <v>17</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D267" s="1"/>
     </row>
@@ -12312,7 +12317,7 @@
         <v>17</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D268" s="1"/>
     </row>
@@ -12322,7 +12327,7 @@
         <v>17</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D269" s="1"/>
     </row>
@@ -12332,7 +12337,7 @@
         <v>17</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D270" s="1"/>
     </row>
@@ -12342,7 +12347,7 @@
         <v>17</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D271" s="1"/>
     </row>
@@ -12352,7 +12357,7 @@
         <v>17</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D272" s="1"/>
     </row>
@@ -12362,7 +12367,7 @@
         <v>17</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D273" s="1"/>
     </row>
@@ -12372,7 +12377,7 @@
         <v>17</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D274" s="1"/>
     </row>
@@ -12382,7 +12387,7 @@
         <v>17</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D275" s="1"/>
     </row>
@@ -12392,39 +12397,39 @@
         <v>17</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D276" s="1"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="22"/>
+      <c r="A277" s="21"/>
       <c r="B277" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C277" s="12" t="s">
+      <c r="C277" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D277" s="1"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="22"/>
+      <c r="B278" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C278" s="12" t="s">
         <v>762</v>
       </c>
-      <c r="D277" s="1"/>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="20" t="s">
+      <c r="D278" s="1"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B278" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C278" s="1" t="s">
+      <c r="B279" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="D278" s="1"/>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="21"/>
-      <c r="B279" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="D279" s="1"/>
     </row>
@@ -12434,7 +12439,7 @@
         <v>18</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D280" s="1"/>
     </row>
@@ -12444,7 +12449,7 @@
         <v>18</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D281" s="1"/>
     </row>
@@ -12454,7 +12459,7 @@
         <v>18</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D282" s="1"/>
     </row>
@@ -12464,7 +12469,7 @@
         <v>18</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D283" s="1"/>
     </row>
@@ -12474,7 +12479,7 @@
         <v>18</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D284" s="1"/>
     </row>
@@ -12484,7 +12489,7 @@
         <v>18</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D285" s="1"/>
     </row>
@@ -12494,7 +12499,7 @@
         <v>18</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D286" s="1"/>
     </row>
@@ -12504,7 +12509,7 @@
         <v>18</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D287" s="1"/>
     </row>
@@ -12514,7 +12519,7 @@
         <v>18</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D288" s="1"/>
     </row>
@@ -12524,7 +12529,7 @@
         <v>18</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D289" s="1"/>
     </row>
@@ -12534,7 +12539,7 @@
         <v>18</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>748</v>
+        <v>663</v>
       </c>
       <c r="D290" s="1"/>
     </row>
@@ -12544,7 +12549,7 @@
         <v>18</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>664</v>
+        <v>748</v>
       </c>
       <c r="D291" s="1"/>
     </row>
@@ -12554,7 +12559,7 @@
         <v>18</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D292" s="1"/>
     </row>
@@ -12564,7 +12569,7 @@
         <v>18</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D293" s="1"/>
     </row>
@@ -12574,7 +12579,7 @@
         <v>18</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D294" s="1"/>
     </row>
@@ -12584,7 +12589,7 @@
         <v>18</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D295" s="1"/>
     </row>
@@ -12594,7 +12599,7 @@
         <v>18</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D296" s="1"/>
     </row>
@@ -12604,7 +12609,7 @@
         <v>18</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D297" s="1"/>
     </row>
@@ -12614,7 +12619,7 @@
         <v>18</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D298" s="1"/>
     </row>
@@ -12624,7 +12629,7 @@
         <v>18</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D299" s="1"/>
     </row>
@@ -12634,7 +12639,7 @@
         <v>18</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D300" s="1"/>
     </row>
@@ -12644,7 +12649,7 @@
         <v>18</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D301" s="1"/>
     </row>
@@ -12654,7 +12659,7 @@
         <v>18</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D302" s="1"/>
     </row>
@@ -12664,7 +12669,7 @@
         <v>18</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D303" s="1"/>
     </row>
@@ -12674,7 +12679,7 @@
         <v>18</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D304" s="1"/>
     </row>
@@ -12684,7 +12689,7 @@
         <v>18</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D305" s="1"/>
     </row>
@@ -12694,7 +12699,7 @@
         <v>18</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D306" s="1"/>
     </row>
@@ -12704,7 +12709,7 @@
         <v>18</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D307" s="1"/>
     </row>
@@ -12714,7 +12719,7 @@
         <v>18</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>749</v>
+        <v>680</v>
       </c>
       <c r="D308" s="1"/>
     </row>
@@ -12724,7 +12729,7 @@
         <v>18</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>681</v>
+        <v>749</v>
       </c>
       <c r="D309" s="1"/>
     </row>
@@ -12734,7 +12739,7 @@
         <v>18</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D310" s="1"/>
     </row>
@@ -12744,7 +12749,7 @@
         <v>18</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D311" s="1"/>
     </row>
@@ -12754,7 +12759,7 @@
         <v>18</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D312" s="1"/>
     </row>
@@ -12764,7 +12769,7 @@
         <v>18</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D313" s="1"/>
     </row>
@@ -12774,7 +12779,7 @@
         <v>18</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D314" s="1"/>
     </row>
@@ -12784,7 +12789,7 @@
         <v>18</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D315" s="1"/>
     </row>
@@ -12794,7 +12799,7 @@
         <v>18</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D316" s="1"/>
     </row>
@@ -12804,7 +12809,7 @@
         <v>18</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D317" s="1"/>
     </row>
@@ -12814,7 +12819,7 @@
         <v>18</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D318" s="1"/>
     </row>
@@ -12824,7 +12829,7 @@
         <v>18</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D319" s="1"/>
     </row>
@@ -12834,7 +12839,7 @@
         <v>18</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D320" s="1"/>
     </row>
@@ -12844,7 +12849,7 @@
         <v>18</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D321" s="1"/>
     </row>
@@ -12854,7 +12859,7 @@
         <v>18</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D322" s="1"/>
     </row>
@@ -12864,7 +12869,7 @@
         <v>18</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D323" s="1"/>
     </row>
@@ -12874,7 +12879,7 @@
         <v>18</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D324" s="1"/>
     </row>
@@ -12884,7 +12889,7 @@
         <v>18</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D325" s="1"/>
     </row>
@@ -12894,7 +12899,7 @@
         <v>18</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>750</v>
+        <v>697</v>
       </c>
       <c r="D326" s="1"/>
     </row>
@@ -12904,7 +12909,7 @@
         <v>18</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>698</v>
+        <v>750</v>
       </c>
       <c r="D327" s="1"/>
     </row>
@@ -12914,7 +12919,7 @@
         <v>18</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D328" s="1"/>
     </row>
@@ -12923,8 +12928,8 @@
       <c r="B329" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C329" s="12" t="s">
-        <v>700</v>
+      <c r="C329" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="D329" s="1"/>
     </row>
@@ -12933,40 +12938,40 @@
       <c r="B330" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="C330" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="D330" s="1"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="21"/>
+      <c r="B331" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C331" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="D330" s="1"/>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" s="22"/>
-      <c r="B331" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C331" s="1" t="s">
+      <c r="D331" s="1"/>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="22"/>
+      <c r="B332" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C332" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="D331" s="1"/>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" s="20" t="s">
+      <c r="D332" s="1"/>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B332" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="D332" s="1"/>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" s="21"/>
       <c r="B333" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D333" s="1"/>
     </row>
@@ -12976,7 +12981,7 @@
         <v>19</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D334" s="1"/>
     </row>
@@ -12986,7 +12991,7 @@
         <v>19</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D335" s="1"/>
     </row>
@@ -12996,7 +13001,7 @@
         <v>19</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D336" s="1"/>
     </row>
@@ -13006,7 +13011,7 @@
         <v>19</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D337" s="1"/>
     </row>
@@ -13016,7 +13021,7 @@
         <v>19</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D338" s="1"/>
     </row>
@@ -13026,7 +13031,7 @@
         <v>19</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D339" s="1"/>
     </row>
@@ -13036,7 +13041,7 @@
         <v>19</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D340" s="1"/>
     </row>
@@ -13046,7 +13051,7 @@
         <v>19</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D341" s="1"/>
     </row>
@@ -13056,7 +13061,7 @@
         <v>19</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D342" s="1"/>
     </row>
@@ -13066,7 +13071,7 @@
         <v>19</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D343" s="1"/>
     </row>
@@ -13076,7 +13081,7 @@
         <v>19</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D344" s="1"/>
     </row>
@@ -13086,7 +13091,7 @@
         <v>19</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D345" s="1"/>
     </row>
@@ -13096,7 +13101,7 @@
         <v>19</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D346" s="1"/>
     </row>
@@ -13106,7 +13111,7 @@
         <v>19</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D347" s="1"/>
     </row>
@@ -13116,7 +13121,7 @@
         <v>19</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D348" s="1"/>
     </row>
@@ -13126,7 +13131,7 @@
         <v>19</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D349" s="1"/>
     </row>
@@ -13136,7 +13141,7 @@
         <v>19</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D350" s="1"/>
     </row>
@@ -13146,7 +13151,7 @@
         <v>19</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D351" s="1"/>
     </row>
@@ -13156,81 +13161,81 @@
         <v>19</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D352" s="1"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="22"/>
+      <c r="A353" s="21"/>
       <c r="B353" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C353" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D353" s="1"/>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="22"/>
+      <c r="B354" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C354" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="D353" s="1"/>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" s="1"/>
-      <c r="B354" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>725</v>
       </c>
       <c r="D354" s="1"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
-      <c r="B355" s="7"/>
+      <c r="B355" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="C355" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D355" s="1"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
-      <c r="B356" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="B356" s="7"/>
       <c r="C356" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="D356" s="1"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="D357" s="1"/>
+        <v>727</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>1571</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D358" s="1"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C359" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="D359" s="1"/>
+      <c r="C359" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>1571</v>
+      </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
@@ -13238,7 +13243,7 @@
         <v>21</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D360" s="1"/>
     </row>
@@ -13248,7 +13253,7 @@
         <v>21</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D361" s="1"/>
     </row>
@@ -13258,7 +13263,7 @@
         <v>21</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D362" s="1"/>
     </row>
@@ -13268,7 +13273,7 @@
         <v>21</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D363" s="1"/>
     </row>
@@ -13278,7 +13283,7 @@
         <v>21</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D364" s="1"/>
     </row>
@@ -13288,7 +13293,7 @@
         <v>21</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D365" s="1"/>
     </row>
@@ -13298,7 +13303,7 @@
         <v>21</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D366" s="1"/>
     </row>
@@ -13308,17 +13313,17 @@
         <v>21</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D367" s="1"/>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D368" s="1"/>
     </row>
@@ -13328,33 +13333,43 @@
         <v>22</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D369" s="1"/>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D370" s="1"/>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="1"/>
+      <c r="B371" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C370" s="1" t="s">
+      <c r="C371" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="D370" s="1"/>
+      <c r="D371" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A278:A331"/>
-    <mergeCell ref="A332:A353"/>
+    <mergeCell ref="A279:A332"/>
+    <mergeCell ref="A333:A354"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A49"/>
-    <mergeCell ref="A50:A59"/>
-    <mergeCell ref="A60:A157"/>
-    <mergeCell ref="A158:A173"/>
-    <mergeCell ref="A174:A277"/>
+    <mergeCell ref="A3:A50"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="A61:A158"/>
+    <mergeCell ref="A159:A174"/>
+    <mergeCell ref="A175:A278"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D44" r:id="rId1" xr:uid="{4A029720-88FF-4614-9FFC-D728903A58CE}"/>
+    <hyperlink ref="D45" r:id="rId1" xr:uid="{4A029720-88FF-4614-9FFC-D728903A58CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InsuranceNowAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INOW Testing\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FA2021-774D-44F4-AF9E-28CD6115FF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7F1AF6-6109-4B5C-9560-61F66A8B353D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="14" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="11" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NewBussines" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
     <sheet name="Reinstatement" sheetId="26" r:id="rId12"/>
     <sheet name="Credentials" sheetId="27" r:id="rId13"/>
     <sheet name="TS_01" sheetId="25" r:id="rId14"/>
-    <sheet name="TS_02" sheetId="28" r:id="rId15"/>
-    <sheet name="TS_03" sheetId="29" r:id="rId16"/>
+    <sheet name="TS_03" sheetId="29" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="28" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6169" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4639" uniqueCount="1589">
   <si>
     <t>NewBussines</t>
   </si>
@@ -4818,60 +4818,6 @@
   </si>
   <si>
     <t xml:space="preserve">newBusinessVehicle2Ignore </t>
-  </si>
-  <si>
-    <t>Charle</t>
-  </si>
-  <si>
-    <t>Puth</t>
-  </si>
-  <si>
-    <t>10/01/2023</t>
-  </si>
-  <si>
-    <t>10/02/2023</t>
-  </si>
-  <si>
-    <t>Post</t>
-  </si>
-  <si>
-    <t>Malone</t>
-  </si>
-  <si>
-    <t>Father</t>
-  </si>
-  <si>
-    <t>02/02/1985</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>Millie</t>
-  </si>
-  <si>
-    <t>Bobby</t>
-  </si>
-  <si>
-    <t>Mother</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>03/02/1986</t>
-  </si>
-  <si>
-    <t>ANI001</t>
-  </si>
-  <si>
-    <t>Additional Interest - Trust</t>
-  </si>
-  <si>
-    <t>Excluded</t>
-  </si>
-  <si>
-    <t>Producer007</t>
   </si>
 </sst>
 </file>
@@ -9479,7 +9425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F566B7-0A48-4BC4-B93D-ABABAE27A05A}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -9593,8 +9539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA4E5AA-688C-484A-99F1-9AC8F41EC26C}">
   <dimension ref="A1:D370"/>
   <sheetViews>
-    <sheetView topLeftCell="A353" workbookViewId="0">
-      <selection sqref="A1:D370"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13415,7524 +13361,6 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3BCC8-1641-433F-8FC0-0BC9EA113D75}">
-  <dimension ref="D1:G736"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D1" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="24"/>
-      <c r="E4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="24"/>
-      <c r="E5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="24"/>
-      <c r="E6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="24"/>
-      <c r="E7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="24"/>
-      <c r="E8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>1575</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="24"/>
-      <c r="E9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="4:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D10" s="24"/>
-      <c r="E10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="24"/>
-      <c r="E11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="24"/>
-      <c r="E12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="24"/>
-      <c r="E13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="24"/>
-      <c r="E14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="24"/>
-      <c r="E15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="24"/>
-      <c r="E16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="24"/>
-      <c r="E17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="24"/>
-      <c r="E18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="24"/>
-      <c r="E19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="24"/>
-      <c r="E20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="24"/>
-      <c r="E21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="24"/>
-      <c r="E22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="24"/>
-      <c r="E23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="24"/>
-      <c r="E24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="24"/>
-      <c r="E25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="24"/>
-      <c r="E26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="24"/>
-      <c r="E27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="24"/>
-      <c r="E28" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="24"/>
-      <c r="E29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="24"/>
-      <c r="E30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D31" s="24"/>
-      <c r="E31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="24"/>
-      <c r="E32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="24"/>
-      <c r="E33" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D34" s="24"/>
-      <c r="E34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D35" s="24"/>
-      <c r="E35" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D36" s="24"/>
-      <c r="E36" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="24"/>
-      <c r="E37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D38" s="24"/>
-      <c r="E38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D39" s="24"/>
-      <c r="E39" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D40" s="24"/>
-      <c r="E40" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D41" s="24"/>
-      <c r="E41" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D42" s="24"/>
-      <c r="E42" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D43" s="24"/>
-      <c r="E43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D44" s="24"/>
-      <c r="E44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D45" s="24"/>
-      <c r="E45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D46" s="24"/>
-      <c r="E46" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D47" s="24"/>
-      <c r="E47" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D48" s="24"/>
-      <c r="E48" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D49" s="25"/>
-      <c r="E49" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D50" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D51" s="21"/>
-      <c r="E51" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D52" s="21"/>
-      <c r="E52" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D53" s="21"/>
-      <c r="E53" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D54" s="21"/>
-      <c r="E54" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D55" s="21"/>
-      <c r="E55" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D56" s="21"/>
-      <c r="E56" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D57" s="21"/>
-      <c r="E57" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D58" s="21"/>
-      <c r="E58" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D59" s="22"/>
-      <c r="E59" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D60" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D61" s="21"/>
-      <c r="E61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D62" s="21"/>
-      <c r="E62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D63" s="21"/>
-      <c r="E63" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D64" s="21"/>
-      <c r="E64" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D65" s="21"/>
-      <c r="E65" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>1563</v>
-      </c>
-      <c r="G65" s="17"/>
-    </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D66" s="21"/>
-      <c r="E66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D67" s="21"/>
-      <c r="E67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D68" s="21"/>
-      <c r="E68" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="G68" s="17"/>
-    </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D69" s="21"/>
-      <c r="E69" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>1565</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D70" s="21"/>
-      <c r="E70" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D71" s="21"/>
-      <c r="E71" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="G71" s="17" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D72" s="21"/>
-      <c r="E72" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D73" s="21"/>
-      <c r="E73" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D74" s="21"/>
-      <c r="E74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D75" s="21"/>
-      <c r="E75" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D76" s="21"/>
-      <c r="E76" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D77" s="21"/>
-      <c r="E77" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D78" s="21"/>
-      <c r="E78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D79" s="21"/>
-      <c r="E79" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D80" s="21"/>
-      <c r="E80" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D81" s="21"/>
-      <c r="E81" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D82" s="21"/>
-      <c r="E82" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D83" s="21"/>
-      <c r="E83" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D84" s="21"/>
-      <c r="E84" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D85" s="21"/>
-      <c r="E85" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D86" s="21"/>
-      <c r="E86" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D87" s="21"/>
-      <c r="E87" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D88" s="21"/>
-      <c r="E88" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D89" s="21"/>
-      <c r="E89" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D90" s="21"/>
-      <c r="E90" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D91" s="21"/>
-      <c r="E91" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D92" s="21"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D93" s="21"/>
-      <c r="E93" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D94" s="21"/>
-      <c r="E94" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D95" s="21"/>
-      <c r="E95" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D96" s="21"/>
-      <c r="E96" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D97" s="21"/>
-      <c r="E97" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D98" s="21"/>
-      <c r="E98" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D99" s="21"/>
-      <c r="E99" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D100" s="21"/>
-      <c r="E100" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D101" s="21"/>
-      <c r="E101" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D102" s="21"/>
-      <c r="E102" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D103" s="21"/>
-      <c r="E103" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D104" s="21"/>
-      <c r="E104" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G104" s="1"/>
-    </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D105" s="21"/>
-      <c r="E105" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D106" s="21"/>
-      <c r="E106" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G106" s="1"/>
-    </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D107" s="21"/>
-      <c r="E107" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G107" s="1"/>
-    </row>
-    <row r="108" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D108" s="21"/>
-      <c r="E108" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="G108" s="1"/>
-    </row>
-    <row r="109" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D109" s="21"/>
-      <c r="E109" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="G109" s="1"/>
-    </row>
-    <row r="110" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D110" s="21"/>
-      <c r="E110" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="G110" s="1"/>
-    </row>
-    <row r="111" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D111" s="21"/>
-      <c r="E111" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="G111" s="1"/>
-    </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D112" s="21"/>
-      <c r="E112" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="G112" s="1"/>
-    </row>
-    <row r="113" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D113" s="21"/>
-      <c r="E113" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="G113" s="1"/>
-    </row>
-    <row r="114" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D114" s="21"/>
-      <c r="E114" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G114" s="1"/>
-    </row>
-    <row r="115" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D115" s="21"/>
-      <c r="E115" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="G115" s="1"/>
-    </row>
-    <row r="116" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D116" s="21"/>
-      <c r="E116" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="G116" s="1"/>
-    </row>
-    <row r="117" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D117" s="21"/>
-      <c r="E117" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="G117" s="1"/>
-    </row>
-    <row r="118" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D118" s="21"/>
-      <c r="E118" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="G118" s="1"/>
-    </row>
-    <row r="119" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D119" s="21"/>
-      <c r="E119" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G119" s="1"/>
-    </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D120" s="21"/>
-      <c r="E120" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="G120" s="1"/>
-    </row>
-    <row r="121" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D121" s="21"/>
-      <c r="E121" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="G121" s="1"/>
-    </row>
-    <row r="122" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D122" s="21"/>
-      <c r="E122" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="G122" s="1"/>
-    </row>
-    <row r="123" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D123" s="21"/>
-      <c r="E123" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="G123" s="1"/>
-    </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D124" s="21"/>
-      <c r="E124" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="G124" s="1"/>
-    </row>
-    <row r="125" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D125" s="21"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-    </row>
-    <row r="126" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D126" s="21"/>
-      <c r="E126" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="G126" s="1"/>
-    </row>
-    <row r="127" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D127" s="21"/>
-      <c r="E127" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="G127" s="1"/>
-    </row>
-    <row r="128" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D128" s="21"/>
-      <c r="E128" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="G128" s="1"/>
-    </row>
-    <row r="129" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D129" s="21"/>
-      <c r="E129" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="G129" s="1"/>
-    </row>
-    <row r="130" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D130" s="21"/>
-      <c r="E130" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="G130" s="1"/>
-    </row>
-    <row r="131" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D131" s="21"/>
-      <c r="E131" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="G131" s="1"/>
-    </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D132" s="21"/>
-      <c r="E132" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="G132" s="1"/>
-    </row>
-    <row r="133" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D133" s="21"/>
-      <c r="E133" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="G133" s="1"/>
-    </row>
-    <row r="134" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D134" s="21"/>
-      <c r="E134" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="G134" s="1"/>
-    </row>
-    <row r="135" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D135" s="21"/>
-      <c r="E135" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G135" s="1"/>
-    </row>
-    <row r="136" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D136" s="21"/>
-      <c r="E136" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G136" s="1"/>
-    </row>
-    <row r="137" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D137" s="21"/>
-      <c r="E137" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="G137" s="1"/>
-    </row>
-    <row r="138" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D138" s="21"/>
-      <c r="E138" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="G138" s="1"/>
-    </row>
-    <row r="139" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D139" s="21"/>
-      <c r="E139" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G139" s="1"/>
-    </row>
-    <row r="140" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D140" s="21"/>
-      <c r="E140" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="G140" s="1"/>
-    </row>
-    <row r="141" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D141" s="21"/>
-      <c r="E141" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="G141" s="1"/>
-    </row>
-    <row r="142" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D142" s="21"/>
-      <c r="E142" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="G142" s="1"/>
-    </row>
-    <row r="143" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D143" s="21"/>
-      <c r="E143" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="G143" s="1"/>
-    </row>
-    <row r="144" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D144" s="21"/>
-      <c r="E144" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="G144" s="1"/>
-    </row>
-    <row r="145" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D145" s="21"/>
-      <c r="E145" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="G145" s="1"/>
-    </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D146" s="21"/>
-      <c r="E146" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G146" s="1"/>
-    </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D147" s="21"/>
-      <c r="E147" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="G147" s="1"/>
-    </row>
-    <row r="148" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D148" s="21"/>
-      <c r="E148" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="G148" s="1"/>
-    </row>
-    <row r="149" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D149" s="21"/>
-      <c r="E149" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="G149" s="1"/>
-    </row>
-    <row r="150" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D150" s="21"/>
-      <c r="E150" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="G150" s="1"/>
-    </row>
-    <row r="151" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D151" s="21"/>
-      <c r="E151" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="G151" s="1"/>
-    </row>
-    <row r="152" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D152" s="21"/>
-      <c r="E152" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G152" s="1"/>
-    </row>
-    <row r="153" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D153" s="21"/>
-      <c r="E153" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G153" s="1"/>
-    </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D154" s="21"/>
-      <c r="E154" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G154" s="1"/>
-    </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D155" s="21"/>
-      <c r="E155" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="G155" s="1"/>
-    </row>
-    <row r="156" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D156" s="21"/>
-      <c r="E156" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="G156" s="1"/>
-    </row>
-    <row r="157" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D157" s="22"/>
-      <c r="E157" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="G157" s="1"/>
-    </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D158" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G158" s="1"/>
-    </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D159" s="21"/>
-      <c r="E159" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="G159" s="1"/>
-    </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D160" s="21"/>
-      <c r="E160" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="G160" s="1"/>
-    </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D161" s="21"/>
-      <c r="E161" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="G161" s="1"/>
-    </row>
-    <row r="162" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D162" s="21"/>
-      <c r="E162" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G162" s="1"/>
-    </row>
-    <row r="163" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D163" s="21"/>
-      <c r="E163" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="G163" s="1"/>
-    </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D164" s="21"/>
-      <c r="E164" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="G164" s="1"/>
-    </row>
-    <row r="165" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D165" s="21"/>
-      <c r="E165" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="G165" s="1"/>
-    </row>
-    <row r="166" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D166" s="21"/>
-      <c r="E166" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="G166" s="1"/>
-    </row>
-    <row r="167" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D167" s="21"/>
-      <c r="E167" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="G167" s="1"/>
-    </row>
-    <row r="168" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D168" s="21"/>
-      <c r="E168" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="G168" s="1"/>
-    </row>
-    <row r="169" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D169" s="21"/>
-      <c r="E169" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="G169" s="1"/>
-    </row>
-    <row r="170" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D170" s="21"/>
-      <c r="E170" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="G170" s="1"/>
-    </row>
-    <row r="171" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D171" s="21"/>
-      <c r="E171" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="G171" s="1"/>
-    </row>
-    <row r="172" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D172" s="21"/>
-      <c r="E172" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G172" s="1"/>
-    </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D173" s="22"/>
-      <c r="E173" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="G173" s="1"/>
-    </row>
-    <row r="174" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D174" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="G174" s="17" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="175" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D175" s="21"/>
-      <c r="E175" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="G175" s="1"/>
-    </row>
-    <row r="176" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D176" s="21"/>
-      <c r="E176" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="G176" s="1"/>
-    </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D177" s="21"/>
-      <c r="E177" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="G177" s="1"/>
-    </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D178" s="21"/>
-      <c r="E178" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="G178" s="1"/>
-    </row>
-    <row r="179" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D179" s="21"/>
-      <c r="E179" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="G179" s="1"/>
-    </row>
-    <row r="180" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D180" s="21"/>
-      <c r="E180" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F180" s="12" t="s">
-        <v>568</v>
-      </c>
-      <c r="G180" s="1"/>
-    </row>
-    <row r="181" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D181" s="21"/>
-      <c r="E181" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="G181" s="1"/>
-    </row>
-    <row r="182" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D182" s="21"/>
-      <c r="E182" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G182" s="1"/>
-    </row>
-    <row r="183" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D183" s="21"/>
-      <c r="E183" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="G183" s="1"/>
-    </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D184" s="21"/>
-      <c r="E184" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="185" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D185" s="21"/>
-      <c r="E185" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>1572</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="186" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D186" s="21"/>
-      <c r="E186" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="G186" s="1"/>
-    </row>
-    <row r="187" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D187" s="21"/>
-      <c r="E187" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="G187" s="1"/>
-    </row>
-    <row r="188" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D188" s="21"/>
-      <c r="E188" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="G188" s="1"/>
-    </row>
-    <row r="189" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D189" s="21"/>
-      <c r="E189" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G189" s="1"/>
-    </row>
-    <row r="190" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D190" s="21"/>
-      <c r="E190" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G190" s="1"/>
-    </row>
-    <row r="191" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D191" s="21"/>
-      <c r="E191" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="192" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D192" s="21"/>
-      <c r="E192" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="193" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D193" s="21"/>
-      <c r="E193" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="194" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D194" s="21"/>
-      <c r="E194" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>1573</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="195" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D195" s="21"/>
-      <c r="E195" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>1574</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="196" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D196" s="21"/>
-      <c r="E196" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G196" s="1"/>
-    </row>
-    <row r="197" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D197" s="21"/>
-      <c r="E197" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="G197" s="1"/>
-    </row>
-    <row r="198" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D198" s="21"/>
-      <c r="E198" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G198" s="1"/>
-    </row>
-    <row r="199" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D199" s="21"/>
-      <c r="E199" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="G199" s="1"/>
-    </row>
-    <row r="200" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D200" s="21"/>
-      <c r="E200" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G200" s="1"/>
-    </row>
-    <row r="201" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D201" s="21"/>
-      <c r="E201" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="G201" s="1"/>
-    </row>
-    <row r="202" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D202" s="21"/>
-      <c r="E202" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="G202" s="1"/>
-    </row>
-    <row r="203" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D203" s="21"/>
-      <c r="E203" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="G203" s="1"/>
-    </row>
-    <row r="204" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D204" s="21"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-    </row>
-    <row r="205" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D205" s="21"/>
-      <c r="E205" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="G205" s="1"/>
-    </row>
-    <row r="206" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D206" s="21"/>
-      <c r="E206" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="G206" s="1"/>
-    </row>
-    <row r="207" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D207" s="21"/>
-      <c r="E207" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G207" s="1"/>
-    </row>
-    <row r="208" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D208" s="21"/>
-      <c r="E208" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="G208" s="1"/>
-    </row>
-    <row r="209" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D209" s="21"/>
-      <c r="E209" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="G209" s="1"/>
-    </row>
-    <row r="210" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D210" s="21"/>
-      <c r="E210" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G210" s="1"/>
-    </row>
-    <row r="211" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D211" s="21"/>
-      <c r="E211" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F211" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="G211" s="1"/>
-    </row>
-    <row r="212" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D212" s="21"/>
-      <c r="E212" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G212" s="1"/>
-    </row>
-    <row r="213" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D213" s="21"/>
-      <c r="E213" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="G213" s="1"/>
-    </row>
-    <row r="214" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D214" s="21"/>
-      <c r="E214" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="G214" s="1"/>
-    </row>
-    <row r="215" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D215" s="21"/>
-      <c r="E215" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="G215" s="1"/>
-    </row>
-    <row r="216" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D216" s="21"/>
-      <c r="E216" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="G216" s="1"/>
-    </row>
-    <row r="217" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D217" s="21"/>
-      <c r="E217" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G217" s="1"/>
-    </row>
-    <row r="218" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D218" s="21"/>
-      <c r="E218" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G218" s="1"/>
-    </row>
-    <row r="219" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D219" s="21"/>
-      <c r="E219" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="G219" s="1"/>
-    </row>
-    <row r="220" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D220" s="21"/>
-      <c r="E220" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="G220" s="1"/>
-    </row>
-    <row r="221" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D221" s="21"/>
-      <c r="E221" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="G221" s="1"/>
-    </row>
-    <row r="222" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D222" s="21"/>
-      <c r="E222" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="G222" s="1"/>
-    </row>
-    <row r="223" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D223" s="21"/>
-      <c r="E223" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="G223" s="1"/>
-    </row>
-    <row r="224" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D224" s="21"/>
-      <c r="E224" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="G224" s="1"/>
-    </row>
-    <row r="225" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D225" s="21"/>
-      <c r="E225" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="G225" s="1"/>
-    </row>
-    <row r="226" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D226" s="21"/>
-      <c r="E226" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="G226" s="1"/>
-    </row>
-    <row r="227" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D227" s="21"/>
-      <c r="E227" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="G227" s="1"/>
-    </row>
-    <row r="228" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D228" s="21"/>
-      <c r="E228" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="G228" s="1"/>
-    </row>
-    <row r="229" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D229" s="21"/>
-      <c r="E229" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="G229" s="1"/>
-    </row>
-    <row r="230" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D230" s="21"/>
-      <c r="E230" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="G230" s="1"/>
-    </row>
-    <row r="231" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D231" s="21"/>
-      <c r="E231" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="G231" s="1"/>
-    </row>
-    <row r="232" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D232" s="21"/>
-      <c r="E232" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="G232" s="1"/>
-    </row>
-    <row r="233" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D233" s="21"/>
-      <c r="E233" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="G233" s="1"/>
-    </row>
-    <row r="234" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D234" s="21"/>
-      <c r="E234" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="G234" s="1"/>
-    </row>
-    <row r="235" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D235" s="21"/>
-      <c r="E235" s="7"/>
-      <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
-    </row>
-    <row r="236" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D236" s="21"/>
-      <c r="E236" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G236" s="1"/>
-    </row>
-    <row r="237" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D237" s="21"/>
-      <c r="E237" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="G237" s="1"/>
-    </row>
-    <row r="238" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D238" s="21"/>
-      <c r="E238" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="G238" s="1"/>
-    </row>
-    <row r="239" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D239" s="21"/>
-      <c r="E239" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="G239" s="1"/>
-    </row>
-    <row r="240" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D240" s="21"/>
-      <c r="E240" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="G240" s="1"/>
-    </row>
-    <row r="241" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D241" s="21"/>
-      <c r="E241" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F241" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G241" s="1"/>
-    </row>
-    <row r="242" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D242" s="21"/>
-      <c r="E242" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F242" s="12" t="s">
-        <v>628</v>
-      </c>
-      <c r="G242" s="1"/>
-    </row>
-    <row r="243" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D243" s="21"/>
-      <c r="E243" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F243" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G243" s="1"/>
-    </row>
-    <row r="244" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D244" s="21"/>
-      <c r="E244" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G244" s="1"/>
-    </row>
-    <row r="245" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D245" s="21"/>
-      <c r="E245" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="G245" s="1"/>
-    </row>
-    <row r="246" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D246" s="21"/>
-      <c r="E246" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="G246" s="1"/>
-    </row>
-    <row r="247" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D247" s="21"/>
-      <c r="E247" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F247" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="G247" s="1"/>
-    </row>
-    <row r="248" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D248" s="21"/>
-      <c r="E248" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="G248" s="1"/>
-    </row>
-    <row r="249" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D249" s="21"/>
-      <c r="E249" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="G249" s="1"/>
-    </row>
-    <row r="250" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D250" s="21"/>
-      <c r="E250" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="G250" s="1"/>
-    </row>
-    <row r="251" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D251" s="21"/>
-      <c r="E251" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="G251" s="1"/>
-    </row>
-    <row r="252" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D252" s="21"/>
-      <c r="E252" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="G252" s="1"/>
-    </row>
-    <row r="253" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D253" s="21"/>
-      <c r="E253" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F253" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="G253" s="1"/>
-    </row>
-    <row r="254" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D254" s="21"/>
-      <c r="E254" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="G254" s="1"/>
-    </row>
-    <row r="255" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D255" s="21"/>
-      <c r="E255" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F255" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="G255" s="1"/>
-    </row>
-    <row r="256" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D256" s="21"/>
-      <c r="E256" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="G256" s="1"/>
-    </row>
-    <row r="257" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D257" s="21"/>
-      <c r="E257" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="G257" s="1"/>
-    </row>
-    <row r="258" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D258" s="21"/>
-      <c r="E258" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="G258" s="1"/>
-    </row>
-    <row r="259" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D259" s="21"/>
-      <c r="E259" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="G259" s="1"/>
-    </row>
-    <row r="260" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D260" s="21"/>
-      <c r="E260" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F260" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="G260" s="1"/>
-    </row>
-    <row r="261" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D261" s="21"/>
-      <c r="E261" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F261" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="G261" s="1"/>
-    </row>
-    <row r="262" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D262" s="21"/>
-      <c r="E262" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F262" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="G262" s="1"/>
-    </row>
-    <row r="263" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D263" s="21"/>
-      <c r="E263" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F263" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="G263" s="1"/>
-    </row>
-    <row r="264" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D264" s="21"/>
-      <c r="E264" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="G264" s="1"/>
-    </row>
-    <row r="265" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D265" s="21"/>
-      <c r="E265" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="G265" s="1"/>
-    </row>
-    <row r="266" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D266" s="21"/>
-      <c r="E266" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F266" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="G266" s="1"/>
-    </row>
-    <row r="267" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D267" s="21"/>
-      <c r="E267" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F267" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="G267" s="1"/>
-    </row>
-    <row r="268" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D268" s="21"/>
-      <c r="E268" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F268" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="G268" s="1"/>
-    </row>
-    <row r="269" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D269" s="21"/>
-      <c r="E269" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F269" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="G269" s="1"/>
-    </row>
-    <row r="270" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D270" s="21"/>
-      <c r="E270" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F270" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G270" s="1"/>
-    </row>
-    <row r="271" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D271" s="21"/>
-      <c r="E271" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F271" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G271" s="1"/>
-    </row>
-    <row r="272" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D272" s="21"/>
-      <c r="E272" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F272" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="G272" s="1"/>
-    </row>
-    <row r="273" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D273" s="21"/>
-      <c r="E273" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F273" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="G273" s="1"/>
-    </row>
-    <row r="274" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D274" s="21"/>
-      <c r="E274" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F274" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="G274" s="1"/>
-    </row>
-    <row r="275" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D275" s="21"/>
-      <c r="E275" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F275" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="G275" s="1"/>
-    </row>
-    <row r="276" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D276" s="21"/>
-      <c r="E276" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F276" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="G276" s="1"/>
-    </row>
-    <row r="277" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D277" s="22"/>
-      <c r="E277" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F277" s="12" t="s">
-        <v>762</v>
-      </c>
-      <c r="G277" s="1"/>
-    </row>
-    <row r="278" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D278" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E278" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F278" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="G278" s="1"/>
-    </row>
-    <row r="279" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D279" s="21"/>
-      <c r="E279" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F279" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="G279" s="1"/>
-    </row>
-    <row r="280" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D280" s="21"/>
-      <c r="E280" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="G280" s="1"/>
-    </row>
-    <row r="281" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D281" s="21"/>
-      <c r="E281" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F281" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="G281" s="1"/>
-    </row>
-    <row r="282" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D282" s="21"/>
-      <c r="E282" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="G282" s="1"/>
-    </row>
-    <row r="283" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D283" s="21"/>
-      <c r="E283" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F283" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="G283" s="1"/>
-    </row>
-    <row r="284" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D284" s="21"/>
-      <c r="E284" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F284" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="G284" s="1"/>
-    </row>
-    <row r="285" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D285" s="21"/>
-      <c r="E285" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="G285" s="1"/>
-    </row>
-    <row r="286" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D286" s="21"/>
-      <c r="E286" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="G286" s="1"/>
-    </row>
-    <row r="287" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D287" s="21"/>
-      <c r="E287" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="G287" s="1"/>
-    </row>
-    <row r="288" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D288" s="21"/>
-      <c r="E288" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="G288" s="1"/>
-    </row>
-    <row r="289" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D289" s="21"/>
-      <c r="E289" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F289" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="G289" s="1"/>
-    </row>
-    <row r="290" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D290" s="21"/>
-      <c r="E290" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F290" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="G290" s="1"/>
-    </row>
-    <row r="291" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D291" s="21"/>
-      <c r="E291" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F291" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="G291" s="1"/>
-    </row>
-    <row r="292" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D292" s="21"/>
-      <c r="E292" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F292" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="G292" s="1"/>
-    </row>
-    <row r="293" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D293" s="21"/>
-      <c r="E293" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F293" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="G293" s="1"/>
-    </row>
-    <row r="294" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D294" s="21"/>
-      <c r="E294" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F294" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="G294" s="1"/>
-    </row>
-    <row r="295" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D295" s="21"/>
-      <c r="E295" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F295" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="G295" s="1"/>
-    </row>
-    <row r="296" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D296" s="21"/>
-      <c r="E296" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F296" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="G296" s="1"/>
-    </row>
-    <row r="297" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D297" s="21"/>
-      <c r="E297" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F297" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="G297" s="1"/>
-    </row>
-    <row r="298" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D298" s="21"/>
-      <c r="E298" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F298" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="G298" s="1"/>
-    </row>
-    <row r="299" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D299" s="21"/>
-      <c r="E299" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F299" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="G299" s="1"/>
-    </row>
-    <row r="300" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D300" s="21"/>
-      <c r="E300" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F300" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="G300" s="1"/>
-    </row>
-    <row r="301" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D301" s="21"/>
-      <c r="E301" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F301" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="G301" s="1"/>
-    </row>
-    <row r="302" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D302" s="21"/>
-      <c r="E302" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F302" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="G302" s="1"/>
-    </row>
-    <row r="303" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D303" s="21"/>
-      <c r="E303" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F303" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="G303" s="1"/>
-    </row>
-    <row r="304" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D304" s="21"/>
-      <c r="E304" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F304" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G304" s="1"/>
-    </row>
-    <row r="305" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D305" s="21"/>
-      <c r="E305" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F305" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G305" s="1"/>
-    </row>
-    <row r="306" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D306" s="21"/>
-      <c r="E306" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F306" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="G306" s="1"/>
-    </row>
-    <row r="307" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D307" s="21"/>
-      <c r="E307" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F307" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="G307" s="1"/>
-    </row>
-    <row r="308" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D308" s="21"/>
-      <c r="E308" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F308" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="G308" s="1"/>
-    </row>
-    <row r="309" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D309" s="21"/>
-      <c r="E309" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F309" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="G309" s="1"/>
-    </row>
-    <row r="310" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D310" s="21"/>
-      <c r="E310" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F310" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="G310" s="1"/>
-    </row>
-    <row r="311" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D311" s="21"/>
-      <c r="E311" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F311" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="G311" s="1"/>
-    </row>
-    <row r="312" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D312" s="21"/>
-      <c r="E312" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F312" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="G312" s="1"/>
-    </row>
-    <row r="313" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D313" s="21"/>
-      <c r="E313" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F313" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="G313" s="1"/>
-    </row>
-    <row r="314" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D314" s="21"/>
-      <c r="E314" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F314" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="G314" s="1"/>
-    </row>
-    <row r="315" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D315" s="21"/>
-      <c r="E315" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F315" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="G315" s="1"/>
-    </row>
-    <row r="316" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D316" s="21"/>
-      <c r="E316" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F316" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="G316" s="1"/>
-    </row>
-    <row r="317" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D317" s="21"/>
-      <c r="E317" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F317" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="G317" s="1"/>
-    </row>
-    <row r="318" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D318" s="21"/>
-      <c r="E318" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F318" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="G318" s="1"/>
-    </row>
-    <row r="319" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D319" s="21"/>
-      <c r="E319" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F319" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="G319" s="1"/>
-    </row>
-    <row r="320" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D320" s="21"/>
-      <c r="E320" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F320" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="G320" s="1"/>
-    </row>
-    <row r="321" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D321" s="21"/>
-      <c r="E321" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F321" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="G321" s="1"/>
-    </row>
-    <row r="322" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D322" s="21"/>
-      <c r="E322" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F322" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="G322" s="1"/>
-    </row>
-    <row r="323" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D323" s="21"/>
-      <c r="E323" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="G323" s="1"/>
-    </row>
-    <row r="324" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D324" s="21"/>
-      <c r="E324" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F324" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="G324" s="1"/>
-    </row>
-    <row r="325" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D325" s="21"/>
-      <c r="E325" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F325" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="G325" s="1"/>
-    </row>
-    <row r="326" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D326" s="21"/>
-      <c r="E326" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F326" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="G326" s="1"/>
-    </row>
-    <row r="327" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D327" s="21"/>
-      <c r="E327" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F327" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="G327" s="1"/>
-    </row>
-    <row r="328" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D328" s="21"/>
-      <c r="E328" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F328" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="G328" s="1"/>
-    </row>
-    <row r="329" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D329" s="21"/>
-      <c r="E329" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F329" s="12" t="s">
-        <v>700</v>
-      </c>
-      <c r="G329" s="1"/>
-    </row>
-    <row r="330" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D330" s="21"/>
-      <c r="E330" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F330" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="G330" s="1"/>
-    </row>
-    <row r="331" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D331" s="22"/>
-      <c r="E331" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F331" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="G331" s="1"/>
-    </row>
-    <row r="332" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D332" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E332" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F332" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="G332" s="1"/>
-    </row>
-    <row r="333" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D333" s="21"/>
-      <c r="E333" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F333" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="G333" s="1"/>
-    </row>
-    <row r="334" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D334" s="21"/>
-      <c r="E334" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F334" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="G334" s="1"/>
-    </row>
-    <row r="335" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D335" s="21"/>
-      <c r="E335" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F335" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="G335" s="1"/>
-    </row>
-    <row r="336" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D336" s="21"/>
-      <c r="E336" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F336" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="G336" s="1"/>
-    </row>
-    <row r="337" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D337" s="21"/>
-      <c r="E337" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F337" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="G337" s="1"/>
-    </row>
-    <row r="338" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D338" s="21"/>
-      <c r="E338" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F338" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="G338" s="1"/>
-    </row>
-    <row r="339" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D339" s="21"/>
-      <c r="E339" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F339" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="G339" s="1"/>
-    </row>
-    <row r="340" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D340" s="21"/>
-      <c r="E340" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F340" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="G340" s="1"/>
-    </row>
-    <row r="341" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D341" s="21"/>
-      <c r="E341" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F341" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="G341" s="1"/>
-    </row>
-    <row r="342" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D342" s="21"/>
-      <c r="E342" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F342" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="G342" s="1"/>
-    </row>
-    <row r="343" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D343" s="21"/>
-      <c r="E343" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F343" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="G343" s="1"/>
-    </row>
-    <row r="344" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D344" s="21"/>
-      <c r="E344" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F344" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="G344" s="1"/>
-    </row>
-    <row r="345" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D345" s="21"/>
-      <c r="E345" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F345" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="G345" s="1"/>
-    </row>
-    <row r="346" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D346" s="21"/>
-      <c r="E346" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F346" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="G346" s="1"/>
-    </row>
-    <row r="347" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D347" s="21"/>
-      <c r="E347" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F347" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="G347" s="1"/>
-    </row>
-    <row r="348" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D348" s="21"/>
-      <c r="E348" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F348" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="G348" s="1"/>
-    </row>
-    <row r="349" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D349" s="21"/>
-      <c r="E349" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F349" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="G349" s="1"/>
-    </row>
-    <row r="350" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D350" s="21"/>
-      <c r="E350" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F350" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="G350" s="1"/>
-    </row>
-    <row r="351" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D351" s="21"/>
-      <c r="E351" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F351" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="G351" s="1"/>
-    </row>
-    <row r="352" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D352" s="21"/>
-      <c r="E352" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F352" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="G352" s="1"/>
-    </row>
-    <row r="353" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D353" s="22"/>
-      <c r="E353" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F353" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="G353" s="1"/>
-    </row>
-    <row r="354" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D354" s="1"/>
-      <c r="E354" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F354" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="G354" s="1"/>
-    </row>
-    <row r="355" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D355" s="1"/>
-      <c r="E355" s="7"/>
-      <c r="F355" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="G355" s="1"/>
-    </row>
-    <row r="356" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D356" s="1"/>
-      <c r="E356" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F356" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="G356" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="357" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D357" s="1"/>
-      <c r="E357" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F357" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="G357" s="1"/>
-    </row>
-    <row r="358" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D358" s="1"/>
-      <c r="E358" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F358" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="G358" s="1" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="359" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D359" s="1"/>
-      <c r="E359" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F359" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="G359" s="1"/>
-    </row>
-    <row r="360" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D360" s="1"/>
-      <c r="E360" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F360" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="G360" s="1"/>
-    </row>
-    <row r="361" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D361" s="1"/>
-      <c r="E361" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F361" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="G361" s="1"/>
-    </row>
-    <row r="362" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D362" s="1"/>
-      <c r="E362" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F362" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="G362" s="1"/>
-    </row>
-    <row r="363" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D363" s="1"/>
-      <c r="E363" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F363" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="G363" s="1"/>
-    </row>
-    <row r="364" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D364" s="1"/>
-      <c r="E364" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F364" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G364" s="1"/>
-    </row>
-    <row r="365" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D365" s="1"/>
-      <c r="E365" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F365" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G365" s="1"/>
-    </row>
-    <row r="366" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D366" s="1"/>
-      <c r="E366" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F366" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="G366" s="1"/>
-    </row>
-    <row r="367" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D367" s="1"/>
-      <c r="E367" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F367" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="G367" s="1"/>
-    </row>
-    <row r="368" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D368" s="1"/>
-      <c r="E368" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F368" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G368" s="1"/>
-    </row>
-    <row r="369" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D369" s="1"/>
-      <c r="E369" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F369" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="G369" s="1"/>
-    </row>
-    <row r="370" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D370" s="1"/>
-      <c r="E370" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F370" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="G370" s="1"/>
-    </row>
-    <row r="371" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D371" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E371" s="26"/>
-      <c r="F371" s="26"/>
-      <c r="G371" s="26"/>
-    </row>
-    <row r="372" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D372" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E372" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F372" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G372" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="373" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D373" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E373" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F373" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G373" s="16" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="374" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D374" s="24"/>
-      <c r="E374" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F374" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G374" s="1"/>
-    </row>
-    <row r="375" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D375" s="24"/>
-      <c r="E375" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F375" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G375" s="1"/>
-    </row>
-    <row r="376" spans="4:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D376" s="24"/>
-      <c r="E376" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F376" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G376" s="1"/>
-    </row>
-    <row r="377" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D377" s="24"/>
-      <c r="E377" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F377" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="G377" s="1"/>
-    </row>
-    <row r="378" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D378" s="24"/>
-      <c r="E378" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F378" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="G378" s="1"/>
-    </row>
-    <row r="379" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D379" s="24"/>
-      <c r="E379" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F379" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G379" s="1" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="380" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D380" s="24"/>
-      <c r="E380" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F380" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G380" s="1"/>
-    </row>
-    <row r="381" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D381" s="24"/>
-      <c r="E381" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F381" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G381" s="1"/>
-    </row>
-    <row r="382" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D382" s="24"/>
-      <c r="E382" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F382" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G382" s="1"/>
-    </row>
-    <row r="383" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D383" s="24"/>
-      <c r="E383" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F383" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G383" s="1"/>
-    </row>
-    <row r="384" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D384" s="24"/>
-      <c r="E384" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F384" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G384" s="1"/>
-    </row>
-    <row r="385" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D385" s="24"/>
-      <c r="E385" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F385" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G385" s="1"/>
-    </row>
-    <row r="386" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D386" s="24"/>
-      <c r="E386" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F386" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="G386" s="1"/>
-    </row>
-    <row r="387" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D387" s="24"/>
-      <c r="E387" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F387" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="G387" s="1"/>
-    </row>
-    <row r="388" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D388" s="24"/>
-      <c r="E388" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F388" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="G388" s="1"/>
-    </row>
-    <row r="389" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D389" s="24"/>
-      <c r="E389" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F389" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="G389" s="1"/>
-    </row>
-    <row r="390" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D390" s="24"/>
-      <c r="E390" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F390" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="G390" s="1"/>
-    </row>
-    <row r="391" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D391" s="24"/>
-      <c r="E391" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F391" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="G391" s="1"/>
-    </row>
-    <row r="392" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D392" s="24"/>
-      <c r="E392" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F392" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="G392" s="1"/>
-    </row>
-    <row r="393" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D393" s="24"/>
-      <c r="E393" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F393" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="G393" s="1"/>
-    </row>
-    <row r="394" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D394" s="24"/>
-      <c r="E394" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F394" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="G394" s="1"/>
-    </row>
-    <row r="395" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D395" s="24"/>
-      <c r="E395" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F395" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="G395" s="1"/>
-    </row>
-    <row r="396" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D396" s="24"/>
-      <c r="E396" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F396" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="G396" s="1"/>
-    </row>
-    <row r="397" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D397" s="24"/>
-      <c r="E397" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F397" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="G397" s="1"/>
-    </row>
-    <row r="398" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D398" s="24"/>
-      <c r="E398" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F398" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="G398" s="1"/>
-    </row>
-    <row r="399" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D399" s="24"/>
-      <c r="E399" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F399" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="G399" s="1"/>
-    </row>
-    <row r="400" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D400" s="24"/>
-      <c r="E400" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F400" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="G400" s="1"/>
-    </row>
-    <row r="401" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D401" s="24"/>
-      <c r="E401" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F401" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G401" s="1"/>
-    </row>
-    <row r="402" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D402" s="24"/>
-      <c r="E402" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F402" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="G402" s="1"/>
-    </row>
-    <row r="403" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D403" s="24"/>
-      <c r="E403" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F403" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="G403" s="1"/>
-    </row>
-    <row r="404" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D404" s="24"/>
-      <c r="E404" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F404" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="G404" s="1"/>
-    </row>
-    <row r="405" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D405" s="24"/>
-      <c r="E405" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F405" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="G405" s="1"/>
-    </row>
-    <row r="406" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D406" s="24"/>
-      <c r="E406" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F406" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="G406" s="1"/>
-    </row>
-    <row r="407" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D407" s="24"/>
-      <c r="E407" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F407" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="G407" s="1"/>
-    </row>
-    <row r="408" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D408" s="24"/>
-      <c r="E408" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F408" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G408" s="1"/>
-    </row>
-    <row r="409" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D409" s="24"/>
-      <c r="E409" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F409" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G409" s="1"/>
-    </row>
-    <row r="410" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D410" s="24"/>
-      <c r="E410" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F410" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G410" s="1"/>
-    </row>
-    <row r="411" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D411" s="24"/>
-      <c r="E411" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F411" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G411" s="1"/>
-    </row>
-    <row r="412" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D412" s="24"/>
-      <c r="E412" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F412" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G412" s="1"/>
-    </row>
-    <row r="413" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D413" s="24"/>
-      <c r="E413" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F413" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G413" s="1"/>
-    </row>
-    <row r="414" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D414" s="24"/>
-      <c r="E414" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F414" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G414" s="1"/>
-    </row>
-    <row r="415" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D415" s="25"/>
-      <c r="E415" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F415" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G415" s="1"/>
-    </row>
-    <row r="416" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D416" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E416" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F416" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G416" s="1"/>
-    </row>
-    <row r="417" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D417" s="21"/>
-      <c r="E417" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F417" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G417" s="1"/>
-    </row>
-    <row r="418" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D418" s="21"/>
-      <c r="E418" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F418" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G418" s="1"/>
-    </row>
-    <row r="419" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D419" s="21"/>
-      <c r="E419" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F419" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G419" s="1"/>
-    </row>
-    <row r="420" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D420" s="21"/>
-      <c r="E420" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F420" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G420" s="1"/>
-    </row>
-    <row r="421" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D421" s="21"/>
-      <c r="E421" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F421" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G421" s="1"/>
-    </row>
-    <row r="422" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D422" s="21"/>
-      <c r="E422" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F422" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G422" s="1"/>
-    </row>
-    <row r="423" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D423" s="21"/>
-      <c r="E423" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F423" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G423" s="1"/>
-    </row>
-    <row r="424" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D424" s="21"/>
-      <c r="E424" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F424" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G424" s="1"/>
-    </row>
-    <row r="425" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D425" s="22"/>
-      <c r="E425" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F425" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G425" s="1"/>
-    </row>
-    <row r="426" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D426" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E426" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F426" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G426" s="1"/>
-    </row>
-    <row r="427" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D427" s="21"/>
-      <c r="E427" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F427" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G427" s="1"/>
-    </row>
-    <row r="428" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D428" s="21"/>
-      <c r="E428" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F428" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G428" s="1"/>
-    </row>
-    <row r="429" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D429" s="21"/>
-      <c r="E429" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F429" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G429" s="1"/>
-    </row>
-    <row r="430" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D430" s="21"/>
-      <c r="E430" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F430" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G430" s="1"/>
-    </row>
-    <row r="431" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D431" s="21"/>
-      <c r="E431" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F431" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G431" s="1"/>
-    </row>
-    <row r="432" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D432" s="21"/>
-      <c r="E432" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F432" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G432" s="1"/>
-    </row>
-    <row r="433" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D433" s="21"/>
-      <c r="E433" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F433" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G433" s="1"/>
-    </row>
-    <row r="434" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D434" s="21"/>
-      <c r="E434" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F434" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G434" s="1"/>
-    </row>
-    <row r="435" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D435" s="21"/>
-      <c r="E435" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F435" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G435" s="1"/>
-    </row>
-    <row r="436" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D436" s="21"/>
-      <c r="E436" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F436" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G436" s="1"/>
-    </row>
-    <row r="437" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D437" s="21"/>
-      <c r="E437" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F437" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G437" s="1"/>
-    </row>
-    <row r="438" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D438" s="21"/>
-      <c r="E438" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F438" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="G438" s="1"/>
-    </row>
-    <row r="439" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D439" s="21"/>
-      <c r="E439" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F439" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G439" s="1"/>
-    </row>
-    <row r="440" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D440" s="21"/>
-      <c r="E440" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F440" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G440" s="1"/>
-    </row>
-    <row r="441" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D441" s="21"/>
-      <c r="E441" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F441" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G441" s="1"/>
-    </row>
-    <row r="442" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D442" s="21"/>
-      <c r="E442" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F442" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G442" s="1"/>
-    </row>
-    <row r="443" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D443" s="21"/>
-      <c r="E443" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F443" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G443" s="1"/>
-    </row>
-    <row r="444" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D444" s="21"/>
-      <c r="E444" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F444" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G444" s="1"/>
-    </row>
-    <row r="445" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D445" s="21"/>
-      <c r="E445" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F445" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G445" s="1"/>
-    </row>
-    <row r="446" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D446" s="21"/>
-      <c r="E446" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F446" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G446" s="1"/>
-    </row>
-    <row r="447" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D447" s="21"/>
-      <c r="E447" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F447" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G447" s="1"/>
-    </row>
-    <row r="448" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D448" s="21"/>
-      <c r="E448" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F448" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G448" s="1"/>
-    </row>
-    <row r="449" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D449" s="21"/>
-      <c r="E449" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F449" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G449" s="1"/>
-    </row>
-    <row r="450" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D450" s="21"/>
-      <c r="E450" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F450" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G450" s="1"/>
-    </row>
-    <row r="451" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D451" s="21"/>
-      <c r="E451" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F451" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G451" s="1"/>
-    </row>
-    <row r="452" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D452" s="21"/>
-      <c r="E452" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F452" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G452" s="1"/>
-    </row>
-    <row r="453" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D453" s="21"/>
-      <c r="E453" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F453" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G453" s="1"/>
-    </row>
-    <row r="454" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D454" s="21"/>
-      <c r="E454" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F454" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G454" s="1"/>
-    </row>
-    <row r="455" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D455" s="21"/>
-      <c r="E455" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F455" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G455" s="1"/>
-    </row>
-    <row r="456" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D456" s="21"/>
-      <c r="E456" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F456" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G456" s="1"/>
-    </row>
-    <row r="457" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D457" s="21"/>
-      <c r="E457" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F457" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G457" s="1"/>
-    </row>
-    <row r="458" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D458" s="21"/>
-      <c r="E458" s="7"/>
-      <c r="F458" s="1"/>
-      <c r="G458" s="1"/>
-    </row>
-    <row r="459" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D459" s="21"/>
-      <c r="E459" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F459" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G459" s="1"/>
-    </row>
-    <row r="460" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D460" s="21"/>
-      <c r="E460" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F460" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G460" s="1"/>
-    </row>
-    <row r="461" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D461" s="21"/>
-      <c r="E461" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F461" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G461" s="1"/>
-    </row>
-    <row r="462" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D462" s="21"/>
-      <c r="E462" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F462" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G462" s="1"/>
-    </row>
-    <row r="463" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D463" s="21"/>
-      <c r="E463" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F463" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G463" s="1"/>
-    </row>
-    <row r="464" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D464" s="21"/>
-      <c r="E464" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F464" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G464" s="1"/>
-    </row>
-    <row r="465" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D465" s="21"/>
-      <c r="E465" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F465" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G465" s="1"/>
-    </row>
-    <row r="466" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D466" s="21"/>
-      <c r="E466" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F466" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G466" s="1"/>
-    </row>
-    <row r="467" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D467" s="21"/>
-      <c r="E467" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F467" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G467" s="1"/>
-    </row>
-    <row r="468" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D468" s="21"/>
-      <c r="E468" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F468" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G468" s="1"/>
-    </row>
-    <row r="469" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D469" s="21"/>
-      <c r="E469" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F469" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G469" s="1"/>
-    </row>
-    <row r="470" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D470" s="21"/>
-      <c r="E470" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F470" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G470" s="1"/>
-    </row>
-    <row r="471" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D471" s="21"/>
-      <c r="E471" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F471" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="G471" s="1"/>
-    </row>
-    <row r="472" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D472" s="21"/>
-      <c r="E472" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F472" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G472" s="1"/>
-    </row>
-    <row r="473" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D473" s="21"/>
-      <c r="E473" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F473" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G473" s="1"/>
-    </row>
-    <row r="474" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D474" s="21"/>
-      <c r="E474" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F474" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G474" s="1"/>
-    </row>
-    <row r="475" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D475" s="21"/>
-      <c r="E475" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F475" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G475" s="1"/>
-    </row>
-    <row r="476" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D476" s="21"/>
-      <c r="E476" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F476" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G476" s="1"/>
-    </row>
-    <row r="477" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D477" s="21"/>
-      <c r="E477" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F477" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G477" s="1"/>
-    </row>
-    <row r="478" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D478" s="21"/>
-      <c r="E478" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F478" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G478" s="1"/>
-    </row>
-    <row r="479" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D479" s="21"/>
-      <c r="E479" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F479" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G479" s="1"/>
-    </row>
-    <row r="480" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D480" s="21"/>
-      <c r="E480" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F480" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G480" s="1"/>
-    </row>
-    <row r="481" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D481" s="21"/>
-      <c r="E481" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F481" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G481" s="1"/>
-    </row>
-    <row r="482" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D482" s="21"/>
-      <c r="E482" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F482" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G482" s="1"/>
-    </row>
-    <row r="483" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D483" s="21"/>
-      <c r="E483" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F483" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G483" s="1"/>
-    </row>
-    <row r="484" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D484" s="21"/>
-      <c r="E484" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F484" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G484" s="1"/>
-    </row>
-    <row r="485" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D485" s="21"/>
-      <c r="E485" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F485" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G485" s="1"/>
-    </row>
-    <row r="486" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D486" s="21"/>
-      <c r="E486" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F486" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G486" s="1"/>
-    </row>
-    <row r="487" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D487" s="21"/>
-      <c r="E487" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F487" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G487" s="1"/>
-    </row>
-    <row r="488" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D488" s="21"/>
-      <c r="E488" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F488" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G488" s="1"/>
-    </row>
-    <row r="489" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D489" s="21"/>
-      <c r="E489" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F489" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G489" s="1"/>
-    </row>
-    <row r="490" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D490" s="21"/>
-      <c r="E490" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F490" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G490" s="1"/>
-    </row>
-    <row r="491" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D491" s="21"/>
-      <c r="E491" s="7"/>
-      <c r="F491" s="1"/>
-      <c r="G491" s="1"/>
-    </row>
-    <row r="492" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D492" s="21"/>
-      <c r="E492" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F492" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G492" s="1"/>
-    </row>
-    <row r="493" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D493" s="21"/>
-      <c r="E493" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F493" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G493" s="1"/>
-    </row>
-    <row r="494" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D494" s="21"/>
-      <c r="E494" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F494" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G494" s="1"/>
-    </row>
-    <row r="495" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D495" s="21"/>
-      <c r="E495" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F495" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G495" s="1"/>
-    </row>
-    <row r="496" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D496" s="21"/>
-      <c r="E496" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F496" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G496" s="1"/>
-    </row>
-    <row r="497" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D497" s="21"/>
-      <c r="E497" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F497" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G497" s="1"/>
-    </row>
-    <row r="498" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D498" s="21"/>
-      <c r="E498" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F498" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G498" s="1"/>
-    </row>
-    <row r="499" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D499" s="21"/>
-      <c r="E499" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F499" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G499" s="1"/>
-    </row>
-    <row r="500" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D500" s="21"/>
-      <c r="E500" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F500" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G500" s="1"/>
-    </row>
-    <row r="501" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D501" s="21"/>
-      <c r="E501" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F501" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G501" s="1"/>
-    </row>
-    <row r="502" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D502" s="21"/>
-      <c r="E502" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F502" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G502" s="1"/>
-    </row>
-    <row r="503" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D503" s="21"/>
-      <c r="E503" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F503" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G503" s="1"/>
-    </row>
-    <row r="504" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D504" s="21"/>
-      <c r="E504" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F504" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="G504" s="1"/>
-    </row>
-    <row r="505" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D505" s="21"/>
-      <c r="E505" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F505" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G505" s="1"/>
-    </row>
-    <row r="506" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D506" s="21"/>
-      <c r="E506" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F506" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G506" s="1"/>
-    </row>
-    <row r="507" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D507" s="21"/>
-      <c r="E507" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F507" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G507" s="1"/>
-    </row>
-    <row r="508" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D508" s="21"/>
-      <c r="E508" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F508" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G508" s="1"/>
-    </row>
-    <row r="509" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D509" s="21"/>
-      <c r="E509" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F509" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G509" s="1"/>
-    </row>
-    <row r="510" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D510" s="21"/>
-      <c r="E510" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F510" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G510" s="1"/>
-    </row>
-    <row r="511" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D511" s="21"/>
-      <c r="E511" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F511" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G511" s="1"/>
-    </row>
-    <row r="512" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D512" s="21"/>
-      <c r="E512" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F512" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G512" s="1"/>
-    </row>
-    <row r="513" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D513" s="21"/>
-      <c r="E513" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F513" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G513" s="1"/>
-    </row>
-    <row r="514" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D514" s="21"/>
-      <c r="E514" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F514" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G514" s="1"/>
-    </row>
-    <row r="515" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D515" s="21"/>
-      <c r="E515" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F515" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G515" s="1"/>
-    </row>
-    <row r="516" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D516" s="21"/>
-      <c r="E516" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F516" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G516" s="1"/>
-    </row>
-    <row r="517" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D517" s="21"/>
-      <c r="E517" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F517" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G517" s="1"/>
-    </row>
-    <row r="518" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D518" s="21"/>
-      <c r="E518" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F518" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G518" s="1"/>
-    </row>
-    <row r="519" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D519" s="21"/>
-      <c r="E519" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F519" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G519" s="1"/>
-    </row>
-    <row r="520" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D520" s="21"/>
-      <c r="E520" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F520" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G520" s="1"/>
-    </row>
-    <row r="521" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D521" s="21"/>
-      <c r="E521" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F521" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G521" s="1"/>
-    </row>
-    <row r="522" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D522" s="21"/>
-      <c r="E522" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F522" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G522" s="1"/>
-    </row>
-    <row r="523" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D523" s="22"/>
-      <c r="E523" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F523" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G523" s="1"/>
-    </row>
-    <row r="524" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D524" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E524" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F524" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G524" s="1" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="525" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D525" s="21"/>
-      <c r="E525" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F525" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G525" s="1"/>
-    </row>
-    <row r="526" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D526" s="21"/>
-      <c r="E526" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F526" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G526" s="1" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="527" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D527" s="21"/>
-      <c r="E527" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F527" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G527" s="1" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="528" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D528" s="21"/>
-      <c r="E528" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F528" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G528" s="1" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="529" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D529" s="21"/>
-      <c r="E529" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F529" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G529" s="1" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="530" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D530" s="21"/>
-      <c r="E530" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F530" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G530" s="17" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="531" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D531" s="21"/>
-      <c r="E531" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F531" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G531" s="1" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="532" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D532" s="21"/>
-      <c r="E532" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F532" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G532" s="1" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="533" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D533" s="21"/>
-      <c r="E533" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F533" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G533" s="1"/>
-    </row>
-    <row r="534" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D534" s="21"/>
-      <c r="E534" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F534" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G534" s="1" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="535" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D535" s="21"/>
-      <c r="E535" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F535" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G535" s="1" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="536" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D536" s="21"/>
-      <c r="E536" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F536" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G536" s="1" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="537" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D537" s="21"/>
-      <c r="E537" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F537" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G537" s="1" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="538" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D538" s="21"/>
-      <c r="E538" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F538" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G538" s="17" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="539" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D539" s="22"/>
-      <c r="E539" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F539" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G539" s="1"/>
-    </row>
-    <row r="540" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D540" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E540" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F540" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G540" s="1"/>
-    </row>
-    <row r="541" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D541" s="21"/>
-      <c r="E541" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F541" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G541" s="1"/>
-    </row>
-    <row r="542" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D542" s="21"/>
-      <c r="E542" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F542" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G542" s="1"/>
-    </row>
-    <row r="543" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D543" s="21"/>
-      <c r="E543" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F543" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G543" s="1"/>
-    </row>
-    <row r="544" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D544" s="21"/>
-      <c r="E544" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F544" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G544" s="1"/>
-    </row>
-    <row r="545" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D545" s="21"/>
-      <c r="E545" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F545" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G545" s="1"/>
-    </row>
-    <row r="546" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D546" s="21"/>
-      <c r="E546" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F546" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="G546" s="1"/>
-    </row>
-    <row r="547" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D547" s="21"/>
-      <c r="E547" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F547" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G547" s="1"/>
-    </row>
-    <row r="548" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D548" s="21"/>
-      <c r="E548" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F548" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G548" s="1"/>
-    </row>
-    <row r="549" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D549" s="21"/>
-      <c r="E549" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F549" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G549" s="1"/>
-    </row>
-    <row r="550" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D550" s="21"/>
-      <c r="E550" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F550" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G550" s="1"/>
-    </row>
-    <row r="551" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D551" s="21"/>
-      <c r="E551" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F551" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G551" s="1"/>
-    </row>
-    <row r="552" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D552" s="21"/>
-      <c r="E552" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F552" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G552" s="1"/>
-    </row>
-    <row r="553" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D553" s="21"/>
-      <c r="E553" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F553" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G553" s="1"/>
-    </row>
-    <row r="554" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D554" s="21"/>
-      <c r="E554" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F554" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G554" s="1"/>
-    </row>
-    <row r="555" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D555" s="21"/>
-      <c r="E555" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F555" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G555" s="1"/>
-    </row>
-    <row r="556" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D556" s="21"/>
-      <c r="E556" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F556" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G556" s="1"/>
-    </row>
-    <row r="557" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D557" s="21"/>
-      <c r="E557" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F557" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G557" s="1"/>
-    </row>
-    <row r="558" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D558" s="21"/>
-      <c r="E558" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F558" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G558" s="1"/>
-    </row>
-    <row r="559" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D559" s="21"/>
-      <c r="E559" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F559" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G559" s="1"/>
-    </row>
-    <row r="560" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D560" s="21"/>
-      <c r="E560" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F560" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G560" s="1"/>
-    </row>
-    <row r="561" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D561" s="21"/>
-      <c r="E561" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F561" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G561" s="1"/>
-    </row>
-    <row r="562" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D562" s="21"/>
-      <c r="E562" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F562" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G562" s="1"/>
-    </row>
-    <row r="563" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D563" s="21"/>
-      <c r="E563" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F563" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G563" s="1"/>
-    </row>
-    <row r="564" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D564" s="21"/>
-      <c r="E564" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F564" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G564" s="1"/>
-    </row>
-    <row r="565" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D565" s="21"/>
-      <c r="E565" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F565" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G565" s="1"/>
-    </row>
-    <row r="566" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D566" s="21"/>
-      <c r="E566" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F566" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G566" s="1"/>
-    </row>
-    <row r="567" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D567" s="21"/>
-      <c r="E567" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F567" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G567" s="1"/>
-    </row>
-    <row r="568" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D568" s="21"/>
-      <c r="E568" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F568" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G568" s="1"/>
-    </row>
-    <row r="569" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D569" s="21"/>
-      <c r="E569" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F569" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G569" s="1"/>
-    </row>
-    <row r="570" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D570" s="21"/>
-      <c r="E570" s="10"/>
-      <c r="F570" s="1"/>
-      <c r="G570" s="1"/>
-    </row>
-    <row r="571" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D571" s="21"/>
-      <c r="E571" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F571" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G571" s="1"/>
-    </row>
-    <row r="572" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D572" s="21"/>
-      <c r="E572" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F572" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G572" s="1"/>
-    </row>
-    <row r="573" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D573" s="21"/>
-      <c r="E573" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F573" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G573" s="1"/>
-    </row>
-    <row r="574" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D574" s="21"/>
-      <c r="E574" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F574" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G574" s="1"/>
-    </row>
-    <row r="575" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D575" s="21"/>
-      <c r="E575" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F575" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G575" s="1"/>
-    </row>
-    <row r="576" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D576" s="21"/>
-      <c r="E576" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F576" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G576" s="1"/>
-    </row>
-    <row r="577" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D577" s="21"/>
-      <c r="E577" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F577" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="G577" s="1"/>
-    </row>
-    <row r="578" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D578" s="21"/>
-      <c r="E578" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F578" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G578" s="1"/>
-    </row>
-    <row r="579" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D579" s="21"/>
-      <c r="E579" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F579" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G579" s="1"/>
-    </row>
-    <row r="580" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D580" s="21"/>
-      <c r="E580" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F580" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G580" s="1"/>
-    </row>
-    <row r="581" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D581" s="21"/>
-      <c r="E581" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F581" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G581" s="1"/>
-    </row>
-    <row r="582" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D582" s="21"/>
-      <c r="E582" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F582" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G582" s="1"/>
-    </row>
-    <row r="583" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D583" s="21"/>
-      <c r="E583" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F583" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G583" s="1"/>
-    </row>
-    <row r="584" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D584" s="21"/>
-      <c r="E584" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F584" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G584" s="1"/>
-    </row>
-    <row r="585" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D585" s="21"/>
-      <c r="E585" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F585" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G585" s="1"/>
-    </row>
-    <row r="586" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D586" s="21"/>
-      <c r="E586" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F586" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="G586" s="1"/>
-    </row>
-    <row r="587" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D587" s="21"/>
-      <c r="E587" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F587" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G587" s="1"/>
-    </row>
-    <row r="588" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D588" s="21"/>
-      <c r="E588" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F588" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G588" s="1"/>
-    </row>
-    <row r="589" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D589" s="21"/>
-      <c r="E589" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F589" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G589" s="1"/>
-    </row>
-    <row r="590" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D590" s="21"/>
-      <c r="E590" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F590" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="G590" s="1"/>
-    </row>
-    <row r="591" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D591" s="21"/>
-      <c r="E591" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F591" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G591" s="1"/>
-    </row>
-    <row r="592" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D592" s="21"/>
-      <c r="E592" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F592" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="G592" s="1"/>
-    </row>
-    <row r="593" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D593" s="21"/>
-      <c r="E593" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F593" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G593" s="1"/>
-    </row>
-    <row r="594" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D594" s="21"/>
-      <c r="E594" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F594" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G594" s="1"/>
-    </row>
-    <row r="595" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D595" s="21"/>
-      <c r="E595" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F595" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G595" s="1"/>
-    </row>
-    <row r="596" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D596" s="21"/>
-      <c r="E596" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F596" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G596" s="1"/>
-    </row>
-    <row r="597" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D597" s="21"/>
-      <c r="E597" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F597" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="G597" s="1"/>
-    </row>
-    <row r="598" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D598" s="21"/>
-      <c r="E598" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F598" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G598" s="1"/>
-    </row>
-    <row r="599" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D599" s="21"/>
-      <c r="E599" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F599" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G599" s="1"/>
-    </row>
-    <row r="600" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D600" s="21"/>
-      <c r="E600" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F600" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G600" s="1"/>
-    </row>
-    <row r="601" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D601" s="21"/>
-      <c r="E601" s="7"/>
-      <c r="F601" s="1"/>
-      <c r="G601" s="1"/>
-    </row>
-    <row r="602" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D602" s="21"/>
-      <c r="E602" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F602" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G602" s="1"/>
-    </row>
-    <row r="603" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D603" s="21"/>
-      <c r="E603" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F603" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G603" s="1"/>
-    </row>
-    <row r="604" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D604" s="21"/>
-      <c r="E604" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F604" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G604" s="1"/>
-    </row>
-    <row r="605" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D605" s="21"/>
-      <c r="E605" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F605" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G605" s="1"/>
-    </row>
-    <row r="606" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D606" s="21"/>
-      <c r="E606" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F606" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G606" s="1"/>
-    </row>
-    <row r="607" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D607" s="21"/>
-      <c r="E607" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F607" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G607" s="1"/>
-    </row>
-    <row r="608" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D608" s="21"/>
-      <c r="E608" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F608" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="G608" s="1"/>
-    </row>
-    <row r="609" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D609" s="21"/>
-      <c r="E609" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F609" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G609" s="1"/>
-    </row>
-    <row r="610" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D610" s="21"/>
-      <c r="E610" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F610" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G610" s="1"/>
-    </row>
-    <row r="611" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D611" s="21"/>
-      <c r="E611" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F611" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G611" s="1"/>
-    </row>
-    <row r="612" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D612" s="21"/>
-      <c r="E612" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F612" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G612" s="1"/>
-    </row>
-    <row r="613" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D613" s="21"/>
-      <c r="E613" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F613" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G613" s="1"/>
-    </row>
-    <row r="614" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D614" s="21"/>
-      <c r="E614" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F614" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G614" s="1"/>
-    </row>
-    <row r="615" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D615" s="21"/>
-      <c r="E615" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F615" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="G615" s="1"/>
-    </row>
-    <row r="616" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D616" s="21"/>
-      <c r="E616" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F616" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G616" s="1"/>
-    </row>
-    <row r="617" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D617" s="21"/>
-      <c r="E617" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F617" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G617" s="1"/>
-    </row>
-    <row r="618" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D618" s="21"/>
-      <c r="E618" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F618" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G618" s="1"/>
-    </row>
-    <row r="619" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D619" s="21"/>
-      <c r="E619" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F619" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G619" s="1"/>
-    </row>
-    <row r="620" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D620" s="21"/>
-      <c r="E620" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F620" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G620" s="1"/>
-    </row>
-    <row r="621" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D621" s="21"/>
-      <c r="E621" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F621" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G621" s="1"/>
-    </row>
-    <row r="622" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D622" s="21"/>
-      <c r="E622" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F622" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G622" s="1"/>
-    </row>
-    <row r="623" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D623" s="21"/>
-      <c r="E623" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F623" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G623" s="1"/>
-    </row>
-    <row r="624" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D624" s="21"/>
-      <c r="E624" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F624" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G624" s="1"/>
-    </row>
-    <row r="625" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D625" s="21"/>
-      <c r="E625" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F625" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G625" s="1"/>
-    </row>
-    <row r="626" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D626" s="21"/>
-      <c r="E626" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F626" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="G626" s="1"/>
-    </row>
-    <row r="627" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D627" s="21"/>
-      <c r="E627" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F627" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="G627" s="1"/>
-    </row>
-    <row r="628" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D628" s="21"/>
-      <c r="E628" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F628" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G628" s="1"/>
-    </row>
-    <row r="629" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D629" s="21"/>
-      <c r="E629" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F629" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G629" s="1"/>
-    </row>
-    <row r="630" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D630" s="21"/>
-      <c r="E630" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F630" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G630" s="1"/>
-    </row>
-    <row r="631" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D631" s="21"/>
-      <c r="E631" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F631" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G631" s="1"/>
-    </row>
-    <row r="632" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D632" s="21"/>
-      <c r="E632" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F632" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="G632" s="1"/>
-    </row>
-    <row r="633" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D633" s="21"/>
-      <c r="E633" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F633" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="G633" s="1"/>
-    </row>
-    <row r="634" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D634" s="21"/>
-      <c r="E634" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F634" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="G634" s="1"/>
-    </row>
-    <row r="635" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D635" s="21"/>
-      <c r="E635" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F635" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="G635" s="1"/>
-    </row>
-    <row r="636" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D636" s="21"/>
-      <c r="E636" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F636" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="G636" s="1"/>
-    </row>
-    <row r="637" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D637" s="21"/>
-      <c r="E637" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F637" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="G637" s="1"/>
-    </row>
-    <row r="638" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D638" s="21"/>
-      <c r="E638" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F638" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="G638" s="1"/>
-    </row>
-    <row r="639" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D639" s="21"/>
-      <c r="E639" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F639" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="G639" s="1"/>
-    </row>
-    <row r="640" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D640" s="21"/>
-      <c r="E640" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F640" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="G640" s="1"/>
-    </row>
-    <row r="641" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D641" s="21"/>
-      <c r="E641" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F641" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="G641" s="1"/>
-    </row>
-    <row r="642" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D642" s="21"/>
-      <c r="E642" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F642" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="G642" s="1"/>
-    </row>
-    <row r="643" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D643" s="22"/>
-      <c r="E643" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F643" s="12" t="s">
-        <v>799</v>
-      </c>
-      <c r="G643" s="1"/>
-    </row>
-    <row r="644" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D644" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E644" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F644" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G644" s="1"/>
-    </row>
-    <row r="645" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D645" s="21"/>
-      <c r="E645" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F645" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G645" s="1"/>
-    </row>
-    <row r="646" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D646" s="21"/>
-      <c r="E646" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F646" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G646" s="1"/>
-    </row>
-    <row r="647" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D647" s="21"/>
-      <c r="E647" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F647" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G647" s="1"/>
-    </row>
-    <row r="648" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D648" s="21"/>
-      <c r="E648" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F648" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G648" s="1"/>
-    </row>
-    <row r="649" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D649" s="21"/>
-      <c r="E649" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F649" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G649" s="1"/>
-    </row>
-    <row r="650" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D650" s="21"/>
-      <c r="E650" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F650" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G650" s="1"/>
-    </row>
-    <row r="651" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D651" s="21"/>
-      <c r="E651" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F651" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G651" s="1"/>
-    </row>
-    <row r="652" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D652" s="21"/>
-      <c r="E652" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F652" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G652" s="1"/>
-    </row>
-    <row r="653" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D653" s="21"/>
-      <c r="E653" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F653" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G653" s="1"/>
-    </row>
-    <row r="654" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D654" s="21"/>
-      <c r="E654" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F654" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G654" s="1"/>
-    </row>
-    <row r="655" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D655" s="21"/>
-      <c r="E655" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F655" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G655" s="1"/>
-    </row>
-    <row r="656" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D656" s="21"/>
-      <c r="E656" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F656" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="G656" s="1"/>
-    </row>
-    <row r="657" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D657" s="21"/>
-      <c r="E657" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F657" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G657" s="1"/>
-    </row>
-    <row r="658" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D658" s="21"/>
-      <c r="E658" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F658" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G658" s="1"/>
-    </row>
-    <row r="659" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D659" s="21"/>
-      <c r="E659" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F659" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G659" s="1"/>
-    </row>
-    <row r="660" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D660" s="21"/>
-      <c r="E660" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F660" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G660" s="1"/>
-    </row>
-    <row r="661" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D661" s="21"/>
-      <c r="E661" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F661" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G661" s="1"/>
-    </row>
-    <row r="662" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D662" s="21"/>
-      <c r="E662" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F662" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G662" s="1"/>
-    </row>
-    <row r="663" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D663" s="21"/>
-      <c r="E663" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F663" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G663" s="1"/>
-    </row>
-    <row r="664" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D664" s="21"/>
-      <c r="E664" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F664" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G664" s="1"/>
-    </row>
-    <row r="665" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D665" s="21"/>
-      <c r="E665" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F665" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G665" s="1"/>
-    </row>
-    <row r="666" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D666" s="21"/>
-      <c r="E666" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F666" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G666" s="1"/>
-    </row>
-    <row r="667" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D667" s="21"/>
-      <c r="E667" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F667" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G667" s="1"/>
-    </row>
-    <row r="668" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D668" s="21"/>
-      <c r="E668" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F668" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G668" s="1"/>
-    </row>
-    <row r="669" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D669" s="21"/>
-      <c r="E669" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F669" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G669" s="1"/>
-    </row>
-    <row r="670" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D670" s="21"/>
-      <c r="E670" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F670" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G670" s="1"/>
-    </row>
-    <row r="671" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D671" s="21"/>
-      <c r="E671" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F671" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G671" s="1"/>
-    </row>
-    <row r="672" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D672" s="21"/>
-      <c r="E672" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F672" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G672" s="1"/>
-    </row>
-    <row r="673" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D673" s="21"/>
-      <c r="E673" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F673" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G673" s="1"/>
-    </row>
-    <row r="674" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D674" s="21"/>
-      <c r="E674" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F674" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="G674" s="1"/>
-    </row>
-    <row r="675" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D675" s="21"/>
-      <c r="E675" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F675" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G675" s="1"/>
-    </row>
-    <row r="676" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D676" s="21"/>
-      <c r="E676" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F676" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G676" s="1"/>
-    </row>
-    <row r="677" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D677" s="21"/>
-      <c r="E677" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F677" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G677" s="1"/>
-    </row>
-    <row r="678" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D678" s="21"/>
-      <c r="E678" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F678" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G678" s="1"/>
-    </row>
-    <row r="679" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D679" s="21"/>
-      <c r="E679" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F679" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G679" s="1"/>
-    </row>
-    <row r="680" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D680" s="21"/>
-      <c r="E680" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F680" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G680" s="1"/>
-    </row>
-    <row r="681" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D681" s="21"/>
-      <c r="E681" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F681" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G681" s="1"/>
-    </row>
-    <row r="682" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D682" s="21"/>
-      <c r="E682" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F682" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G682" s="1"/>
-    </row>
-    <row r="683" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D683" s="21"/>
-      <c r="E683" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F683" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G683" s="1"/>
-    </row>
-    <row r="684" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D684" s="21"/>
-      <c r="E684" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F684" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G684" s="1"/>
-    </row>
-    <row r="685" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D685" s="21"/>
-      <c r="E685" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F685" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G685" s="1"/>
-    </row>
-    <row r="686" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D686" s="21"/>
-      <c r="E686" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F686" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G686" s="1"/>
-    </row>
-    <row r="687" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D687" s="21"/>
-      <c r="E687" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F687" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G687" s="1"/>
-    </row>
-    <row r="688" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D688" s="21"/>
-      <c r="E688" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F688" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G688" s="1"/>
-    </row>
-    <row r="689" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D689" s="21"/>
-      <c r="E689" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F689" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G689" s="1"/>
-    </row>
-    <row r="690" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D690" s="21"/>
-      <c r="E690" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F690" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G690" s="1"/>
-    </row>
-    <row r="691" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D691" s="21"/>
-      <c r="E691" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F691" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G691" s="1"/>
-    </row>
-    <row r="692" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D692" s="21"/>
-      <c r="E692" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F692" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="G692" s="1"/>
-    </row>
-    <row r="693" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D693" s="21"/>
-      <c r="E693" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F693" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G693" s="1"/>
-    </row>
-    <row r="694" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D694" s="21"/>
-      <c r="E694" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F694" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G694" s="1"/>
-    </row>
-    <row r="695" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D695" s="21"/>
-      <c r="E695" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F695" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G695" s="1"/>
-    </row>
-    <row r="696" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D696" s="21"/>
-      <c r="E696" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F696" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G696" s="1"/>
-    </row>
-    <row r="697" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D697" s="22"/>
-      <c r="E697" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F697" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G697" s="1"/>
-    </row>
-    <row r="698" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D698" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E698" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F698" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G698" s="1" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="699" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D699" s="21"/>
-      <c r="E699" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F699" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G699" s="1" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="700" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D700" s="21"/>
-      <c r="E700" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F700" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G700" s="1"/>
-    </row>
-    <row r="701" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D701" s="21"/>
-      <c r="E701" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F701" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G701" s="1"/>
-    </row>
-    <row r="702" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D702" s="21"/>
-      <c r="E702" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F702" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G702" s="1"/>
-    </row>
-    <row r="703" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D703" s="21"/>
-      <c r="E703" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F703" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G703" s="1"/>
-    </row>
-    <row r="704" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D704" s="21"/>
-      <c r="E704" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F704" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G704" s="1"/>
-    </row>
-    <row r="705" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D705" s="21"/>
-      <c r="E705" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F705" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G705" s="1"/>
-    </row>
-    <row r="706" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D706" s="21"/>
-      <c r="E706" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F706" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G706" s="1"/>
-    </row>
-    <row r="707" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D707" s="21"/>
-      <c r="E707" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F707" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G707" s="1"/>
-    </row>
-    <row r="708" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D708" s="21"/>
-      <c r="E708" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F708" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G708" s="1"/>
-    </row>
-    <row r="709" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D709" s="21"/>
-      <c r="E709" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F709" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G709" s="1"/>
-    </row>
-    <row r="710" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D710" s="21"/>
-      <c r="E710" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F710" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G710" s="1"/>
-    </row>
-    <row r="711" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D711" s="21"/>
-      <c r="E711" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F711" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G711" s="1"/>
-    </row>
-    <row r="712" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D712" s="21"/>
-      <c r="E712" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F712" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G712" s="1"/>
-    </row>
-    <row r="713" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D713" s="21"/>
-      <c r="E713" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F713" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G713" s="1"/>
-    </row>
-    <row r="714" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D714" s="21"/>
-      <c r="E714" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F714" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G714" s="1"/>
-    </row>
-    <row r="715" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D715" s="21"/>
-      <c r="E715" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F715" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G715" s="1"/>
-    </row>
-    <row r="716" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D716" s="21"/>
-      <c r="E716" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F716" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G716" s="1"/>
-    </row>
-    <row r="717" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D717" s="21"/>
-      <c r="E717" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F717" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G717" s="1"/>
-    </row>
-    <row r="718" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D718" s="21"/>
-      <c r="E718" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F718" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G718" s="1"/>
-    </row>
-    <row r="719" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D719" s="22"/>
-      <c r="E719" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F719" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G719" s="1"/>
-    </row>
-    <row r="720" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D720" s="1"/>
-      <c r="E720" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F720" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G720" s="1"/>
-    </row>
-    <row r="721" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D721" s="1"/>
-      <c r="E721" s="7"/>
-      <c r="F721" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G721" s="1"/>
-    </row>
-    <row r="722" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D722" s="1"/>
-      <c r="E722" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F722" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G722" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="723" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D723" s="1"/>
-      <c r="E723" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F723" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G723" s="1"/>
-    </row>
-    <row r="724" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D724" s="1"/>
-      <c r="E724" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F724" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G724" s="1"/>
-    </row>
-    <row r="725" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D725" s="1"/>
-      <c r="E725" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F725" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="G725" s="1"/>
-    </row>
-    <row r="726" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D726" s="1"/>
-      <c r="E726" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F726" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G726" s="1"/>
-    </row>
-    <row r="727" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D727" s="1"/>
-      <c r="E727" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F727" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G727" s="1"/>
-    </row>
-    <row r="728" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D728" s="1"/>
-      <c r="E728" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F728" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G728" s="1"/>
-    </row>
-    <row r="729" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D729" s="1"/>
-      <c r="E729" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F729" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G729" s="1"/>
-    </row>
-    <row r="730" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D730" s="1"/>
-      <c r="E730" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F730" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G730" s="1"/>
-    </row>
-    <row r="731" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D731" s="1"/>
-      <c r="E731" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F731" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G731" s="1"/>
-    </row>
-    <row r="732" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D732" s="1"/>
-      <c r="E732" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F732" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G732" s="1"/>
-    </row>
-    <row r="733" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D733" s="1"/>
-      <c r="E733" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F733" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G733" s="1"/>
-    </row>
-    <row r="734" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D734" s="1"/>
-      <c r="E734" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F734" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G734" s="1"/>
-    </row>
-    <row r="735" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D735" s="1"/>
-      <c r="E735" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F735" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="G735" s="1"/>
-    </row>
-    <row r="736" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D736" s="1"/>
-      <c r="E736" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F736" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G736" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="D174:D277"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D3:D49"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D157"/>
-    <mergeCell ref="D158:D173"/>
-    <mergeCell ref="D524:D539"/>
-    <mergeCell ref="D540:D643"/>
-    <mergeCell ref="D644:D697"/>
-    <mergeCell ref="D698:D719"/>
-    <mergeCell ref="D278:D331"/>
-    <mergeCell ref="D332:D353"/>
-    <mergeCell ref="D371:G371"/>
-    <mergeCell ref="D373:D415"/>
-    <mergeCell ref="D416:D425"/>
-    <mergeCell ref="D426:D523"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G44" r:id="rId1" xr:uid="{249BC4C0-3423-4E91-A0D7-112396468B55}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC48D60B-A2DA-4B33-8870-4BC720D13BF5}">
   <dimension ref="A1:D370"/>
   <sheetViews>
@@ -24754,12 +17182,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3BCC8-1641-433F-8FC0-0BC9EA113D75}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30F9C19-6575-4C70-9947-759B460C6779}">
   <dimension ref="A2:D391"/>
   <sheetViews>
-    <sheetView topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D367"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33031,7 +25471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CD239B-6B74-4B72-B9C6-5C6171EEBF96}">
   <dimension ref="A2:D391"/>
   <sheetViews>
-    <sheetView topLeftCell="A364" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InsuranceNowAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FA2021-774D-44F4-AF9E-28CD6115FF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1B791A-BA3A-49D4-BC2D-E09CB4A9A787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="14" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
@@ -20908,12 +20908,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D174:D277"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D3:D49"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D157"/>
-    <mergeCell ref="D158:D173"/>
     <mergeCell ref="D524:D539"/>
     <mergeCell ref="D540:D643"/>
     <mergeCell ref="D644:D697"/>
@@ -20924,6 +20918,12 @@
     <mergeCell ref="D373:D415"/>
     <mergeCell ref="D416:D425"/>
     <mergeCell ref="D426:D523"/>
+    <mergeCell ref="D174:D277"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D3:D49"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D157"/>
+    <mergeCell ref="D158:D173"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G44" r:id="rId1" xr:uid="{249BC4C0-3423-4E91-A0D7-112396468B55}"/>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\InsuranceNowAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8279C828-21CC-4DAC-A27D-D80D40A8B91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E32F72E-BC20-4C69-B34A-D2A7EFE1A7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="9" activeTab="13" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="8" activeTab="13" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NewBussines" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4642" uniqueCount="1590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4662" uniqueCount="1601">
   <si>
     <t>NewBussines</t>
   </si>
@@ -4822,6 +4822,39 @@
   </si>
   <si>
     <t>newBusinessHastheinsuredoperatedanuninsuredmotorvehicleformorethan30daysinthepast12months</t>
+  </si>
+  <si>
+    <t>ExistingCustomer</t>
+  </si>
+  <si>
+    <t>existingCustomerSearchBy</t>
+  </si>
+  <si>
+    <t>existingCustomerSearchText</t>
+  </si>
+  <si>
+    <t>existingCustomerEffectiveDt</t>
+  </si>
+  <si>
+    <t>existingCustomerControllingStateCd</t>
+  </si>
+  <si>
+    <t>existingCustomerProgramType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas </t>
+  </si>
+  <si>
+    <t>09/02/2023</t>
+  </si>
+  <si>
+    <t>MALGA</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>NewBusiness_ExistingCustomer</t>
   </si>
 </sst>
 </file>
@@ -4890,7 +4923,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -4974,12 +5007,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5040,6 +5189,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9541,10 +9710,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA4E5AA-688C-484A-99F1-9AC8F41EC26C}">
-  <dimension ref="A1:D371"/>
+  <dimension ref="A1:D379"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="C375" sqref="C375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13357,8 +13526,92 @@
       </c>
       <c r="D371" s="1"/>
     </row>
+    <row r="372" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="373" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="28" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B373" s="29"/>
+      <c r="C373" s="29"/>
+      <c r="D373" s="30"/>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D374" s="39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="31"/>
+      <c r="B375" s="32" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C375" s="32" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D375" s="33" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="31"/>
+      <c r="B376" s="32" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C376" s="32" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D376" s="33" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="31"/>
+      <c r="B377" s="32" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C377" s="32" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D377" s="34" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="31"/>
+      <c r="B378" s="32" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C378" s="32" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D378" s="33" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="35"/>
+      <c r="B379" s="36" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C379" s="36" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D379" s="37" t="s">
+        <v>1537</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A373:D373"/>
     <mergeCell ref="A279:A332"/>
     <mergeCell ref="A333:A354"/>
     <mergeCell ref="A1:D1"/>
@@ -25499,7 +25752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CD239B-6B74-4B72-B9C6-5C6171EEBF96}">
   <dimension ref="A2:D391"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InsuranceNowAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INOW Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1B791A-BA3A-49D4-BC2D-E09CB4A9A787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1143EB-6BF3-463C-842B-E0EF74E4A8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="14" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="17" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NewBussines" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,11 @@
     <sheet name="Place on Hold " sheetId="21" r:id="rId11"/>
     <sheet name="Reinstatement" sheetId="26" r:id="rId12"/>
     <sheet name="Credentials" sheetId="27" r:id="rId13"/>
-    <sheet name="TS_01" sheetId="25" r:id="rId14"/>
-    <sheet name="TS_02" sheetId="28" r:id="rId15"/>
-    <sheet name="TS_03" sheetId="29" r:id="rId16"/>
+    <sheet name="Payment Screen" sheetId="30" r:id="rId14"/>
+    <sheet name="Batch Job" sheetId="31" r:id="rId15"/>
+    <sheet name="TS_01" sheetId="25" r:id="rId16"/>
+    <sheet name="TS_02" sheetId="28" r:id="rId17"/>
+    <sheet name="TS_03" sheetId="29" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6169" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6332" uniqueCount="1640">
   <si>
     <t>NewBussines</t>
   </si>
@@ -4872,12 +4874,114 @@
   </si>
   <si>
     <t>Producer007</t>
+  </si>
+  <si>
+    <t>Payment Screen</t>
+  </si>
+  <si>
+    <t>paymentScreenPolicyNumber</t>
+  </si>
+  <si>
+    <t>paymentScreenNewACH</t>
+  </si>
+  <si>
+    <t>paymentScreenPremiumAmount</t>
+  </si>
+  <si>
+    <t>paymentScreenTotalAmount</t>
+  </si>
+  <si>
+    <t>paymentScreenAreyouchargingadditionalfees</t>
+  </si>
+  <si>
+    <t>paymentScreenBankAccountEntryType</t>
+  </si>
+  <si>
+    <t>paymentScreenBankAccountType</t>
+  </si>
+  <si>
+    <t>paymentScreenAccountNumber</t>
+  </si>
+  <si>
+    <t>paymentScreenRoutingNumber</t>
+  </si>
+  <si>
+    <t>paymentScreenName</t>
+  </si>
+  <si>
+    <t>Batch Job</t>
+  </si>
+  <si>
+    <t>batchJobRunDate</t>
+  </si>
+  <si>
+    <t>batchJobInceptionDate</t>
+  </si>
+  <si>
+    <t>batchJobBatchNumberofDaystoKeep</t>
+  </si>
+  <si>
+    <t>batchJobCancelledNumberofDaystoKeep</t>
+  </si>
+  <si>
+    <t>batchJobCurrentDate</t>
+  </si>
+  <si>
+    <t>batchJobACHProcessFile</t>
+  </si>
+  <si>
+    <t>batchJobACHExceptionFile</t>
+  </si>
+  <si>
+    <t>batchJobACHExceptionBackupFile</t>
+  </si>
+  <si>
+    <t>batchJobPolicyDisplayNumber</t>
+  </si>
+  <si>
+    <t>batchJobAccountDisplayNumber</t>
+  </si>
+  <si>
+    <t>batchJobStatementAccountDisplayNumber</t>
+  </si>
+  <si>
+    <t>batchJobPrinter</t>
+  </si>
+  <si>
+    <t>09/23/2023</t>
+  </si>
+  <si>
+    <t>Insured</t>
+  </si>
+  <si>
+    <t>Cancellation Notice Transaction</t>
+  </si>
+  <si>
+    <t>PA0000033-01</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>1623069645</t>
+  </si>
+  <si>
+    <t>011000015</t>
+  </si>
+  <si>
+    <t>229</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5029,7 +5133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5090,6 +5194,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9590,11 +9696,353 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25669590-88D2-4F4F-8934-985716F6C737}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7A5F1C-5DD4-479C-9560-FD8D81F4A536}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA4E5AA-688C-484A-99F1-9AC8F41EC26C}">
   <dimension ref="A1:D370"/>
   <sheetViews>
-    <sheetView topLeftCell="A353" workbookViewId="0">
-      <selection sqref="A1:D370"/>
+    <sheetView topLeftCell="A365" workbookViewId="0">
+      <selection activeCell="A371" sqref="A371:D371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13414,11 +13862,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3BCC8-1641-433F-8FC0-0BC9EA113D75}">
   <dimension ref="D1:G736"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -20908,6 +21356,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D174:D277"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D3:D49"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D157"/>
+    <mergeCell ref="D158:D173"/>
     <mergeCell ref="D524:D539"/>
     <mergeCell ref="D540:D643"/>
     <mergeCell ref="D644:D697"/>
@@ -20918,12 +21372,6 @@
     <mergeCell ref="D373:D415"/>
     <mergeCell ref="D416:D425"/>
     <mergeCell ref="D426:D523"/>
-    <mergeCell ref="D174:D277"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D3:D49"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D157"/>
-    <mergeCell ref="D158:D173"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G44" r:id="rId1" xr:uid="{249BC4C0-3423-4E91-A0D7-112396468B55}"/>
@@ -20932,12 +21380,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC48D60B-A2DA-4B33-8870-4BC720D13BF5}">
-  <dimension ref="A1:D370"/>
+  <dimension ref="A1:D416"/>
   <sheetViews>
-    <sheetView topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="C300" sqref="C300"/>
+    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
+      <selection activeCell="E401" sqref="E401:E402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20945,7 +21393,7 @@
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -24736,8 +25184,506 @@
       </c>
       <c r="D370" s="1"/>
     </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B371" s="26"/>
+      <c r="C371" s="26"/>
+      <c r="D371" s="26"/>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="1"/>
+      <c r="B373" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="1"/>
+      <c r="B374" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D374" s="17" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="1"/>
+      <c r="B375" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="1"/>
+      <c r="B376" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D376" s="1"/>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="1"/>
+      <c r="B377" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D377" s="1"/>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="1"/>
+      <c r="B378" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D378" s="1"/>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="1"/>
+      <c r="B379" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D379" s="1"/>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="1"/>
+      <c r="B380" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="B381" s="26"/>
+      <c r="C381" s="26"/>
+      <c r="D381" s="26"/>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="1"/>
+      <c r="B383" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D383" s="1"/>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="1"/>
+      <c r="B384" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D384" s="1"/>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="1"/>
+      <c r="B385" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D385" s="1"/>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="1"/>
+      <c r="B386" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D386" s="1"/>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="1"/>
+      <c r="B387" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D387" s="1"/>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="1"/>
+      <c r="B388" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D388" s="1"/>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="1"/>
+      <c r="B389" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D389" s="1"/>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="1"/>
+      <c r="B390" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D390" s="1"/>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="26" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B391" s="26"/>
+      <c r="C391" s="26"/>
+      <c r="D391" s="26"/>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="1"/>
+      <c r="B393" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D393" s="28" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="1"/>
+      <c r="B394" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D394" s="1"/>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="1"/>
+      <c r="B395" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D395" s="29" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="1"/>
+      <c r="B396" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D396" s="29" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="1"/>
+      <c r="B397" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="1"/>
+      <c r="B398" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="1"/>
+      <c r="B399" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="1"/>
+      <c r="B400" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D400" s="17" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="1"/>
+      <c r="B401" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D401" s="17" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="1"/>
+      <c r="B402" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="26" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B403" s="26"/>
+      <c r="C403" s="26"/>
+      <c r="D403" s="26"/>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="1"/>
+      <c r="B405" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D405" s="1"/>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="1"/>
+      <c r="B406" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D406" s="1"/>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="1"/>
+      <c r="B407" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D407" s="1"/>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="1"/>
+      <c r="B408" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D408" s="1"/>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="1"/>
+      <c r="B409" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D409" s="1"/>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="1"/>
+      <c r="B410" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D410" s="1"/>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="1"/>
+      <c r="B411" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D411" s="1"/>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="1"/>
+      <c r="B412" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D412" s="1"/>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="1"/>
+      <c r="B413" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D413" s="1"/>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="1"/>
+      <c r="B414" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D414" s="1"/>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="1"/>
+      <c r="B415" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D415" s="1"/>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="1"/>
+      <c r="B416" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D416" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="A371:D371"/>
+    <mergeCell ref="A381:D381"/>
+    <mergeCell ref="A391:D391"/>
+    <mergeCell ref="A403:D403"/>
     <mergeCell ref="A278:A331"/>
     <mergeCell ref="A332:A353"/>
     <mergeCell ref="A1:D1"/>
@@ -32536,7 +33482,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INOW Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InsuranceNowAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1143EB-6BF3-463C-842B-E0EF74E4A8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1B791A-BA3A-49D4-BC2D-E09CB4A9A787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="17" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="14" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NewBussines" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,9 @@
     <sheet name="Place on Hold " sheetId="21" r:id="rId11"/>
     <sheet name="Reinstatement" sheetId="26" r:id="rId12"/>
     <sheet name="Credentials" sheetId="27" r:id="rId13"/>
-    <sheet name="Payment Screen" sheetId="30" r:id="rId14"/>
-    <sheet name="Batch Job" sheetId="31" r:id="rId15"/>
-    <sheet name="TS_01" sheetId="25" r:id="rId16"/>
-    <sheet name="TS_02" sheetId="28" r:id="rId17"/>
-    <sheet name="TS_03" sheetId="29" r:id="rId18"/>
+    <sheet name="TS_01" sheetId="25" r:id="rId14"/>
+    <sheet name="TS_02" sheetId="28" r:id="rId15"/>
+    <sheet name="TS_03" sheetId="29" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6332" uniqueCount="1640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6169" uniqueCount="1607">
   <si>
     <t>NewBussines</t>
   </si>
@@ -4874,114 +4872,12 @@
   </si>
   <si>
     <t>Producer007</t>
-  </si>
-  <si>
-    <t>Payment Screen</t>
-  </si>
-  <si>
-    <t>paymentScreenPolicyNumber</t>
-  </si>
-  <si>
-    <t>paymentScreenNewACH</t>
-  </si>
-  <si>
-    <t>paymentScreenPremiumAmount</t>
-  </si>
-  <si>
-    <t>paymentScreenTotalAmount</t>
-  </si>
-  <si>
-    <t>paymentScreenAreyouchargingadditionalfees</t>
-  </si>
-  <si>
-    <t>paymentScreenBankAccountEntryType</t>
-  </si>
-  <si>
-    <t>paymentScreenBankAccountType</t>
-  </si>
-  <si>
-    <t>paymentScreenAccountNumber</t>
-  </si>
-  <si>
-    <t>paymentScreenRoutingNumber</t>
-  </si>
-  <si>
-    <t>paymentScreenName</t>
-  </si>
-  <si>
-    <t>Batch Job</t>
-  </si>
-  <si>
-    <t>batchJobRunDate</t>
-  </si>
-  <si>
-    <t>batchJobInceptionDate</t>
-  </si>
-  <si>
-    <t>batchJobBatchNumberofDaystoKeep</t>
-  </si>
-  <si>
-    <t>batchJobCancelledNumberofDaystoKeep</t>
-  </si>
-  <si>
-    <t>batchJobCurrentDate</t>
-  </si>
-  <si>
-    <t>batchJobACHProcessFile</t>
-  </si>
-  <si>
-    <t>batchJobACHExceptionFile</t>
-  </si>
-  <si>
-    <t>batchJobACHExceptionBackupFile</t>
-  </si>
-  <si>
-    <t>batchJobPolicyDisplayNumber</t>
-  </si>
-  <si>
-    <t>batchJobAccountDisplayNumber</t>
-  </si>
-  <si>
-    <t>batchJobStatementAccountDisplayNumber</t>
-  </si>
-  <si>
-    <t>batchJobPrinter</t>
-  </si>
-  <si>
-    <t>09/23/2023</t>
-  </si>
-  <si>
-    <t>Insured</t>
-  </si>
-  <si>
-    <t>Cancellation Notice Transaction</t>
-  </si>
-  <si>
-    <t>PA0000033-01</t>
-  </si>
-  <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>Savings</t>
-  </si>
-  <si>
-    <t>1623069645</t>
-  </si>
-  <si>
-    <t>011000015</t>
-  </si>
-  <si>
-    <t>229</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5133,7 +5029,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5194,8 +5090,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9696,353 +9590,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25669590-88D2-4F4F-8934-985716F6C737}">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>1607</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1610</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1614</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1616</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1617</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7A5F1C-5DD4-479C-9560-FD8D81F4A536}">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>1618</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1619</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1620</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1621</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1626</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1627</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA4E5AA-688C-484A-99F1-9AC8F41EC26C}">
   <dimension ref="A1:D370"/>
   <sheetViews>
-    <sheetView topLeftCell="A365" workbookViewId="0">
-      <selection activeCell="A371" sqref="A371:D371"/>
+    <sheetView topLeftCell="A353" workbookViewId="0">
+      <selection sqref="A1:D370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13862,11 +13414,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3BCC8-1641-433F-8FC0-0BC9EA113D75}">
   <dimension ref="D1:G736"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -21356,12 +20908,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D174:D277"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D3:D49"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D157"/>
-    <mergeCell ref="D158:D173"/>
     <mergeCell ref="D524:D539"/>
     <mergeCell ref="D540:D643"/>
     <mergeCell ref="D644:D697"/>
@@ -21372,6 +20918,12 @@
     <mergeCell ref="D373:D415"/>
     <mergeCell ref="D416:D425"/>
     <mergeCell ref="D426:D523"/>
+    <mergeCell ref="D174:D277"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D3:D49"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D157"/>
+    <mergeCell ref="D158:D173"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G44" r:id="rId1" xr:uid="{249BC4C0-3423-4E91-A0D7-112396468B55}"/>
@@ -21380,12 +20932,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC48D60B-A2DA-4B33-8870-4BC720D13BF5}">
-  <dimension ref="A1:D416"/>
+  <dimension ref="A1:D370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="E401" sqref="E401:E402"/>
+    <sheetView topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="C300" sqref="C300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21393,7 +20945,7 @@
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -25184,506 +24736,8 @@
       </c>
       <c r="D370" s="1"/>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="B371" s="26"/>
-      <c r="C371" s="26"/>
-      <c r="D371" s="26"/>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D372" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" s="1"/>
-      <c r="B373" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C373" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" s="1"/>
-      <c r="B374" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C374" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D374" s="17" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" s="1"/>
-      <c r="B375" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C375" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D375" s="1" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376" s="1"/>
-      <c r="B376" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C376" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D376" s="1"/>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377" s="1"/>
-      <c r="B377" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C377" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D377" s="1"/>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378" s="1"/>
-      <c r="B378" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C378" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D378" s="1"/>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379" s="1"/>
-      <c r="B379" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C379" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D379" s="1"/>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380" s="1"/>
-      <c r="B380" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C380" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D380" s="1" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="B381" s="26"/>
-      <c r="C381" s="26"/>
-      <c r="D381" s="26"/>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D382" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383" s="1"/>
-      <c r="B383" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="C383" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D383" s="1"/>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" s="1"/>
-      <c r="B384" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D384" s="1"/>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="1"/>
-      <c r="B385" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D385" s="1"/>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="1"/>
-      <c r="B386" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D386" s="1"/>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="1"/>
-      <c r="B387" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D387" s="1"/>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" s="1"/>
-      <c r="B388" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D388" s="1"/>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" s="1"/>
-      <c r="B389" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D389" s="1"/>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" s="1"/>
-      <c r="B390" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D390" s="1"/>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="26" t="s">
-        <v>1607</v>
-      </c>
-      <c r="B391" s="26"/>
-      <c r="C391" s="26"/>
-      <c r="D391" s="26"/>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D392" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" s="1"/>
-      <c r="B393" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D393" s="28" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" s="1"/>
-      <c r="B394" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D394" s="1"/>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="1"/>
-      <c r="B395" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>1610</v>
-      </c>
-      <c r="D395" s="29" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="1"/>
-      <c r="B396" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C396" s="1" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D396" s="29" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="1"/>
-      <c r="B397" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C397" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="D397" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="1"/>
-      <c r="B398" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D398" s="1" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="1"/>
-      <c r="B399" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C399" s="1" t="s">
-        <v>1614</v>
-      </c>
-      <c r="D399" s="1" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="1"/>
-      <c r="B400" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C400" s="1" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D400" s="17" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401" s="1"/>
-      <c r="B401" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>1616</v>
-      </c>
-      <c r="D401" s="17" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402" s="1"/>
-      <c r="B402" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>1617</v>
-      </c>
-      <c r="D402" s="1" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" s="26" t="s">
-        <v>1618</v>
-      </c>
-      <c r="B403" s="26"/>
-      <c r="C403" s="26"/>
-      <c r="D403" s="26"/>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C404" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D404" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405" s="1"/>
-      <c r="B405" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C405" s="1" t="s">
-        <v>1619</v>
-      </c>
-      <c r="D405" s="1"/>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" s="1"/>
-      <c r="B406" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>1620</v>
-      </c>
-      <c r="D406" s="1"/>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" s="1"/>
-      <c r="B407" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>1621</v>
-      </c>
-      <c r="D407" s="1"/>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408" s="1"/>
-      <c r="B408" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D408" s="1"/>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409" s="1"/>
-      <c r="B409" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D409" s="1"/>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410" s="1"/>
-      <c r="B410" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D410" s="1"/>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411" s="1"/>
-      <c r="B411" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D411" s="1"/>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412" s="1"/>
-      <c r="B412" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>1626</v>
-      </c>
-      <c r="D412" s="1"/>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413" s="1"/>
-      <c r="B413" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C413" s="1" t="s">
-        <v>1627</v>
-      </c>
-      <c r="D413" s="1"/>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414" s="1"/>
-      <c r="B414" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D414" s="1"/>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415" s="1"/>
-      <c r="B415" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D415" s="1"/>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A416" s="1"/>
-      <c r="B416" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D416" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A371:D371"/>
-    <mergeCell ref="A381:D381"/>
-    <mergeCell ref="A391:D391"/>
-    <mergeCell ref="A403:D403"/>
+  <mergeCells count="8">
     <mergeCell ref="A278:A331"/>
     <mergeCell ref="A332:A353"/>
     <mergeCell ref="A1:D1"/>
@@ -33482,7 +32536,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INOW Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\InsuranceNowAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0498D09B-92E1-40A9-825E-5AC8635C260D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831453F3-804F-4291-B098-94E892683A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="17" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="11" activeTab="15" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NewBussines" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6335" uniqueCount="1642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6429" uniqueCount="1696">
   <si>
     <t>NewBussines</t>
   </si>
@@ -4979,6 +4979,168 @@
   </si>
   <si>
     <t>New Business</t>
+  </si>
+  <si>
+    <t>NewCustomerCreation</t>
+  </si>
+  <si>
+    <t>newCustomerEntityType</t>
+  </si>
+  <si>
+    <t>newCustomerIndividualFirst</t>
+  </si>
+  <si>
+    <t>newCustomerIndividualMiddle</t>
+  </si>
+  <si>
+    <t>newCustomerIndividualLast</t>
+  </si>
+  <si>
+    <t>newCustomerIndividualSuffix</t>
+  </si>
+  <si>
+    <t>newCustomerIndividualBirthDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newCustomerBypassAddressVerification	</t>
+  </si>
+  <si>
+    <t>newCustomerEntityTypeJoint</t>
+  </si>
+  <si>
+    <t>newCustomerIndividualFirstJoint</t>
+  </si>
+  <si>
+    <t>newCustomerIndividualMiddleJoint</t>
+  </si>
+  <si>
+    <t>newCustomerIndividualLastJoint</t>
+  </si>
+  <si>
+    <t>newCustomerIndividualSuffixJoint</t>
+  </si>
+  <si>
+    <t>newCustomerIndividualBirthDateJoint</t>
+  </si>
+  <si>
+    <t>newCustomerSSNJoint</t>
+  </si>
+  <si>
+    <t>newCustomerBypassAddressVerificationJoint</t>
+  </si>
+  <si>
+    <t>newCustomerIndividualFirst2Joint</t>
+  </si>
+  <si>
+    <t>newCustomerIndividualMiddle2Joint</t>
+  </si>
+  <si>
+    <t>newCustomerPrimaryPhone</t>
+  </si>
+  <si>
+    <t>newCustomerEmail</t>
+  </si>
+  <si>
+    <t>newCustomerFaxNumber</t>
+  </si>
+  <si>
+    <t>newCustomerBestWaytoContact</t>
+  </si>
+  <si>
+    <t>newCustomerBestTimetoContact</t>
+  </si>
+  <si>
+    <t>newCustomerDeliveryPreference</t>
+  </si>
+  <si>
+    <t>newCustomerCustomerNumber</t>
+  </si>
+  <si>
+    <t>NewBusiness_ExistingCustomer</t>
+  </si>
+  <si>
+    <t>existingCustomerSearchBy</t>
+  </si>
+  <si>
+    <t>existingCustomerSearchText</t>
+  </si>
+  <si>
+    <t>existingCustomerEffectiveDt</t>
+  </si>
+  <si>
+    <t>existingCustomerControllingStateCd</t>
+  </si>
+  <si>
+    <t>existingCustomerProgramType</t>
+  </si>
+  <si>
+    <t>existingCustomer</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>09/10/2023</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>07/09/2000</t>
+  </si>
+  <si>
+    <t>882</t>
+  </si>
+  <si>
+    <t>Individual Address</t>
+  </si>
+  <si>
+    <t>newCustomer</t>
+  </si>
+  <si>
+    <t>newCustomerPrimaryNumber</t>
+  </si>
+  <si>
+    <t>newCustomerStreetName</t>
+  </si>
+  <si>
+    <t>newCustomerCity</t>
+  </si>
+  <si>
+    <t>newCustomerStateProvCd</t>
+  </si>
+  <si>
+    <t>newCustomerPostalCode</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Wolfforth</t>
+  </si>
+  <si>
+    <t>79382</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>newCustomerPhoneNumber</t>
+  </si>
+  <si>
+    <t>12446678</t>
+  </si>
+  <si>
+    <t>newBusinessHastheinsuredoperatedanuninsuredmotorvehicleformorethan30daysinthepast12months</t>
+  </si>
+  <si>
+    <t>04/02/2017</t>
   </si>
 </sst>
 </file>
@@ -5139,7 +5301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5201,6 +5363,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10045,10 +10210,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA4E5AA-688C-484A-99F1-9AC8F41EC26C}">
-  <dimension ref="A1:D370"/>
+  <dimension ref="A1:D408"/>
   <sheetViews>
-    <sheetView topLeftCell="A365" workbookViewId="0">
-      <selection activeCell="A371" sqref="A371:D371"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="C358" sqref="C358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10175,15 +10340,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>1694</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
@@ -10818,7 +10985,7 @@
         <v>1565</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>1564</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -13723,7 +13890,7 @@
         <v>21</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>729</v>
+        <v>1586</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>1571</v>
@@ -13849,8 +14016,424 @@
       </c>
       <c r="D370" s="1"/>
     </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="29" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B371" s="29"/>
+      <c r="C371" s="29"/>
+      <c r="D371" s="29"/>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="1"/>
+      <c r="B372" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="1"/>
+      <c r="B373" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="1"/>
+      <c r="B374" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D374" s="1"/>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="1"/>
+      <c r="B375" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="1"/>
+      <c r="B376" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D376" s="1"/>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="1"/>
+      <c r="B377" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D377" s="17" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="1"/>
+      <c r="B378" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D378" s="1"/>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="1"/>
+      <c r="B379" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D379" s="1"/>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="1"/>
+      <c r="B380" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D380" s="1"/>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="1"/>
+      <c r="B381" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D381" s="1"/>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="1"/>
+      <c r="B382" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D382" s="1"/>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="1"/>
+      <c r="B383" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D383" s="1"/>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="1"/>
+      <c r="B384" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D384" s="1"/>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="1"/>
+      <c r="B385" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D385" s="1"/>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="1"/>
+      <c r="B386" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D386" s="1"/>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="1"/>
+      <c r="B387" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D387" s="1"/>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="1"/>
+      <c r="B388" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D388" s="1"/>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="1"/>
+      <c r="B389" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D389" s="17" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="1"/>
+      <c r="B390" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="1"/>
+      <c r="B391" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="1"/>
+      <c r="B392" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="1"/>
+      <c r="B393" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D393" s="17" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="1"/>
+      <c r="B394" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D394" s="1"/>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="1"/>
+      <c r="B395" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="1"/>
+      <c r="B396" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D396" s="17" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="1"/>
+      <c r="B397" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="1"/>
+      <c r="B398" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D398" s="1"/>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="1"/>
+      <c r="B399" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="1"/>
+      <c r="B400" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="1"/>
+      <c r="B401" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D401" s="1"/>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="1"/>
+      <c r="B402" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D402" s="1"/>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="29" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B403" s="29"/>
+      <c r="C403" s="29"/>
+      <c r="D403" s="29"/>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="1"/>
+      <c r="B404" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C404" s="13" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="1"/>
+      <c r="B405" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C405" s="13" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D405" s="17" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="1"/>
+      <c r="B406" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C406" s="13" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D406" s="17" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="1"/>
+      <c r="B407" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C407" s="13" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="1"/>
+      <c r="B408" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C408" s="13" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>1537</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A371:D371"/>
+    <mergeCell ref="A403:D403"/>
     <mergeCell ref="A278:A331"/>
     <mergeCell ref="A332:A353"/>
     <mergeCell ref="A1:D1"/>
@@ -13872,7 +14455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3BCC8-1641-433F-8FC0-0BC9EA113D75}">
   <dimension ref="D1:G736"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -21362,6 +21945,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D174:D277"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D3:D49"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D157"/>
+    <mergeCell ref="D158:D173"/>
     <mergeCell ref="D524:D539"/>
     <mergeCell ref="D540:D643"/>
     <mergeCell ref="D644:D697"/>
@@ -21372,12 +21961,6 @@
     <mergeCell ref="D373:D415"/>
     <mergeCell ref="D416:D425"/>
     <mergeCell ref="D426:D523"/>
-    <mergeCell ref="D174:D277"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D3:D49"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D157"/>
-    <mergeCell ref="D158:D173"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G44" r:id="rId1" xr:uid="{249BC4C0-3423-4E91-A0D7-112396468B55}"/>
@@ -21390,8 +21973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC48D60B-A2DA-4B33-8870-4BC720D13BF5}">
   <dimension ref="A1:D416"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:D416"/>
+    <sheetView topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25692,18 +26275,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A371:D371"/>
+    <mergeCell ref="A381:D381"/>
+    <mergeCell ref="A391:D391"/>
+    <mergeCell ref="A403:D403"/>
+    <mergeCell ref="A278:A331"/>
+    <mergeCell ref="A332:A353"/>
     <mergeCell ref="A174:A277"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A49"/>
     <mergeCell ref="A50:A59"/>
     <mergeCell ref="A60:A157"/>
     <mergeCell ref="A158:A173"/>
-    <mergeCell ref="A371:D371"/>
-    <mergeCell ref="A381:D381"/>
-    <mergeCell ref="A391:D391"/>
-    <mergeCell ref="A403:D403"/>
-    <mergeCell ref="A278:A331"/>
-    <mergeCell ref="A332:A353"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D44" r:id="rId1" xr:uid="{DE8D0F4F-6169-48C2-82D8-7C8293E1696B}"/>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INOW Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0498D09B-92E1-40A9-825E-5AC8635C260D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C471C1C-596E-4DA9-B1D6-D9D21570B6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="17" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="16" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NewBussines" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6335" uniqueCount="1642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6335" uniqueCount="1641">
   <si>
     <t>NewBussines</t>
   </si>
@@ -4873,9 +4873,6 @@
     <t>Excluded</t>
   </si>
   <si>
-    <t>Producer007</t>
-  </si>
-  <si>
     <t>Payment Screen</t>
   </si>
   <si>
@@ -4957,9 +4954,6 @@
     <t>Cancellation Notice Transaction</t>
   </si>
   <si>
-    <t>PA0000033-01</t>
-  </si>
-  <si>
     <t>Personal</t>
   </si>
   <si>
@@ -4979,6 +4973,9 @@
   </si>
   <si>
     <t>New Business</t>
+  </si>
+  <si>
+    <t>PA0000037-01</t>
   </si>
 </sst>
 </file>
@@ -9719,7 +9716,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -9745,7 +9742,7 @@
         <v>355</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -9755,7 +9752,7 @@
         <v>355</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -9765,7 +9762,7 @@
         <v>355</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -9775,7 +9772,7 @@
         <v>355</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -9785,7 +9782,7 @@
         <v>355</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -9795,7 +9792,7 @@
         <v>355</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -9805,7 +9802,7 @@
         <v>355</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -9815,7 +9812,7 @@
         <v>355</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -9825,7 +9822,7 @@
         <v>355</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -9835,7 +9832,7 @@
         <v>355</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -9895,7 +9892,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -9921,7 +9918,7 @@
         <v>355</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -9931,7 +9928,7 @@
         <v>355</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -9941,7 +9938,7 @@
         <v>355</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -9951,7 +9948,7 @@
         <v>355</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -9961,7 +9958,7 @@
         <v>355</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -9971,7 +9968,7 @@
         <v>355</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -9981,7 +9978,7 @@
         <v>355</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -9991,7 +9988,7 @@
         <v>355</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -10001,7 +9998,7 @@
         <v>355</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -10011,7 +10008,7 @@
         <v>355</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -10021,7 +10018,7 @@
         <v>355</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -10031,7 +10028,7 @@
         <v>355</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -13872,7 +13869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3BCC8-1641-433F-8FC0-0BC9EA113D75}">
   <dimension ref="D1:G736"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -13973,7 +13970,7 @@
         <v>1575</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>1606</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.25">
@@ -21390,8 +21387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC48D60B-A2DA-4B33-8870-4BC720D13BF5}">
   <dimension ref="A1:D416"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:D416"/>
+    <sheetView topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="D393" sqref="D393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21404,7 +21401,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -25235,7 +25232,7 @@
         <v>363</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -25247,7 +25244,7 @@
         <v>364</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -25299,7 +25296,7 @@
         <v>369</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -25406,7 +25403,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="28" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B391" s="28"/>
       <c r="C391" s="28"/>
@@ -25432,10 +25429,10 @@
         <v>355</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D393" s="20" t="s">
-        <v>1634</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -25444,7 +25441,7 @@
         <v>355</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D394" s="1"/>
     </row>
@@ -25454,10 +25451,10 @@
         <v>355</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D395" s="21" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -25466,10 +25463,10 @@
         <v>355</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D396" s="21" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -25478,7 +25475,7 @@
         <v>355</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>25</v>
@@ -25490,10 +25487,10 @@
         <v>355</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -25502,10 +25499,10 @@
         <v>355</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -25514,10 +25511,10 @@
         <v>355</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D400" s="17" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -25526,10 +25523,10 @@
         <v>355</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D401" s="17" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -25538,7 +25535,7 @@
         <v>355</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>1587</v>
@@ -25546,7 +25543,7 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="28" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B403" s="28"/>
       <c r="C403" s="28"/>
@@ -25572,10 +25569,10 @@
         <v>355</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D405" s="17" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -25584,10 +25581,10 @@
         <v>355</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D406" s="17" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -25596,7 +25593,7 @@
         <v>355</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D407" s="1"/>
     </row>
@@ -25606,7 +25603,7 @@
         <v>355</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D408" s="1"/>
     </row>
@@ -25616,7 +25613,7 @@
         <v>355</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D409" s="1"/>
     </row>
@@ -25626,7 +25623,7 @@
         <v>355</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D410" s="1"/>
     </row>
@@ -25636,7 +25633,7 @@
         <v>355</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D411" s="1"/>
     </row>
@@ -25646,7 +25643,7 @@
         <v>355</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D412" s="1"/>
     </row>
@@ -25656,7 +25653,7 @@
         <v>355</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D413" s="1"/>
     </row>
@@ -25666,7 +25663,7 @@
         <v>355</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D414" s="1"/>
     </row>
@@ -25676,7 +25673,7 @@
         <v>355</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D415" s="1"/>
     </row>
@@ -25686,7 +25683,7 @@
         <v>355</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D416" s="1"/>
     </row>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INOW Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C471C1C-596E-4DA9-B1D6-D9D21570B6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0498D09B-92E1-40A9-825E-5AC8635C260D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="16" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="17" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NewBussines" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6335" uniqueCount="1641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6335" uniqueCount="1642">
   <si>
     <t>NewBussines</t>
   </si>
@@ -4873,6 +4873,9 @@
     <t>Excluded</t>
   </si>
   <si>
+    <t>Producer007</t>
+  </si>
+  <si>
     <t>Payment Screen</t>
   </si>
   <si>
@@ -4954,6 +4957,9 @@
     <t>Cancellation Notice Transaction</t>
   </si>
   <si>
+    <t>PA0000033-01</t>
+  </si>
+  <si>
     <t>Personal</t>
   </si>
   <si>
@@ -4973,9 +4979,6 @@
   </si>
   <si>
     <t>New Business</t>
-  </si>
-  <si>
-    <t>PA0000037-01</t>
   </si>
 </sst>
 </file>
@@ -9716,7 +9719,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -9742,7 +9745,7 @@
         <v>355</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -9752,7 +9755,7 @@
         <v>355</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -9762,7 +9765,7 @@
         <v>355</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -9772,7 +9775,7 @@
         <v>355</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -9782,7 +9785,7 @@
         <v>355</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -9792,7 +9795,7 @@
         <v>355</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -9802,7 +9805,7 @@
         <v>355</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -9812,7 +9815,7 @@
         <v>355</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -9822,7 +9825,7 @@
         <v>355</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -9832,7 +9835,7 @@
         <v>355</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -9892,7 +9895,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -9918,7 +9921,7 @@
         <v>355</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -9928,7 +9931,7 @@
         <v>355</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -9938,7 +9941,7 @@
         <v>355</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -9948,7 +9951,7 @@
         <v>355</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -9958,7 +9961,7 @@
         <v>355</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -9968,7 +9971,7 @@
         <v>355</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -9978,7 +9981,7 @@
         <v>355</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -9988,7 +9991,7 @@
         <v>355</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -9998,7 +10001,7 @@
         <v>355</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -10008,7 +10011,7 @@
         <v>355</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -10018,7 +10021,7 @@
         <v>355</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -10028,7 +10031,7 @@
         <v>355</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -13869,7 +13872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3BCC8-1641-433F-8FC0-0BC9EA113D75}">
   <dimension ref="D1:G736"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -13970,7 +13973,7 @@
         <v>1575</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>1585</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.25">
@@ -21387,8 +21390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC48D60B-A2DA-4B33-8870-4BC720D13BF5}">
   <dimension ref="A1:D416"/>
   <sheetViews>
-    <sheetView topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="D393" sqref="D393"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="A1:D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21401,7 +21404,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -25232,7 +25235,7 @@
         <v>363</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -25244,7 +25247,7 @@
         <v>364</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -25296,7 +25299,7 @@
         <v>369</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -25403,7 +25406,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="28" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B391" s="28"/>
       <c r="C391" s="28"/>
@@ -25429,10 +25432,10 @@
         <v>355</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D393" s="20" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -25441,7 +25444,7 @@
         <v>355</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="D394" s="1"/>
     </row>
@@ -25451,10 +25454,10 @@
         <v>355</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="D395" s="21" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -25463,10 +25466,10 @@
         <v>355</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="D396" s="21" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -25475,7 +25478,7 @@
         <v>355</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>25</v>
@@ -25487,10 +25490,10 @@
         <v>355</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -25499,10 +25502,10 @@
         <v>355</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -25511,10 +25514,10 @@
         <v>355</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="D400" s="17" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -25523,10 +25526,10 @@
         <v>355</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D401" s="17" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -25535,7 +25538,7 @@
         <v>355</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>1587</v>
@@ -25543,7 +25546,7 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="28" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B403" s="28"/>
       <c r="C403" s="28"/>
@@ -25569,10 +25572,10 @@
         <v>355</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="D405" s="17" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -25581,10 +25584,10 @@
         <v>355</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="D406" s="17" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -25593,7 +25596,7 @@
         <v>355</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="D407" s="1"/>
     </row>
@@ -25603,7 +25606,7 @@
         <v>355</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="D408" s="1"/>
     </row>
@@ -25613,7 +25616,7 @@
         <v>355</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="D409" s="1"/>
     </row>
@@ -25623,7 +25626,7 @@
         <v>355</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="D410" s="1"/>
     </row>
@@ -25633,7 +25636,7 @@
         <v>355</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="D411" s="1"/>
     </row>
@@ -25643,7 +25646,7 @@
         <v>355</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="D412" s="1"/>
     </row>
@@ -25653,7 +25656,7 @@
         <v>355</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="D413" s="1"/>
     </row>
@@ -25663,7 +25666,7 @@
         <v>355</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="D414" s="1"/>
     </row>
@@ -25673,7 +25676,7 @@
         <v>355</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="D415" s="1"/>
     </row>
@@ -25683,7 +25686,7 @@
         <v>355</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="D416" s="1"/>
     </row>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INOW Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smartims-my.sharepoint.com/personal/chandralekha_gaddamedi_smartims_com/Documents/Documents/InsuranceNowAutomation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42FE0E2-D7C2-4E18-9D51-6809E376E179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{B42FE0E2-D7C2-4E18-9D51-6809E376E179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3C0837E-6BEC-488E-9514-CC8AE3CE1ADA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="17" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="18" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NewBussines" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="TS_01" sheetId="25" r:id="rId16"/>
     <sheet name="TS_02" sheetId="28" r:id="rId17"/>
     <sheet name="TS_03" sheetId="29" r:id="rId18"/>
+    <sheet name="TS_04" sheetId="32" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6429" uniqueCount="1696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7325" uniqueCount="1697">
   <si>
     <t>NewBussines</t>
   </si>
@@ -5141,6 +5142,9 @@
   </si>
   <si>
     <t>PA0000042-01</t>
+  </si>
+  <si>
+    <t>Producer</t>
   </si>
 </sst>
 </file>
@@ -21945,6 +21949,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D174:D277"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D3:D49"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D157"/>
+    <mergeCell ref="D158:D173"/>
     <mergeCell ref="D524:D539"/>
     <mergeCell ref="D540:D643"/>
     <mergeCell ref="D644:D697"/>
@@ -21955,12 +21965,6 @@
     <mergeCell ref="D373:D415"/>
     <mergeCell ref="D416:D425"/>
     <mergeCell ref="D426:D523"/>
-    <mergeCell ref="D174:D277"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D3:D49"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D157"/>
-    <mergeCell ref="D158:D173"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G44" r:id="rId1" xr:uid="{249BC4C0-3423-4E91-A0D7-112396468B55}"/>
@@ -21973,8 +21977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC48D60B-A2DA-4B33-8870-4BC720D13BF5}">
   <dimension ref="A1:D416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="G412" sqref="G412"/>
+    <sheetView topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="C419" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26275,21 +26279,4347 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A371:D371"/>
+    <mergeCell ref="A381:D381"/>
+    <mergeCell ref="A391:D391"/>
+    <mergeCell ref="A403:D403"/>
+    <mergeCell ref="A278:A331"/>
+    <mergeCell ref="A332:A353"/>
     <mergeCell ref="A174:A277"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A49"/>
     <mergeCell ref="A50:A59"/>
     <mergeCell ref="A60:A157"/>
     <mergeCell ref="A158:A173"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D44" r:id="rId1" xr:uid="{DE8D0F4F-6169-48C2-82D8-7C8293E1696B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E146B5B2-CDFE-47AD-827B-A135B6A18261}">
+  <dimension ref="A1:D416"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="27"/>
+      <c r="B35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
+      <c r="B36" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+      <c r="B38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="27"/>
+      <c r="B41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="27"/>
+      <c r="B42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="27"/>
+      <c r="B43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="27"/>
+      <c r="B45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="27"/>
+      <c r="B46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="27"/>
+      <c r="B47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="27"/>
+      <c r="B48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="28"/>
+      <c r="B49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="24"/>
+      <c r="B51" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="24"/>
+      <c r="B52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="B53" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="24"/>
+      <c r="B54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="24"/>
+      <c r="B55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
+      <c r="B56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="24"/>
+      <c r="B58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="24"/>
+      <c r="B61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="24"/>
+      <c r="B62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="24"/>
+      <c r="B63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="24"/>
+      <c r="B64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+      <c r="B65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="24"/>
+      <c r="B66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
+      <c r="B67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="24"/>
+      <c r="B68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D68" s="17"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="24"/>
+      <c r="B69" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="24"/>
+      <c r="B70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
+      <c r="B71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
+      <c r="B72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="24"/>
+      <c r="B73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="24"/>
+      <c r="B74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="24"/>
+      <c r="B75" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="24"/>
+      <c r="B76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="24"/>
+      <c r="B77" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="24"/>
+      <c r="B78" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="24"/>
+      <c r="B79" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="24"/>
+      <c r="B80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="24"/>
+      <c r="B81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="24"/>
+      <c r="B82" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="24"/>
+      <c r="B83" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="24"/>
+      <c r="B84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="24"/>
+      <c r="B85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="24"/>
+      <c r="B86" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="24"/>
+      <c r="B87" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="24"/>
+      <c r="B88" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="24"/>
+      <c r="B89" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="24"/>
+      <c r="B90" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="24"/>
+      <c r="B91" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="24"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="24"/>
+      <c r="B93" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="24"/>
+      <c r="B94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="24"/>
+      <c r="B95" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="24"/>
+      <c r="B96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="24"/>
+      <c r="B97" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="24"/>
+      <c r="B98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="24"/>
+      <c r="B99" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="24"/>
+      <c r="B100" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="24"/>
+      <c r="B101" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="24"/>
+      <c r="B102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="24"/>
+      <c r="B103" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="24"/>
+      <c r="B104" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="24"/>
+      <c r="B105" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="24"/>
+      <c r="B106" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="24"/>
+      <c r="B107" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="24"/>
+      <c r="B108" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="24"/>
+      <c r="B109" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="24"/>
+      <c r="B110" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="24"/>
+      <c r="B111" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="24"/>
+      <c r="B112" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="24"/>
+      <c r="B113" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="24"/>
+      <c r="B114" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="24"/>
+      <c r="B115" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="24"/>
+      <c r="B116" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="24"/>
+      <c r="B117" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="24"/>
+      <c r="B118" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="24"/>
+      <c r="B119" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="24"/>
+      <c r="B120" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="24"/>
+      <c r="B121" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="24"/>
+      <c r="B122" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="24"/>
+      <c r="B123" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="24"/>
+      <c r="B124" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="24"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="24"/>
+      <c r="B126" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="24"/>
+      <c r="B127" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="24"/>
+      <c r="B128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="24"/>
+      <c r="B129" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="24"/>
+      <c r="B130" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="24"/>
+      <c r="B131" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="24"/>
+      <c r="B132" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="24"/>
+      <c r="B133" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="24"/>
+      <c r="B134" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="24"/>
+      <c r="B135" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="24"/>
+      <c r="B136" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="24"/>
+      <c r="B137" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="24"/>
+      <c r="B138" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="24"/>
+      <c r="B139" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="24"/>
+      <c r="B140" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="24"/>
+      <c r="B141" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="24"/>
+      <c r="B142" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="24"/>
+      <c r="B143" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="24"/>
+      <c r="B144" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="24"/>
+      <c r="B145" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="24"/>
+      <c r="B146" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="24"/>
+      <c r="B147" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="24"/>
+      <c r="B148" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="24"/>
+      <c r="B149" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="24"/>
+      <c r="B150" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="24"/>
+      <c r="B151" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="24"/>
+      <c r="B152" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="24"/>
+      <c r="B153" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="24"/>
+      <c r="B154" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="24"/>
+      <c r="B155" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="24"/>
+      <c r="B156" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="25"/>
+      <c r="B157" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="24"/>
+      <c r="B159" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="24"/>
+      <c r="B160" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="24"/>
+      <c r="B161" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="24"/>
+      <c r="B162" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="24"/>
+      <c r="B163" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="24"/>
+      <c r="B164" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="24"/>
+      <c r="B165" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="24"/>
+      <c r="B166" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="24"/>
+      <c r="B167" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="24"/>
+      <c r="B168" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="24"/>
+      <c r="B169" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="24"/>
+      <c r="B170" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="24"/>
+      <c r="B171" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="24"/>
+      <c r="B172" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="25"/>
+      <c r="B173" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="24"/>
+      <c r="B175" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="24"/>
+      <c r="B176" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="24"/>
+      <c r="B177" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="24"/>
+      <c r="B178" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="24"/>
+      <c r="B179" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="24"/>
+      <c r="B180" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="24"/>
+      <c r="B181" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="24"/>
+      <c r="B182" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="24"/>
+      <c r="B183" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="24"/>
+      <c r="B184" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="24"/>
+      <c r="B185" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="24"/>
+      <c r="B186" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="24"/>
+      <c r="B187" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="24"/>
+      <c r="B188" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="24"/>
+      <c r="B189" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="24"/>
+      <c r="B190" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="24"/>
+      <c r="B191" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="24"/>
+      <c r="B192" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="24"/>
+      <c r="B193" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="24"/>
+      <c r="B194" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="24"/>
+      <c r="B195" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="24"/>
+      <c r="B196" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="24"/>
+      <c r="B197" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D197" s="1"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="24"/>
+      <c r="B198" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D198" s="1"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="24"/>
+      <c r="B199" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="24"/>
+      <c r="B200" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="24"/>
+      <c r="B201" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="24"/>
+      <c r="B202" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D202" s="1"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="24"/>
+      <c r="B203" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="24"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="24"/>
+      <c r="B205" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D205" s="1"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="24"/>
+      <c r="B206" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D206" s="1"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="24"/>
+      <c r="B207" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D207" s="1"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="24"/>
+      <c r="B208" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D208" s="1"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="24"/>
+      <c r="B209" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="24"/>
+      <c r="B210" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D210" s="1"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="24"/>
+      <c r="B211" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="D211" s="1"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="24"/>
+      <c r="B212" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D212" s="1"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="24"/>
+      <c r="B213" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="24"/>
+      <c r="B214" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D214" s="1"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="24"/>
+      <c r="B215" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D215" s="1"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="24"/>
+      <c r="B216" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D216" s="1"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="24"/>
+      <c r="B217" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D217" s="1"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="24"/>
+      <c r="B218" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D218" s="1"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="24"/>
+      <c r="B219" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D219" s="1"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="24"/>
+      <c r="B220" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D220" s="1"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="24"/>
+      <c r="B221" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D221" s="1"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="24"/>
+      <c r="B222" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D222" s="1"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="24"/>
+      <c r="B223" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D223" s="1"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="24"/>
+      <c r="B224" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="24"/>
+      <c r="B225" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D225" s="1"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="24"/>
+      <c r="B226" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D226" s="1"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="24"/>
+      <c r="B227" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D227" s="1"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="24"/>
+      <c r="B228" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D228" s="1"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="24"/>
+      <c r="B229" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D229" s="1"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="24"/>
+      <c r="B230" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D230" s="1"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="24"/>
+      <c r="B231" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D231" s="1"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="24"/>
+      <c r="B232" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D232" s="1"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="24"/>
+      <c r="B233" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D233" s="1"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="24"/>
+      <c r="B234" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D234" s="1"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="24"/>
+      <c r="B235" s="7"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="24"/>
+      <c r="B236" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D236" s="1"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="24"/>
+      <c r="B237" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D237" s="1"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="24"/>
+      <c r="B238" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D238" s="1"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="24"/>
+      <c r="B239" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D239" s="1"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="24"/>
+      <c r="B240" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D240" s="1"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="24"/>
+      <c r="B241" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D241" s="1"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="24"/>
+      <c r="B242" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="D242" s="1"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="24"/>
+      <c r="B243" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D243" s="1"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="24"/>
+      <c r="B244" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D244" s="1"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="24"/>
+      <c r="B245" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D245" s="1"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="24"/>
+      <c r="B246" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D246" s="1"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="24"/>
+      <c r="B247" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D247" s="1"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="24"/>
+      <c r="B248" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D248" s="1"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="24"/>
+      <c r="B249" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D249" s="1"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="24"/>
+      <c r="B250" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D250" s="1"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="24"/>
+      <c r="B251" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D251" s="1"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="24"/>
+      <c r="B252" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D252" s="1"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="24"/>
+      <c r="B253" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D253" s="1"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="24"/>
+      <c r="B254" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D254" s="1"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="24"/>
+      <c r="B255" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D255" s="1"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="24"/>
+      <c r="B256" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D256" s="1"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="24"/>
+      <c r="B257" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D257" s="1"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="24"/>
+      <c r="B258" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D258" s="1"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="24"/>
+      <c r="B259" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D259" s="1"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="24"/>
+      <c r="B260" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D260" s="1"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="24"/>
+      <c r="B261" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D261" s="1"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="24"/>
+      <c r="B262" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D262" s="1"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="24"/>
+      <c r="B263" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D263" s="1"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="24"/>
+      <c r="B264" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D264" s="1"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="24"/>
+      <c r="B265" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D265" s="1"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="24"/>
+      <c r="B266" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D266" s="1"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="24"/>
+      <c r="B267" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D267" s="1"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="24"/>
+      <c r="B268" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D268" s="1"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="24"/>
+      <c r="B269" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D269" s="1"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="24"/>
+      <c r="B270" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D270" s="1"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="24"/>
+      <c r="B271" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D271" s="1"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="24"/>
+      <c r="B272" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D272" s="1"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="24"/>
+      <c r="B273" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D273" s="1"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="24"/>
+      <c r="B274" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D274" s="1"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="24"/>
+      <c r="B275" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D275" s="1"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="24"/>
+      <c r="B276" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D276" s="1"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="25"/>
+      <c r="B277" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="D277" s="1"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D278" s="1"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="24"/>
+      <c r="B279" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D279" s="1"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="24"/>
+      <c r="B280" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D280" s="1"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="24"/>
+      <c r="B281" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D281" s="1"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="24"/>
+      <c r="B282" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D282" s="1"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="24"/>
+      <c r="B283" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D283" s="1"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="24"/>
+      <c r="B284" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D284" s="1"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="24"/>
+      <c r="B285" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D285" s="1"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="24"/>
+      <c r="B286" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D286" s="1"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="24"/>
+      <c r="B287" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D287" s="1"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="24"/>
+      <c r="B288" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D288" s="1"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="24"/>
+      <c r="B289" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D289" s="1"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="24"/>
+      <c r="B290" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D290" s="1"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="24"/>
+      <c r="B291" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D291" s="1"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="24"/>
+      <c r="B292" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D292" s="1"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="24"/>
+      <c r="B293" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D293" s="1"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="24"/>
+      <c r="B294" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D294" s="1"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="24"/>
+      <c r="B295" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D295" s="1"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="24"/>
+      <c r="B296" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D296" s="1"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="24"/>
+      <c r="B297" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D297" s="1"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="24"/>
+      <c r="B298" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D298" s="1"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="24"/>
+      <c r="B299" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D299" s="1"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="24"/>
+      <c r="B300" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D300" s="1"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="24"/>
+      <c r="B301" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D301" s="1"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="24"/>
+      <c r="B302" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D302" s="1"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="24"/>
+      <c r="B303" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D303" s="1"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="24"/>
+      <c r="B304" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D304" s="1"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="24"/>
+      <c r="B305" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D305" s="1"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="24"/>
+      <c r="B306" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D306" s="1"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="24"/>
+      <c r="B307" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="D307" s="1"/>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="24"/>
+      <c r="B308" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D308" s="1"/>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="24"/>
+      <c r="B309" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D309" s="1"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="24"/>
+      <c r="B310" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D310" s="1"/>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="24"/>
+      <c r="B311" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D311" s="1"/>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="24"/>
+      <c r="B312" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D312" s="1"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="24"/>
+      <c r="B313" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D313" s="1"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="24"/>
+      <c r="B314" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D314" s="1"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="24"/>
+      <c r="B315" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D315" s="1"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="24"/>
+      <c r="B316" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D316" s="1"/>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="24"/>
+      <c r="B317" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D317" s="1"/>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="24"/>
+      <c r="B318" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D318" s="1"/>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="24"/>
+      <c r="B319" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D319" s="1"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="24"/>
+      <c r="B320" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D320" s="1"/>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="24"/>
+      <c r="B321" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D321" s="1"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="24"/>
+      <c r="B322" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D322" s="1"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="24"/>
+      <c r="B323" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D323" s="1"/>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="24"/>
+      <c r="B324" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D324" s="1"/>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="24"/>
+      <c r="B325" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D325" s="1"/>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="24"/>
+      <c r="B326" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D326" s="1"/>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="24"/>
+      <c r="B327" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D327" s="1"/>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="24"/>
+      <c r="B328" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D328" s="1"/>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="24"/>
+      <c r="B329" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C329" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="D329" s="1"/>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="24"/>
+      <c r="B330" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D330" s="1"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="25"/>
+      <c r="B331" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D331" s="1"/>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B332" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D332" s="1"/>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="24"/>
+      <c r="B333" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D333" s="1"/>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="24"/>
+      <c r="B334" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D334" s="1"/>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="24"/>
+      <c r="B335" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D335" s="1"/>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="24"/>
+      <c r="B336" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D336" s="1"/>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="24"/>
+      <c r="B337" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D337" s="1"/>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="24"/>
+      <c r="B338" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D338" s="1"/>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="24"/>
+      <c r="B339" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D339" s="1"/>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="24"/>
+      <c r="B340" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D340" s="1"/>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="24"/>
+      <c r="B341" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D341" s="1"/>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="24"/>
+      <c r="B342" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D342" s="1"/>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="24"/>
+      <c r="B343" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D343" s="1"/>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="24"/>
+      <c r="B344" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D344" s="1"/>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="24"/>
+      <c r="B345" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D345" s="1"/>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="24"/>
+      <c r="B346" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D346" s="1"/>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="24"/>
+      <c r="B347" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D347" s="1"/>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="24"/>
+      <c r="B348" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D348" s="1"/>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="24"/>
+      <c r="B349" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D349" s="1"/>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="24"/>
+      <c r="B350" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D350" s="1"/>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="24"/>
+      <c r="B351" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D351" s="1"/>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="24"/>
+      <c r="B352" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D352" s="1"/>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="25"/>
+      <c r="B353" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D353" s="1"/>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="1"/>
+      <c r="B354" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D354" s="1"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="1"/>
+      <c r="B355" s="7"/>
+      <c r="C355" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D355" s="1"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="1"/>
+      <c r="B356" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="1"/>
+      <c r="B357" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D357" s="1"/>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="1"/>
+      <c r="B358" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="1"/>
+      <c r="B359" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="D359" s="1"/>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="1"/>
+      <c r="B360" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D360" s="1"/>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="1"/>
+      <c r="B361" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D361" s="1"/>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="1"/>
+      <c r="B362" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D362" s="1"/>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="1"/>
+      <c r="B363" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D363" s="1"/>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="1"/>
+      <c r="B364" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D364" s="1"/>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="1"/>
+      <c r="B365" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D365" s="1"/>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="1"/>
+      <c r="B366" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D366" s="1"/>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="1"/>
+      <c r="B367" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D367" s="1"/>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="1"/>
+      <c r="B368" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D368" s="1"/>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="1"/>
+      <c r="B369" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D369" s="1"/>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="1"/>
+      <c r="B370" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D370" s="1"/>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="B371" s="29"/>
+      <c r="C371" s="29"/>
+      <c r="D371" s="29"/>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="1"/>
+      <c r="B373" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="1"/>
+      <c r="B374" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D374" s="17" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="1"/>
+      <c r="B375" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="1"/>
+      <c r="B376" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D376" s="1"/>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="1"/>
+      <c r="B377" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D377" s="1"/>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="1"/>
+      <c r="B378" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D378" s="1"/>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="1"/>
+      <c r="B379" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D379" s="1"/>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="1"/>
+      <c r="B380" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="B381" s="29"/>
+      <c r="C381" s="29"/>
+      <c r="D381" s="29"/>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="1"/>
+      <c r="B383" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D383" s="1"/>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="1"/>
+      <c r="B384" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D384" s="1"/>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="1"/>
+      <c r="B385" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D385" s="1"/>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="1"/>
+      <c r="B386" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D386" s="1"/>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="1"/>
+      <c r="B387" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D387" s="1"/>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="1"/>
+      <c r="B388" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D388" s="1"/>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="1"/>
+      <c r="B389" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D389" s="1"/>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="1"/>
+      <c r="B390" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D390" s="1"/>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="29" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B391" s="29"/>
+      <c r="C391" s="29"/>
+      <c r="D391" s="29"/>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="1"/>
+      <c r="B393" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D393" s="20" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="1"/>
+      <c r="B394" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D394" s="1"/>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="1"/>
+      <c r="B395" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D395" s="21" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="1"/>
+      <c r="B396" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D396" s="21" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="1"/>
+      <c r="B397" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="1"/>
+      <c r="B398" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="1"/>
+      <c r="B399" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="1"/>
+      <c r="B400" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D400" s="17" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="1"/>
+      <c r="B401" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D401" s="17" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="1"/>
+      <c r="B402" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="29" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B403" s="29"/>
+      <c r="C403" s="29"/>
+      <c r="D403" s="29"/>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="1"/>
+      <c r="B405" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D405" s="17" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="1"/>
+      <c r="B406" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D406" s="17" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="1"/>
+      <c r="B407" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D407" s="1"/>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="1"/>
+      <c r="B408" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D408" s="1"/>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="1"/>
+      <c r="B409" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D409" s="1"/>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="1"/>
+      <c r="B410" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D410" s="1"/>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="1"/>
+      <c r="B411" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D411" s="1"/>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="1"/>
+      <c r="B412" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D412" s="1"/>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="1"/>
+      <c r="B413" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D413" s="1"/>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="1"/>
+      <c r="B414" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D414" s="1"/>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="1"/>
+      <c r="B415" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D415" s="1"/>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="1"/>
+      <c r="B416" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D416" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A332:A353"/>
     <mergeCell ref="A371:D371"/>
     <mergeCell ref="A381:D381"/>
     <mergeCell ref="A391:D391"/>
     <mergeCell ref="A403:D403"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A49"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="A60:A157"/>
+    <mergeCell ref="A158:A173"/>
+    <mergeCell ref="A174:A277"/>
     <mergeCell ref="A278:A331"/>
-    <mergeCell ref="A332:A353"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D44" r:id="rId1" xr:uid="{DE8D0F4F-6169-48C2-82D8-7C8293E1696B}"/>
+    <hyperlink ref="D44" r:id="rId1" xr:uid="{5EF1A4EB-8D91-4EC5-95F8-EB4F79F00F6A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\InsuranceNowAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831453F3-804F-4291-B098-94E892683A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ACCAB1-FC05-4CD5-AB18-41DF3705FEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="11" activeTab="15" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="10" activeTab="15" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NewBussines" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6429" uniqueCount="1696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6396" uniqueCount="1679">
   <si>
     <t>NewBussines</t>
   </si>
@@ -4981,81 +4981,30 @@
     <t>New Business</t>
   </si>
   <si>
-    <t>NewCustomerCreation</t>
-  </si>
-  <si>
     <t>newCustomerEntityType</t>
   </si>
   <si>
-    <t>newCustomerIndividualFirst</t>
-  </si>
-  <si>
     <t>newCustomerIndividualMiddle</t>
   </si>
   <si>
-    <t>newCustomerIndividualLast</t>
-  </si>
-  <si>
     <t>newCustomerIndividualSuffix</t>
   </si>
   <si>
     <t>newCustomerIndividualBirthDate</t>
   </si>
   <si>
-    <t xml:space="preserve">newCustomerBypassAddressVerification	</t>
-  </si>
-  <si>
-    <t>newCustomerEntityTypeJoint</t>
-  </si>
-  <si>
-    <t>newCustomerIndividualFirstJoint</t>
-  </si>
-  <si>
-    <t>newCustomerIndividualMiddleJoint</t>
-  </si>
-  <si>
-    <t>newCustomerIndividualLastJoint</t>
-  </si>
-  <si>
-    <t>newCustomerIndividualSuffixJoint</t>
-  </si>
-  <si>
-    <t>newCustomerIndividualBirthDateJoint</t>
-  </si>
-  <si>
-    <t>newCustomerSSNJoint</t>
-  </si>
-  <si>
-    <t>newCustomerBypassAddressVerificationJoint</t>
-  </si>
-  <si>
-    <t>newCustomerIndividualFirst2Joint</t>
-  </si>
-  <si>
-    <t>newCustomerIndividualMiddle2Joint</t>
-  </si>
-  <si>
     <t>newCustomerPrimaryPhone</t>
   </si>
   <si>
     <t>newCustomerEmail</t>
   </si>
   <si>
-    <t>newCustomerFaxNumber</t>
-  </si>
-  <si>
     <t>newCustomerBestWaytoContact</t>
   </si>
   <si>
     <t>newCustomerBestTimetoContact</t>
   </si>
   <si>
-    <t>newCustomerDeliveryPreference</t>
-  </si>
-  <si>
-    <t>newCustomerCustomerNumber</t>
-  </si>
-  <si>
     <t>NewBusiness_ExistingCustomer</t>
   </si>
   <si>
@@ -5077,9 +5026,6 @@
     <t>existingCustomer</t>
   </si>
   <si>
-    <t>CustomerName</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -5095,18 +5041,9 @@
     <t>07/09/2000</t>
   </si>
   <si>
-    <t>882</t>
-  </si>
-  <si>
     <t>Individual Address</t>
   </si>
   <si>
-    <t>newCustomer</t>
-  </si>
-  <si>
-    <t>newCustomerPrimaryNumber</t>
-  </si>
-  <si>
     <t>newCustomerStreetName</t>
   </si>
   <si>
@@ -5141,6 +5078,18 @@
   </si>
   <si>
     <t>04/02/2017</t>
+  </si>
+  <si>
+    <t>Customer Number</t>
+  </si>
+  <si>
+    <t>newCustomerIndividualFirstName</t>
+  </si>
+  <si>
+    <t>newCustomerIndividualLastName</t>
+  </si>
+  <si>
+    <t>NewCustomerCreation_NewQuote</t>
   </si>
 </sst>
 </file>
@@ -9871,7 +9820,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10046,7 +9995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7A5F1C-5DD4-479C-9560-FD8D81F4A536}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -10210,10 +10159,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA4E5AA-688C-484A-99F1-9AC8F41EC26C}">
-  <dimension ref="A1:D408"/>
+  <dimension ref="A1:D392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="C358" sqref="C358"/>
+    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
+      <selection activeCell="A371" sqref="A371:D371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10346,7 +10295,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1694</v>
+        <v>1673</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -10985,7 +10934,7 @@
         <v>1565</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>1695</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -14018,7 +13967,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="29" t="s">
-        <v>1642</v>
+        <v>1678</v>
       </c>
       <c r="B371" s="29"/>
       <c r="C371" s="29"/>
@@ -14030,7 +13979,7 @@
         <v>7</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>1542</v>
@@ -14042,10 +13991,10 @@
         <v>7</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1644</v>
+        <v>1676</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1677</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -14054,7 +14003,7 @@
         <v>7</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="D374" s="1"/>
     </row>
@@ -14064,10 +14013,10 @@
         <v>7</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>1646</v>
+        <v>1677</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1678</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -14076,7 +14025,7 @@
         <v>7</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="D376" s="1"/>
     </row>
@@ -14086,354 +14035,192 @@
         <v>7</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="D377" s="17" t="s">
-        <v>1679</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
-      <c r="B378" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D378" s="1"/>
+      <c r="B378" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>1667</v>
+      </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D379" s="1"/>
+        <v>1662</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>1668</v>
+      </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="2" t="s">
-        <v>8</v>
+        <v>1662</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D380" s="1"/>
+        <v>1665</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>1536</v>
+      </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="2" t="s">
-        <v>8</v>
+        <v>1662</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D381" s="1"/>
+        <v>1666</v>
+      </c>
+      <c r="D381" s="17" t="s">
+        <v>1669</v>
+      </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C382" s="2" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D382" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>1670</v>
+      </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C383" s="2" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D383" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D383" s="17" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
-      <c r="B384" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C384" s="2" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D384" s="1"/>
+      <c r="B384" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>1548</v>
+      </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
-      <c r="B385" s="2" t="s">
-        <v>8</v>
+      <c r="B385" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D385" s="1"/>
+        <v>1648</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>1543</v>
+      </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
-      <c r="B386" s="2" t="s">
-        <v>8</v>
+      <c r="B386" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D386" s="1"/>
+        <v>1649</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>1544</v>
+      </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="1"/>
-      <c r="B387" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D387" s="1"/>
+      <c r="A387" s="29" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B387" s="29"/>
+      <c r="C387" s="29"/>
+      <c r="D387" s="29"/>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
-      <c r="B388" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>1659</v>
-      </c>
-      <c r="D388" s="1"/>
+      <c r="B388" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C388" s="13" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>1675</v>
+      </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
-      <c r="B389" s="2" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C389" s="2" t="s">
-        <v>1683</v>
+      <c r="B389" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C389" s="13" t="s">
+        <v>1652</v>
       </c>
       <c r="D389" s="17" t="s">
-        <v>1680</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
-      <c r="B390" s="2" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C390" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="D390" s="1" t="s">
-        <v>1688</v>
+      <c r="B390" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C390" s="13" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D390" s="17" t="s">
+        <v>1658</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
-      <c r="B391" s="2" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C391" s="2" t="s">
-        <v>1685</v>
+      <c r="B391" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C391" s="13" t="s">
+        <v>1654</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>1689</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
-      <c r="B392" s="2" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>1686</v>
+      <c r="B392" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C392" s="13" t="s">
+        <v>1655</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" s="1"/>
-      <c r="B393" s="2" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="D393" s="17" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" s="1"/>
-      <c r="B394" s="2" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D394" s="1"/>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="1"/>
-      <c r="B395" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D395" s="1" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="1"/>
-      <c r="B396" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C396" s="1" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D396" s="17" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="1"/>
-      <c r="B397" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C397" s="5" t="s">
-        <v>1661</v>
-      </c>
-      <c r="D397" s="1" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="1"/>
-      <c r="B398" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D398" s="1"/>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="1"/>
-      <c r="B399" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C399" s="1" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D399" s="1" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="1"/>
-      <c r="B400" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C400" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="D400" s="1" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401" s="1"/>
-      <c r="B401" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D401" s="1"/>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402" s="1"/>
-      <c r="B402" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D402" s="1"/>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" s="29" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B403" s="29"/>
-      <c r="C403" s="29"/>
-      <c r="D403" s="29"/>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" s="1"/>
-      <c r="B404" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C404" s="13" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D404" s="1" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405" s="1"/>
-      <c r="B405" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C405" s="13" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D405" s="17" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" s="1"/>
-      <c r="B406" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C406" s="13" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D406" s="17" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" s="1"/>
-      <c r="B407" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C407" s="13" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D407" s="1" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408" s="1"/>
-      <c r="B408" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C408" s="13" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D408" s="1" t="s">
         <v>1537</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A371:D371"/>
-    <mergeCell ref="A403:D403"/>
+    <mergeCell ref="A387:D387"/>
     <mergeCell ref="A278:A331"/>
     <mergeCell ref="A332:A353"/>
     <mergeCell ref="A1:D1"/>
@@ -14455,7 +14242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3BCC8-1641-433F-8FC0-0BC9EA113D75}">
   <dimension ref="D1:G736"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A488" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -21973,7 +21760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC48D60B-A2DA-4B33-8870-4BC720D13BF5}">
   <dimension ref="A1:D416"/>
   <sheetViews>
-    <sheetView topLeftCell="A356" workbookViewId="0">
+    <sheetView topLeftCell="A380" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InsuranceNowAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ABA827-2614-41F0-8CB8-811A07162F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AEE311-CAFF-4114-9353-2E5CAD12CA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="16" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6404" uniqueCount="1680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6404" uniqueCount="1688">
   <si>
     <t>NewBussines</t>
   </si>
@@ -5093,6 +5093,30 @@
   </si>
   <si>
     <t>19XFC1F36GE218891</t>
+  </si>
+  <si>
+    <t>endorsementNonDriver1LastName</t>
+  </si>
+  <si>
+    <t>endorsementNonDriver1RelationshipToInsured</t>
+  </si>
+  <si>
+    <t>endorsementNonDriver1NonDriverType</t>
+  </si>
+  <si>
+    <t>endorsementNonDriver1Gender</t>
+  </si>
+  <si>
+    <t>endorsementNonDriver2MiddleName</t>
+  </si>
+  <si>
+    <t>endorsementNonDriver2LastName</t>
+  </si>
+  <si>
+    <t>endorsementNonDriver2NonDriverType</t>
+  </si>
+  <si>
+    <t>endorsementNonDriver2Gender</t>
   </si>
 </sst>
 </file>
@@ -14245,8 +14269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3BCC8-1641-433F-8FC0-0BC9EA113D75}">
   <dimension ref="D1:G736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H550" sqref="H550"/>
+    <sheetView tabSelected="1" topLeftCell="A525" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F539" sqref="F539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19603,7 +19627,7 @@
         <v>15</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>161</v>
+        <v>1680</v>
       </c>
       <c r="G526" s="1" t="s">
         <v>1594</v>
@@ -19615,7 +19639,7 @@
         <v>15</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>162</v>
+        <v>1681</v>
       </c>
       <c r="G527" s="1" t="s">
         <v>1595</v>
@@ -19627,7 +19651,7 @@
         <v>15</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>163</v>
+        <v>1682</v>
       </c>
       <c r="G528" s="1" t="s">
         <v>1605</v>
@@ -19639,7 +19663,7 @@
         <v>15</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>164</v>
+        <v>1683</v>
       </c>
       <c r="G529" s="1" t="s">
         <v>1558</v>
@@ -19687,7 +19711,7 @@
         <v>15</v>
       </c>
       <c r="F533" s="1" t="s">
-        <v>168</v>
+        <v>1684</v>
       </c>
       <c r="G533" s="1"/>
     </row>
@@ -19697,7 +19721,7 @@
         <v>15</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>169</v>
+        <v>1685</v>
       </c>
       <c r="G534" s="1" t="s">
         <v>1599</v>
@@ -19721,7 +19745,7 @@
         <v>15</v>
       </c>
       <c r="F536" s="1" t="s">
-        <v>171</v>
+        <v>1686</v>
       </c>
       <c r="G536" s="1" t="s">
         <v>1605</v>
@@ -19733,7 +19757,7 @@
         <v>15</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>172</v>
+        <v>1687</v>
       </c>
       <c r="G537" s="1" t="s">
         <v>1601</v>
@@ -21751,6 +21775,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D174:D277"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D3:D49"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D157"/>
+    <mergeCell ref="D158:D173"/>
     <mergeCell ref="D524:D539"/>
     <mergeCell ref="D540:D643"/>
     <mergeCell ref="D644:D697"/>
@@ -21761,17 +21791,12 @@
     <mergeCell ref="D373:D415"/>
     <mergeCell ref="D416:D425"/>
     <mergeCell ref="D426:D523"/>
-    <mergeCell ref="D174:D277"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D3:D49"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D157"/>
-    <mergeCell ref="D158:D173"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G44" r:id="rId1" xr:uid="{249BC4C0-3423-4E91-A0D7-112396468B55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -26081,18 +26106,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A371:D371"/>
+    <mergeCell ref="A381:D381"/>
+    <mergeCell ref="A391:D391"/>
+    <mergeCell ref="A403:D403"/>
+    <mergeCell ref="A278:A331"/>
+    <mergeCell ref="A332:A353"/>
     <mergeCell ref="A174:A277"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A49"/>
     <mergeCell ref="A50:A59"/>
     <mergeCell ref="A60:A157"/>
     <mergeCell ref="A158:A173"/>
-    <mergeCell ref="A371:D371"/>
-    <mergeCell ref="A381:D381"/>
-    <mergeCell ref="A391:D391"/>
-    <mergeCell ref="A403:D403"/>
-    <mergeCell ref="A278:A331"/>
-    <mergeCell ref="A332:A353"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D44" r:id="rId1" xr:uid="{DE8D0F4F-6169-48C2-82D8-7C8293E1696B}"/>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InsuranceNowAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INOW Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ABA827-2614-41F0-8CB8-811A07162F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5C9452-8237-48DE-9AC4-BB7A734B828F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="16" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="18" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NewBussines" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="TS_01" sheetId="25" r:id="rId16"/>
     <sheet name="TS_02" sheetId="28" r:id="rId17"/>
     <sheet name="TS_03" sheetId="29" r:id="rId18"/>
+    <sheet name="Producer" sheetId="32" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6404" uniqueCount="1680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6558" uniqueCount="1762">
   <si>
     <t>NewBussines</t>
   </si>
@@ -5093,6 +5094,252 @@
   </si>
   <si>
     <t>19XFC1F36GE218891</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>Producer Detail</t>
+  </si>
+  <si>
+    <t>producerCode</t>
+  </si>
+  <si>
+    <t>producerType</t>
+  </si>
+  <si>
+    <t>producerAgency</t>
+  </si>
+  <si>
+    <t>producerGroup</t>
+  </si>
+  <si>
+    <t>producerStatus</t>
+  </si>
+  <si>
+    <t>producerStatusDate</t>
+  </si>
+  <si>
+    <t>producerDateAppointed</t>
+  </si>
+  <si>
+    <t>producerBusinessType</t>
+  </si>
+  <si>
+    <t>producerName</t>
+  </si>
+  <si>
+    <t>producerBusinessName</t>
+  </si>
+  <si>
+    <t>producerSearchName</t>
+  </si>
+  <si>
+    <t>producerDBA</t>
+  </si>
+  <si>
+    <t>producerSearchDBA</t>
+  </si>
+  <si>
+    <t>producerAddress</t>
+  </si>
+  <si>
+    <t>producerCity</t>
+  </si>
+  <si>
+    <t>producerZip</t>
+  </si>
+  <si>
+    <t>producerCountry</t>
+  </si>
+  <si>
+    <t>Street Address</t>
+  </si>
+  <si>
+    <t>Billing Address</t>
+  </si>
+  <si>
+    <t>producerBillingAddress</t>
+  </si>
+  <si>
+    <t>producerBillingCity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">producerBillingState </t>
+  </si>
+  <si>
+    <t>producerBillingZip</t>
+  </si>
+  <si>
+    <t>producerBillingCountry</t>
+  </si>
+  <si>
+    <t>producerPrimaryPhone</t>
+  </si>
+  <si>
+    <t>producerSecondaryPhone</t>
+  </si>
+  <si>
+    <t>producerFaxNumber</t>
+  </si>
+  <si>
+    <t>producerEmailAddress</t>
+  </si>
+  <si>
+    <t>producerDeliveryPreference</t>
+  </si>
+  <si>
+    <t>producerEOCarrier</t>
+  </si>
+  <si>
+    <t>producerEOPolicyNumber</t>
+  </si>
+  <si>
+    <t>producerEOExpirationDate</t>
+  </si>
+  <si>
+    <t>producerBranchCode</t>
+  </si>
+  <si>
+    <t>producerReplacedbyProducer</t>
+  </si>
+  <si>
+    <t>producerReplacedbyEffDate</t>
+  </si>
+  <si>
+    <t>producerSubmitToUser</t>
+  </si>
+  <si>
+    <t>producerSubmitToGroup</t>
+  </si>
+  <si>
+    <t>producerDirectPortal</t>
+  </si>
+  <si>
+    <t>producereSignatureMethod</t>
+  </si>
+  <si>
+    <t>producerAgencyRenewalFee</t>
+  </si>
+  <si>
+    <t>producereSignature</t>
+  </si>
+  <si>
+    <t>Accounting Information</t>
+  </si>
+  <si>
+    <t>producerAccountingEntityName</t>
+  </si>
+  <si>
+    <t>producerPayTo</t>
+  </si>
+  <si>
+    <t>producerAccountEntryType</t>
+  </si>
+  <si>
+    <t>producerAccountType</t>
+  </si>
+  <si>
+    <t>producerAllowCombinedPayments</t>
+  </si>
+  <si>
+    <t>producerBankName</t>
+  </si>
+  <si>
+    <t>producerPaymentBy</t>
+  </si>
+  <si>
+    <t>producerAccountNumber</t>
+  </si>
+  <si>
+    <t>producerRoutingNumber</t>
+  </si>
+  <si>
+    <t>producerMailingAddress</t>
+  </si>
+  <si>
+    <t>producerMailingCity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">producerMailingState </t>
+  </si>
+  <si>
+    <t>producerMailingZip</t>
+  </si>
+  <si>
+    <t>producerMailingCountry</t>
+  </si>
+  <si>
+    <t>State Detail</t>
+  </si>
+  <si>
+    <t>producerStateDetail</t>
+  </si>
+  <si>
+    <t>Licensed Product Class List</t>
+  </si>
+  <si>
+    <t>producerLicensedState</t>
+  </si>
+  <si>
+    <t>producerLicensedProgramType</t>
+  </si>
+  <si>
+    <t>producerLicensedLicenseClassCode</t>
+  </si>
+  <si>
+    <t>producerLicensedChannel</t>
+  </si>
+  <si>
+    <t>producerLicensedEffectivDate</t>
+  </si>
+  <si>
+    <t>producerLicensedCommissionNB</t>
+  </si>
+  <si>
+    <t>producerLicensedCommissionOther</t>
+  </si>
+  <si>
+    <t>producerLicensedNBExpDate</t>
+  </si>
+  <si>
+    <t>producerLicensedRnwlExpDate</t>
+  </si>
+  <si>
+    <t>producerLicensedSubmitToUser</t>
+  </si>
+  <si>
+    <t>producerLicensedSubmitToGroup</t>
+  </si>
+  <si>
+    <t>producerLicensedCommissionPaidOut</t>
+  </si>
+  <si>
+    <t>producerLicensedCommissionPayRule</t>
+  </si>
+  <si>
+    <t>producerLicensedExpirationDate</t>
+  </si>
+  <si>
+    <t>producerState</t>
+  </si>
+  <si>
+    <t>producerEOLimit</t>
+  </si>
+  <si>
+    <t>producerLastCommissionPayThroughDate</t>
+  </si>
+  <si>
+    <t>producerStateProgramType</t>
+  </si>
+  <si>
+    <t>producerStateDateAppointed</t>
+  </si>
+  <si>
+    <t>producerStateDateCancelled</t>
+  </si>
+  <si>
+    <t>producerLicensedCommissionRenewal</t>
   </si>
 </sst>
 </file>
@@ -5164,7 +5411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -5248,12 +5495,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5317,6 +5588,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9823,7 +10106,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14245,7 +14528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3BCC8-1641-433F-8FC0-0BC9EA113D75}">
   <dimension ref="D1:G736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H550" sqref="H550"/>
     </sheetView>
   </sheetViews>
@@ -21751,6 +22034,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D174:D277"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D3:D49"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D157"/>
+    <mergeCell ref="D158:D173"/>
     <mergeCell ref="D524:D539"/>
     <mergeCell ref="D540:D643"/>
     <mergeCell ref="D644:D697"/>
@@ -21761,12 +22050,6 @@
     <mergeCell ref="D373:D415"/>
     <mergeCell ref="D416:D425"/>
     <mergeCell ref="D426:D523"/>
-    <mergeCell ref="D174:D277"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D3:D49"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D157"/>
-    <mergeCell ref="D158:D173"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G44" r:id="rId1" xr:uid="{249BC4C0-3423-4E91-A0D7-112396468B55}"/>
@@ -21779,7 +22062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC48D60B-A2DA-4B33-8870-4BC720D13BF5}">
   <dimension ref="A1:D416"/>
   <sheetViews>
-    <sheetView topLeftCell="A380" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -26081,23 +26364,685 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A371:D371"/>
+    <mergeCell ref="A381:D381"/>
+    <mergeCell ref="A391:D391"/>
+    <mergeCell ref="A403:D403"/>
+    <mergeCell ref="A278:A331"/>
+    <mergeCell ref="A332:A353"/>
     <mergeCell ref="A174:A277"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A49"/>
     <mergeCell ref="A50:A59"/>
     <mergeCell ref="A60:A157"/>
     <mergeCell ref="A158:A173"/>
-    <mergeCell ref="A371:D371"/>
-    <mergeCell ref="A381:D381"/>
-    <mergeCell ref="A391:D391"/>
-    <mergeCell ref="A403:D403"/>
-    <mergeCell ref="A278:A331"/>
-    <mergeCell ref="A332:A353"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D44" r:id="rId1" xr:uid="{DE8D0F4F-6169-48C2-82D8-7C8293E1696B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04EFC45-3CE5-45C4-B440-20040531B5D8}">
+  <dimension ref="A1:C83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="31" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INOW Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InsuranceNowAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5C9452-8237-48DE-9AC4-BB7A734B828F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ABA827-2614-41F0-8CB8-811A07162F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="18" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="16" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NewBussines" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <sheet name="TS_01" sheetId="25" r:id="rId16"/>
     <sheet name="TS_02" sheetId="28" r:id="rId17"/>
     <sheet name="TS_03" sheetId="29" r:id="rId18"/>
-    <sheet name="Producer" sheetId="32" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6558" uniqueCount="1762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6404" uniqueCount="1680">
   <si>
     <t>NewBussines</t>
   </si>
@@ -5094,252 +5093,6 @@
   </si>
   <si>
     <t>19XFC1F36GE218891</t>
-  </si>
-  <si>
-    <t>Producer</t>
-  </si>
-  <si>
-    <t>Producer Detail</t>
-  </si>
-  <si>
-    <t>producerCode</t>
-  </si>
-  <si>
-    <t>producerType</t>
-  </si>
-  <si>
-    <t>producerAgency</t>
-  </si>
-  <si>
-    <t>producerGroup</t>
-  </si>
-  <si>
-    <t>producerStatus</t>
-  </si>
-  <si>
-    <t>producerStatusDate</t>
-  </si>
-  <si>
-    <t>producerDateAppointed</t>
-  </si>
-  <si>
-    <t>producerBusinessType</t>
-  </si>
-  <si>
-    <t>producerName</t>
-  </si>
-  <si>
-    <t>producerBusinessName</t>
-  </si>
-  <si>
-    <t>producerSearchName</t>
-  </si>
-  <si>
-    <t>producerDBA</t>
-  </si>
-  <si>
-    <t>producerSearchDBA</t>
-  </si>
-  <si>
-    <t>producerAddress</t>
-  </si>
-  <si>
-    <t>producerCity</t>
-  </si>
-  <si>
-    <t>producerZip</t>
-  </si>
-  <si>
-    <t>producerCountry</t>
-  </si>
-  <si>
-    <t>Street Address</t>
-  </si>
-  <si>
-    <t>Billing Address</t>
-  </si>
-  <si>
-    <t>producerBillingAddress</t>
-  </si>
-  <si>
-    <t>producerBillingCity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">producerBillingState </t>
-  </si>
-  <si>
-    <t>producerBillingZip</t>
-  </si>
-  <si>
-    <t>producerBillingCountry</t>
-  </si>
-  <si>
-    <t>producerPrimaryPhone</t>
-  </si>
-  <si>
-    <t>producerSecondaryPhone</t>
-  </si>
-  <si>
-    <t>producerFaxNumber</t>
-  </si>
-  <si>
-    <t>producerEmailAddress</t>
-  </si>
-  <si>
-    <t>producerDeliveryPreference</t>
-  </si>
-  <si>
-    <t>producerEOCarrier</t>
-  </si>
-  <si>
-    <t>producerEOPolicyNumber</t>
-  </si>
-  <si>
-    <t>producerEOExpirationDate</t>
-  </si>
-  <si>
-    <t>producerBranchCode</t>
-  </si>
-  <si>
-    <t>producerReplacedbyProducer</t>
-  </si>
-  <si>
-    <t>producerReplacedbyEffDate</t>
-  </si>
-  <si>
-    <t>producerSubmitToUser</t>
-  </si>
-  <si>
-    <t>producerSubmitToGroup</t>
-  </si>
-  <si>
-    <t>producerDirectPortal</t>
-  </si>
-  <si>
-    <t>producereSignatureMethod</t>
-  </si>
-  <si>
-    <t>producerAgencyRenewalFee</t>
-  </si>
-  <si>
-    <t>producereSignature</t>
-  </si>
-  <si>
-    <t>Accounting Information</t>
-  </si>
-  <si>
-    <t>producerAccountingEntityName</t>
-  </si>
-  <si>
-    <t>producerPayTo</t>
-  </si>
-  <si>
-    <t>producerAccountEntryType</t>
-  </si>
-  <si>
-    <t>producerAccountType</t>
-  </si>
-  <si>
-    <t>producerAllowCombinedPayments</t>
-  </si>
-  <si>
-    <t>producerBankName</t>
-  </si>
-  <si>
-    <t>producerPaymentBy</t>
-  </si>
-  <si>
-    <t>producerAccountNumber</t>
-  </si>
-  <si>
-    <t>producerRoutingNumber</t>
-  </si>
-  <si>
-    <t>producerMailingAddress</t>
-  </si>
-  <si>
-    <t>producerMailingCity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">producerMailingState </t>
-  </si>
-  <si>
-    <t>producerMailingZip</t>
-  </si>
-  <si>
-    <t>producerMailingCountry</t>
-  </si>
-  <si>
-    <t>State Detail</t>
-  </si>
-  <si>
-    <t>producerStateDetail</t>
-  </si>
-  <si>
-    <t>Licensed Product Class List</t>
-  </si>
-  <si>
-    <t>producerLicensedState</t>
-  </si>
-  <si>
-    <t>producerLicensedProgramType</t>
-  </si>
-  <si>
-    <t>producerLicensedLicenseClassCode</t>
-  </si>
-  <si>
-    <t>producerLicensedChannel</t>
-  </si>
-  <si>
-    <t>producerLicensedEffectivDate</t>
-  </si>
-  <si>
-    <t>producerLicensedCommissionNB</t>
-  </si>
-  <si>
-    <t>producerLicensedCommissionOther</t>
-  </si>
-  <si>
-    <t>producerLicensedNBExpDate</t>
-  </si>
-  <si>
-    <t>producerLicensedRnwlExpDate</t>
-  </si>
-  <si>
-    <t>producerLicensedSubmitToUser</t>
-  </si>
-  <si>
-    <t>producerLicensedSubmitToGroup</t>
-  </si>
-  <si>
-    <t>producerLicensedCommissionPaidOut</t>
-  </si>
-  <si>
-    <t>producerLicensedCommissionPayRule</t>
-  </si>
-  <si>
-    <t>producerLicensedExpirationDate</t>
-  </si>
-  <si>
-    <t>producerState</t>
-  </si>
-  <si>
-    <t>producerEOLimit</t>
-  </si>
-  <si>
-    <t>producerLastCommissionPayThroughDate</t>
-  </si>
-  <si>
-    <t>producerStateProgramType</t>
-  </si>
-  <si>
-    <t>producerStateDateAppointed</t>
-  </si>
-  <si>
-    <t>producerStateDateCancelled</t>
-  </si>
-  <si>
-    <t>producerLicensedCommissionRenewal</t>
   </si>
 </sst>
 </file>
@@ -5411,7 +5164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -5495,36 +5248,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5588,18 +5317,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10106,7 +9823,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14528,7 +14245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3BCC8-1641-433F-8FC0-0BC9EA113D75}">
   <dimension ref="D1:G736"/>
   <sheetViews>
-    <sheetView topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H550" sqref="H550"/>
     </sheetView>
   </sheetViews>
@@ -22034,12 +21751,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D174:D277"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D3:D49"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D157"/>
-    <mergeCell ref="D158:D173"/>
     <mergeCell ref="D524:D539"/>
     <mergeCell ref="D540:D643"/>
     <mergeCell ref="D644:D697"/>
@@ -22050,6 +21761,12 @@
     <mergeCell ref="D373:D415"/>
     <mergeCell ref="D416:D425"/>
     <mergeCell ref="D426:D523"/>
+    <mergeCell ref="D174:D277"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D3:D49"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D157"/>
+    <mergeCell ref="D158:D173"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G44" r:id="rId1" xr:uid="{249BC4C0-3423-4E91-A0D7-112396468B55}"/>
@@ -22062,7 +21779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC48D60B-A2DA-4B33-8870-4BC720D13BF5}">
   <dimension ref="A1:D416"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A380" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -26364,685 +26081,23 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A174:A277"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A49"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="A60:A157"/>
+    <mergeCell ref="A158:A173"/>
     <mergeCell ref="A371:D371"/>
     <mergeCell ref="A381:D381"/>
     <mergeCell ref="A391:D391"/>
     <mergeCell ref="A403:D403"/>
     <mergeCell ref="A278:A331"/>
     <mergeCell ref="A332:A353"/>
-    <mergeCell ref="A174:A277"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A49"/>
-    <mergeCell ref="A50:A59"/>
-    <mergeCell ref="A60:A157"/>
-    <mergeCell ref="A158:A173"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D44" r:id="rId1" xr:uid="{DE8D0F4F-6169-48C2-82D8-7C8293E1696B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04EFC45-3CE5-45C4-B440-20040531B5D8}">
-  <dimension ref="A1:C83"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="46.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>1680</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="2"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InsuranceNowAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AEE311-CAFF-4114-9353-2E5CAD12CA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3E5255-B20C-4B74-8E89-D8173689457B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="16" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6404" uniqueCount="1688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6405" uniqueCount="1691">
   <si>
     <t>NewBussines</t>
   </si>
@@ -5117,6 +5117,15 @@
   </si>
   <si>
     <t>endorsementNonDriver2Gender</t>
+  </si>
+  <si>
+    <t>endorsementNonDriver2RelationshipToInsured</t>
+  </si>
+  <si>
+    <t>endorsementVehicle1PurchasedOrLeased</t>
+  </si>
+  <si>
+    <t>endorsementVehicle1TowingAndLabor</t>
   </si>
 </sst>
 </file>
@@ -14269,8 +14278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3BCC8-1641-433F-8FC0-0BC9EA113D75}">
   <dimension ref="D1:G736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A525" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F539" sqref="F539"/>
+    <sheetView tabSelected="1" topLeftCell="A718" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F722" sqref="F722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19733,7 +19742,7 @@
         <v>15</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>170</v>
+        <v>1688</v>
       </c>
       <c r="G535" s="1" t="s">
         <v>1600</v>
@@ -19783,7 +19792,9 @@
       <c r="F539" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G539" s="1"/>
+      <c r="G539" s="1" t="s">
+        <v>1597</v>
+      </c>
     </row>
     <row r="540" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D540" s="23" t="s">
@@ -19907,7 +19918,7 @@
         <v>16</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>186</v>
+        <v>1689</v>
       </c>
       <c r="G551" s="1" t="s">
         <v>1569</v>
@@ -20005,7 +20016,7 @@
         <v>16</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>195</v>
+        <v>1690</v>
       </c>
       <c r="G560" s="1" t="s">
         <v>1571</v>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InsuranceNowAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INOW Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ABA827-2614-41F0-8CB8-811A07162F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34056C6C-0EF0-4428-82F2-A63ABDB3FAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="16" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="18" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NewBussines" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="TS_01" sheetId="25" r:id="rId16"/>
     <sheet name="TS_02" sheetId="28" r:id="rId17"/>
     <sheet name="TS_03" sheetId="29" r:id="rId18"/>
+    <sheet name="Producer Creation" sheetId="32" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6404" uniqueCount="1680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6558" uniqueCount="1761">
   <si>
     <t>NewBussines</t>
   </si>
@@ -5093,6 +5094,249 @@
   </si>
   <si>
     <t>19XFC1F36GE218891</t>
+  </si>
+  <si>
+    <t>producerCode</t>
+  </si>
+  <si>
+    <t>producerType</t>
+  </si>
+  <si>
+    <t>producerStatus</t>
+  </si>
+  <si>
+    <t>producerAgency</t>
+  </si>
+  <si>
+    <t>producerGroup</t>
+  </si>
+  <si>
+    <t>producerStatusDate</t>
+  </si>
+  <si>
+    <t>producerDateAppointed</t>
+  </si>
+  <si>
+    <t>producerBusinessType</t>
+  </si>
+  <si>
+    <t>producerName</t>
+  </si>
+  <si>
+    <t>producerBusinessName</t>
+  </si>
+  <si>
+    <t>producerSearchName</t>
+  </si>
+  <si>
+    <t>producerDBA</t>
+  </si>
+  <si>
+    <t>producerSearchDBA</t>
+  </si>
+  <si>
+    <t>producerAddress</t>
+  </si>
+  <si>
+    <t>producerCity</t>
+  </si>
+  <si>
+    <t>producerState</t>
+  </si>
+  <si>
+    <t>producerZip</t>
+  </si>
+  <si>
+    <t>producerCountry</t>
+  </si>
+  <si>
+    <t>producerBillingAddress</t>
+  </si>
+  <si>
+    <t>producerBillingCity</t>
+  </si>
+  <si>
+    <t>producerBillingState</t>
+  </si>
+  <si>
+    <t>producerBillingZip</t>
+  </si>
+  <si>
+    <t>producerBillingCountry</t>
+  </si>
+  <si>
+    <t>producerPrimaryPhone</t>
+  </si>
+  <si>
+    <t>producerSecondaryPhone</t>
+  </si>
+  <si>
+    <t>producerFaxNumber</t>
+  </si>
+  <si>
+    <t>producerEmailAddress</t>
+  </si>
+  <si>
+    <t>producerDeliveryPreference</t>
+  </si>
+  <si>
+    <t>producerEOCarrier</t>
+  </si>
+  <si>
+    <t>producerEOPolicyNumber</t>
+  </si>
+  <si>
+    <t>producerEOLimit</t>
+  </si>
+  <si>
+    <t>producerEOExpirationDate</t>
+  </si>
+  <si>
+    <t>producerBranchCode</t>
+  </si>
+  <si>
+    <t>producerReplacedbyProducer</t>
+  </si>
+  <si>
+    <t>producerReplacedbyEffDate</t>
+  </si>
+  <si>
+    <t>producerSubmitToUser</t>
+  </si>
+  <si>
+    <t>producerSubmitToGroup</t>
+  </si>
+  <si>
+    <t>producerLastCommissionPayThroughDate</t>
+  </si>
+  <si>
+    <t>producerDirectPortal</t>
+  </si>
+  <si>
+    <t>producereSignatureMethod</t>
+  </si>
+  <si>
+    <t>producerAgencyRenewalFee</t>
+  </si>
+  <si>
+    <t>producereSignature</t>
+  </si>
+  <si>
+    <t>producerAccountingEntityName</t>
+  </si>
+  <si>
+    <t>producerPayTo</t>
+  </si>
+  <si>
+    <t>producerAccountEntryType</t>
+  </si>
+  <si>
+    <t>producerAccountType</t>
+  </si>
+  <si>
+    <t>producerAllowCombinedPayments</t>
+  </si>
+  <si>
+    <t>producerBankName</t>
+  </si>
+  <si>
+    <t>producerPaymentBy</t>
+  </si>
+  <si>
+    <t>producerAccountNumber</t>
+  </si>
+  <si>
+    <t>producerRoutingNumber</t>
+  </si>
+  <si>
+    <t>producerMailingAddress</t>
+  </si>
+  <si>
+    <t>producerMailingCity</t>
+  </si>
+  <si>
+    <t>producerMailingState</t>
+  </si>
+  <si>
+    <t>producerMailingZip</t>
+  </si>
+  <si>
+    <t>producerMailingCountry</t>
+  </si>
+  <si>
+    <t>producerStateDetail</t>
+  </si>
+  <si>
+    <t>producerStateProgramType</t>
+  </si>
+  <si>
+    <t>producerStateDateAppointed</t>
+  </si>
+  <si>
+    <t>producerStateDateCancelled</t>
+  </si>
+  <si>
+    <t>producerLicensedExpirationDate</t>
+  </si>
+  <si>
+    <t>producerLicensedState</t>
+  </si>
+  <si>
+    <t>producerLicensedProgramType</t>
+  </si>
+  <si>
+    <t>producerLicensedLicenseClassCode</t>
+  </si>
+  <si>
+    <t>producerLicensedChannel</t>
+  </si>
+  <si>
+    <t>producerLicensedEffectivDate</t>
+  </si>
+  <si>
+    <t>producerLicensedCommissionNB</t>
+  </si>
+  <si>
+    <t>producerLicensedCommissionRenewal</t>
+  </si>
+  <si>
+    <t>producerLicensedCommissionOther</t>
+  </si>
+  <si>
+    <t>producerLicensedNBExpDate</t>
+  </si>
+  <si>
+    <t>producerLicensedRnwlExpDate</t>
+  </si>
+  <si>
+    <t>producerLicensedSubmitToUser</t>
+  </si>
+  <si>
+    <t>producerLicensedSubmitToGroup</t>
+  </si>
+  <si>
+    <t>producerLicensedCommissionPaidOut</t>
+  </si>
+  <si>
+    <t>producerLicensedCommissionPayRule</t>
+  </si>
+  <si>
+    <t>Producer Detail</t>
+  </si>
+  <si>
+    <t>Street Address</t>
+  </si>
+  <si>
+    <t>Billing Address</t>
+  </si>
+  <si>
+    <t>Accounting Information</t>
+  </si>
+  <si>
+    <t>State Detail</t>
+  </si>
+  <si>
+    <t>Licensed Product Class List</t>
   </si>
 </sst>
 </file>
@@ -5102,7 +5346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5137,6 +5381,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF080808"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5164,7 +5421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -5248,12 +5505,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5318,6 +5599,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14245,7 +14553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3BCC8-1641-433F-8FC0-0BC9EA113D75}">
   <dimension ref="D1:G736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H550" sqref="H550"/>
     </sheetView>
   </sheetViews>
@@ -21751,6 +22059,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D174:D277"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D3:D49"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D157"/>
+    <mergeCell ref="D158:D173"/>
     <mergeCell ref="D524:D539"/>
     <mergeCell ref="D540:D643"/>
     <mergeCell ref="D644:D697"/>
@@ -21761,12 +22075,6 @@
     <mergeCell ref="D373:D415"/>
     <mergeCell ref="D416:D425"/>
     <mergeCell ref="D426:D523"/>
-    <mergeCell ref="D174:D277"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D3:D49"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D157"/>
-    <mergeCell ref="D158:D173"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G44" r:id="rId1" xr:uid="{249BC4C0-3423-4E91-A0D7-112396468B55}"/>
@@ -21779,8 +22087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC48D60B-A2DA-4B33-8870-4BC720D13BF5}">
   <dimension ref="A1:D416"/>
   <sheetViews>
-    <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26081,22 +26389,816 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A371:D371"/>
+    <mergeCell ref="A381:D381"/>
+    <mergeCell ref="A391:D391"/>
+    <mergeCell ref="A403:D403"/>
+    <mergeCell ref="A278:A331"/>
+    <mergeCell ref="A332:A353"/>
     <mergeCell ref="A174:A277"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A49"/>
     <mergeCell ref="A50:A59"/>
     <mergeCell ref="A60:A157"/>
     <mergeCell ref="A158:A173"/>
-    <mergeCell ref="A371:D371"/>
-    <mergeCell ref="A381:D381"/>
-    <mergeCell ref="A391:D391"/>
-    <mergeCell ref="A403:D403"/>
-    <mergeCell ref="A278:A331"/>
-    <mergeCell ref="A332:A353"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D44" r:id="rId1" xr:uid="{DE8D0F4F-6169-48C2-82D8-7C8293E1696B}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F57D5C-24F6-45DD-BB48-DD69252BEB36}">
+  <dimension ref="A1:D77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="68.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="36" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="36" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="36" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="36" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="36" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="36" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="36" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="38" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="38" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="38" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="38" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="39" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="39" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="39" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="39" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="39" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="39" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="39" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="39" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="39" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="39" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="39" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="39" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="39" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="39" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="39" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -26106,7 +27208,7 @@
   <dimension ref="A2:D391"/>
   <sheetViews>
     <sheetView topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D367"/>
+      <selection activeCell="D362" sqref="D362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INOW Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InsuranceNowAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34056C6C-0EF0-4428-82F2-A63ABDB3FAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ABA827-2614-41F0-8CB8-811A07162F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="18" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="16" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NewBussines" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <sheet name="TS_01" sheetId="25" r:id="rId16"/>
     <sheet name="TS_02" sheetId="28" r:id="rId17"/>
     <sheet name="TS_03" sheetId="29" r:id="rId18"/>
-    <sheet name="Producer Creation" sheetId="32" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6558" uniqueCount="1761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6404" uniqueCount="1680">
   <si>
     <t>NewBussines</t>
   </si>
@@ -5094,249 +5093,6 @@
   </si>
   <si>
     <t>19XFC1F36GE218891</t>
-  </si>
-  <si>
-    <t>producerCode</t>
-  </si>
-  <si>
-    <t>producerType</t>
-  </si>
-  <si>
-    <t>producerStatus</t>
-  </si>
-  <si>
-    <t>producerAgency</t>
-  </si>
-  <si>
-    <t>producerGroup</t>
-  </si>
-  <si>
-    <t>producerStatusDate</t>
-  </si>
-  <si>
-    <t>producerDateAppointed</t>
-  </si>
-  <si>
-    <t>producerBusinessType</t>
-  </si>
-  <si>
-    <t>producerName</t>
-  </si>
-  <si>
-    <t>producerBusinessName</t>
-  </si>
-  <si>
-    <t>producerSearchName</t>
-  </si>
-  <si>
-    <t>producerDBA</t>
-  </si>
-  <si>
-    <t>producerSearchDBA</t>
-  </si>
-  <si>
-    <t>producerAddress</t>
-  </si>
-  <si>
-    <t>producerCity</t>
-  </si>
-  <si>
-    <t>producerState</t>
-  </si>
-  <si>
-    <t>producerZip</t>
-  </si>
-  <si>
-    <t>producerCountry</t>
-  </si>
-  <si>
-    <t>producerBillingAddress</t>
-  </si>
-  <si>
-    <t>producerBillingCity</t>
-  </si>
-  <si>
-    <t>producerBillingState</t>
-  </si>
-  <si>
-    <t>producerBillingZip</t>
-  </si>
-  <si>
-    <t>producerBillingCountry</t>
-  </si>
-  <si>
-    <t>producerPrimaryPhone</t>
-  </si>
-  <si>
-    <t>producerSecondaryPhone</t>
-  </si>
-  <si>
-    <t>producerFaxNumber</t>
-  </si>
-  <si>
-    <t>producerEmailAddress</t>
-  </si>
-  <si>
-    <t>producerDeliveryPreference</t>
-  </si>
-  <si>
-    <t>producerEOCarrier</t>
-  </si>
-  <si>
-    <t>producerEOPolicyNumber</t>
-  </si>
-  <si>
-    <t>producerEOLimit</t>
-  </si>
-  <si>
-    <t>producerEOExpirationDate</t>
-  </si>
-  <si>
-    <t>producerBranchCode</t>
-  </si>
-  <si>
-    <t>producerReplacedbyProducer</t>
-  </si>
-  <si>
-    <t>producerReplacedbyEffDate</t>
-  </si>
-  <si>
-    <t>producerSubmitToUser</t>
-  </si>
-  <si>
-    <t>producerSubmitToGroup</t>
-  </si>
-  <si>
-    <t>producerLastCommissionPayThroughDate</t>
-  </si>
-  <si>
-    <t>producerDirectPortal</t>
-  </si>
-  <si>
-    <t>producereSignatureMethod</t>
-  </si>
-  <si>
-    <t>producerAgencyRenewalFee</t>
-  </si>
-  <si>
-    <t>producereSignature</t>
-  </si>
-  <si>
-    <t>producerAccountingEntityName</t>
-  </si>
-  <si>
-    <t>producerPayTo</t>
-  </si>
-  <si>
-    <t>producerAccountEntryType</t>
-  </si>
-  <si>
-    <t>producerAccountType</t>
-  </si>
-  <si>
-    <t>producerAllowCombinedPayments</t>
-  </si>
-  <si>
-    <t>producerBankName</t>
-  </si>
-  <si>
-    <t>producerPaymentBy</t>
-  </si>
-  <si>
-    <t>producerAccountNumber</t>
-  </si>
-  <si>
-    <t>producerRoutingNumber</t>
-  </si>
-  <si>
-    <t>producerMailingAddress</t>
-  </si>
-  <si>
-    <t>producerMailingCity</t>
-  </si>
-  <si>
-    <t>producerMailingState</t>
-  </si>
-  <si>
-    <t>producerMailingZip</t>
-  </si>
-  <si>
-    <t>producerMailingCountry</t>
-  </si>
-  <si>
-    <t>producerStateDetail</t>
-  </si>
-  <si>
-    <t>producerStateProgramType</t>
-  </si>
-  <si>
-    <t>producerStateDateAppointed</t>
-  </si>
-  <si>
-    <t>producerStateDateCancelled</t>
-  </si>
-  <si>
-    <t>producerLicensedExpirationDate</t>
-  </si>
-  <si>
-    <t>producerLicensedState</t>
-  </si>
-  <si>
-    <t>producerLicensedProgramType</t>
-  </si>
-  <si>
-    <t>producerLicensedLicenseClassCode</t>
-  </si>
-  <si>
-    <t>producerLicensedChannel</t>
-  </si>
-  <si>
-    <t>producerLicensedEffectivDate</t>
-  </si>
-  <si>
-    <t>producerLicensedCommissionNB</t>
-  </si>
-  <si>
-    <t>producerLicensedCommissionRenewal</t>
-  </si>
-  <si>
-    <t>producerLicensedCommissionOther</t>
-  </si>
-  <si>
-    <t>producerLicensedNBExpDate</t>
-  </si>
-  <si>
-    <t>producerLicensedRnwlExpDate</t>
-  </si>
-  <si>
-    <t>producerLicensedSubmitToUser</t>
-  </si>
-  <si>
-    <t>producerLicensedSubmitToGroup</t>
-  </si>
-  <si>
-    <t>producerLicensedCommissionPaidOut</t>
-  </si>
-  <si>
-    <t>producerLicensedCommissionPayRule</t>
-  </si>
-  <si>
-    <t>Producer Detail</t>
-  </si>
-  <si>
-    <t>Street Address</t>
-  </si>
-  <si>
-    <t>Billing Address</t>
-  </si>
-  <si>
-    <t>Accounting Information</t>
-  </si>
-  <si>
-    <t>State Detail</t>
-  </si>
-  <si>
-    <t>Licensed Product Class List</t>
   </si>
 </sst>
 </file>
@@ -5346,7 +5102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5381,19 +5137,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF080808"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5421,7 +5164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -5505,36 +5248,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5599,33 +5318,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14553,7 +14245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3BCC8-1641-433F-8FC0-0BC9EA113D75}">
   <dimension ref="D1:G736"/>
   <sheetViews>
-    <sheetView topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H550" sqref="H550"/>
     </sheetView>
   </sheetViews>
@@ -22059,12 +21751,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D174:D277"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D3:D49"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D157"/>
-    <mergeCell ref="D158:D173"/>
     <mergeCell ref="D524:D539"/>
     <mergeCell ref="D540:D643"/>
     <mergeCell ref="D644:D697"/>
@@ -22075,6 +21761,12 @@
     <mergeCell ref="D373:D415"/>
     <mergeCell ref="D416:D425"/>
     <mergeCell ref="D426:D523"/>
+    <mergeCell ref="D174:D277"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D3:D49"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D157"/>
+    <mergeCell ref="D158:D173"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G44" r:id="rId1" xr:uid="{249BC4C0-3423-4E91-A0D7-112396468B55}"/>
@@ -22087,8 +21779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC48D60B-A2DA-4B33-8870-4BC720D13BF5}">
   <dimension ref="A1:D416"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26389,816 +26081,22 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A174:A277"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A49"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="A60:A157"/>
+    <mergeCell ref="A158:A173"/>
     <mergeCell ref="A371:D371"/>
     <mergeCell ref="A381:D381"/>
     <mergeCell ref="A391:D391"/>
     <mergeCell ref="A403:D403"/>
     <mergeCell ref="A278:A331"/>
     <mergeCell ref="A332:A353"/>
-    <mergeCell ref="A174:A277"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A49"/>
-    <mergeCell ref="A50:A59"/>
-    <mergeCell ref="A60:A157"/>
-    <mergeCell ref="A158:A173"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D44" r:id="rId1" xr:uid="{DE8D0F4F-6169-48C2-82D8-7C8293E1696B}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F57D5C-24F6-45DD-BB48-DD69252BEB36}">
-  <dimension ref="A1:D77"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="68.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>1684</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>1757</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>1757</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>1757</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>1757</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>1757</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>1706</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>1708</v>
-      </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>1716</v>
-      </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>1718</v>
-      </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>1720</v>
-      </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>1724</v>
-      </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="36" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="36" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B50" s="37" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="36" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>1729</v>
-      </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>1730</v>
-      </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="37" t="s">
-        <v>1732</v>
-      </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="37" t="s">
-        <v>1733</v>
-      </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="37" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="38" t="s">
-        <v>1759</v>
-      </c>
-      <c r="B59" s="37" t="s">
-        <v>1736</v>
-      </c>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="38" t="s">
-        <v>1759</v>
-      </c>
-      <c r="B60" s="37" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="38" t="s">
-        <v>1759</v>
-      </c>
-      <c r="B61" s="37" t="s">
-        <v>1738</v>
-      </c>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="38" t="s">
-        <v>1759</v>
-      </c>
-      <c r="B62" s="37" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="39" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B64" s="37" t="s">
-        <v>1741</v>
-      </c>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B65" s="37" t="s">
-        <v>1742</v>
-      </c>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="39" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B66" s="37" t="s">
-        <v>1743</v>
-      </c>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="39" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B67" s="37" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="39" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B68" s="37" t="s">
-        <v>1745</v>
-      </c>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B69" s="37" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B70" s="37" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="39" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="39" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B72" s="37" t="s">
-        <v>1749</v>
-      </c>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="39" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B73" s="37" t="s">
-        <v>1750</v>
-      </c>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B74" s="37" t="s">
-        <v>1751</v>
-      </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B75" s="37" t="s">
-        <v>1752</v>
-      </c>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="39" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B76" s="37" t="s">
-        <v>1753</v>
-      </c>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="39" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B77" s="37" t="s">
-        <v>1754</v>
-      </c>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27208,7 +26106,7 @@
   <dimension ref="A2:D391"/>
   <sheetViews>
     <sheetView topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="D362" sqref="D362"/>
+      <selection activeCell="A2" sqref="A2:D367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InsuranceNowAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INOW Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ABA827-2614-41F0-8CB8-811A07162F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527A224E-198D-413A-B47C-590DC006E7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="16" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="15" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NewBussines" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,10 @@
     <sheet name="Credentials" sheetId="27" r:id="rId13"/>
     <sheet name="Payment Screen" sheetId="30" r:id="rId14"/>
     <sheet name="Batch Job" sheetId="31" r:id="rId15"/>
-    <sheet name="TS_01" sheetId="25" r:id="rId16"/>
-    <sheet name="TS_02" sheetId="28" r:id="rId17"/>
-    <sheet name="TS_03" sheetId="29" r:id="rId18"/>
+    <sheet name="Producer Creation" sheetId="32" r:id="rId16"/>
+    <sheet name="TS_01" sheetId="25" r:id="rId17"/>
+    <sheet name="TS_02" sheetId="28" r:id="rId18"/>
+    <sheet name="TS_03" sheetId="29" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6404" uniqueCount="1680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6558" uniqueCount="1762">
   <si>
     <t>NewBussines</t>
   </si>
@@ -5093,6 +5094,252 @@
   </si>
   <si>
     <t>19XFC1F36GE218891</t>
+  </si>
+  <si>
+    <t>Producer Detail</t>
+  </si>
+  <si>
+    <t>producerCode</t>
+  </si>
+  <si>
+    <t>producerType</t>
+  </si>
+  <si>
+    <t>producerAgency</t>
+  </si>
+  <si>
+    <t>producerGroup</t>
+  </si>
+  <si>
+    <t>producerStatus</t>
+  </si>
+  <si>
+    <t>producerStatusDate</t>
+  </si>
+  <si>
+    <t>producerDateAppointed</t>
+  </si>
+  <si>
+    <t>producerBusinessType</t>
+  </si>
+  <si>
+    <t>producerName</t>
+  </si>
+  <si>
+    <t>producerBusinessName</t>
+  </si>
+  <si>
+    <t>producerSearchName</t>
+  </si>
+  <si>
+    <t>producerDBA</t>
+  </si>
+  <si>
+    <t>producerSearchDBA</t>
+  </si>
+  <si>
+    <t>Street Address</t>
+  </si>
+  <si>
+    <t>producerAddress</t>
+  </si>
+  <si>
+    <t>producerCity</t>
+  </si>
+  <si>
+    <t>producerState</t>
+  </si>
+  <si>
+    <t>producerZip</t>
+  </si>
+  <si>
+    <t>producerCountry</t>
+  </si>
+  <si>
+    <t>Billing Address</t>
+  </si>
+  <si>
+    <t>producerBillingAddress</t>
+  </si>
+  <si>
+    <t>producerBillingCity</t>
+  </si>
+  <si>
+    <t>producerBillingState</t>
+  </si>
+  <si>
+    <t>producerBillingZip</t>
+  </si>
+  <si>
+    <t>producerBillingCountry</t>
+  </si>
+  <si>
+    <t>producerPrimaryPhone</t>
+  </si>
+  <si>
+    <t>producerSecondaryPhone</t>
+  </si>
+  <si>
+    <t>producerFaxNumber</t>
+  </si>
+  <si>
+    <t>producerEmailAddress</t>
+  </si>
+  <si>
+    <t>producerDeliveryPreference</t>
+  </si>
+  <si>
+    <t>producerEOCarrier</t>
+  </si>
+  <si>
+    <t>producerEOPolicyNumber</t>
+  </si>
+  <si>
+    <t>producerEOLimit</t>
+  </si>
+  <si>
+    <t>producerEOExpirationDate</t>
+  </si>
+  <si>
+    <t>producerBranchCode</t>
+  </si>
+  <si>
+    <t>producerReplacedbyProducer</t>
+  </si>
+  <si>
+    <t>producerReplacedbyEffDate</t>
+  </si>
+  <si>
+    <t>producerSubmitToUser</t>
+  </si>
+  <si>
+    <t>producerSubmitToGroup</t>
+  </si>
+  <si>
+    <t>producerLastCommissionPayThroughDate</t>
+  </si>
+  <si>
+    <t>producerDirectPortal</t>
+  </si>
+  <si>
+    <t>producereSignatureMethod</t>
+  </si>
+  <si>
+    <t>producerAgencyRenewalFee</t>
+  </si>
+  <si>
+    <t>producereSignature</t>
+  </si>
+  <si>
+    <t>Accounting Information</t>
+  </si>
+  <si>
+    <t>producerAccountingEntityName</t>
+  </si>
+  <si>
+    <t>producerPayTo</t>
+  </si>
+  <si>
+    <t>producerAccountEntryType</t>
+  </si>
+  <si>
+    <t>producerAccountType</t>
+  </si>
+  <si>
+    <t>producerAllowCombinedPayments</t>
+  </si>
+  <si>
+    <t>producerBankName</t>
+  </si>
+  <si>
+    <t>producerPaymentBy</t>
+  </si>
+  <si>
+    <t>producerAccountNumber</t>
+  </si>
+  <si>
+    <t>producerRoutingNumber</t>
+  </si>
+  <si>
+    <t>producerMailingAddress</t>
+  </si>
+  <si>
+    <t>producerMailingCity</t>
+  </si>
+  <si>
+    <t>producerMailingState</t>
+  </si>
+  <si>
+    <t>producerMailingZip</t>
+  </si>
+  <si>
+    <t>producerMailingCountry</t>
+  </si>
+  <si>
+    <t>State Detail</t>
+  </si>
+  <si>
+    <t>producerStateDetail</t>
+  </si>
+  <si>
+    <t>producerStateProgramType</t>
+  </si>
+  <si>
+    <t>producerStateDateAppointed</t>
+  </si>
+  <si>
+    <t>producerStateDateCancelled</t>
+  </si>
+  <si>
+    <t>Licensed Product Class List</t>
+  </si>
+  <si>
+    <t>producerLicensedExpirationDate</t>
+  </si>
+  <si>
+    <t>producerLicensedState</t>
+  </si>
+  <si>
+    <t>producerLicensedProgramType</t>
+  </si>
+  <si>
+    <t>producerLicensedLicenseClassCode</t>
+  </si>
+  <si>
+    <t>producerLicensedChannel</t>
+  </si>
+  <si>
+    <t>producerLicensedEffectivDate</t>
+  </si>
+  <si>
+    <t>producerLicensedCommissionNB</t>
+  </si>
+  <si>
+    <t>producerLicensedCommissionRenewal</t>
+  </si>
+  <si>
+    <t>producerLicensedCommissionOther</t>
+  </si>
+  <si>
+    <t>producerLicensedNBExpDate</t>
+  </si>
+  <si>
+    <t>producerLicensedRnwlExpDate</t>
+  </si>
+  <si>
+    <t>producerLicensedSubmitToUser</t>
+  </si>
+  <si>
+    <t>producerLicensedSubmitToGroup</t>
+  </si>
+  <si>
+    <t>producerLicensedCommissionPaidOut</t>
+  </si>
+  <si>
+    <t>producerLicensedCommissionPayRule</t>
+  </si>
+  <si>
+    <t>Producer Creation</t>
   </si>
 </sst>
 </file>
@@ -5102,7 +5349,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5137,6 +5384,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF080808"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5164,7 +5424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -5248,12 +5508,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5318,6 +5602,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10161,6 +10472,800 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3721F848-147C-4D52-859A-01FDEC72576D}">
+  <dimension ref="A1:D77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="A1:D77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="68.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="35"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C43" s="34"/>
+      <c r="D43" s="35"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C44" s="34"/>
+      <c r="D44" s="35"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C45" s="34"/>
+      <c r="D45" s="35"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="36" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="35"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="36" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C48" s="34"/>
+      <c r="D48" s="35"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="36" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C49" s="34"/>
+      <c r="D49" s="35"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="36" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C50" s="34"/>
+      <c r="D50" s="35"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="36" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C51" s="34"/>
+      <c r="D51" s="35"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="36" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C52" s="34"/>
+      <c r="D52" s="35"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="36" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C53" s="34"/>
+      <c r="D53" s="35"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C56" s="34"/>
+      <c r="D56" s="35"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C57" s="34"/>
+      <c r="D57" s="35"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C58" s="34"/>
+      <c r="D58" s="35"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="38" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C59" s="34"/>
+      <c r="D59" s="35"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="38" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C60" s="34"/>
+      <c r="D60" s="35"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="38" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="38" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C62" s="34"/>
+      <c r="D62" s="35"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="39" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C63" s="34"/>
+      <c r="D63" s="35"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="39" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C64" s="34"/>
+      <c r="D64" s="35"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="39" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C65" s="34"/>
+      <c r="D65" s="35"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="39" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C66" s="34"/>
+      <c r="D66" s="35"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="39" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C67" s="34"/>
+      <c r="D67" s="35"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="39" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C68" s="34"/>
+      <c r="D68" s="35"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="39" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C69" s="34"/>
+      <c r="D69" s="35"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="39" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C70" s="34"/>
+      <c r="D70" s="35"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="39" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C71" s="34"/>
+      <c r="D71" s="35"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="39" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C72" s="34"/>
+      <c r="D72" s="35"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="39" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C73" s="34"/>
+      <c r="D73" s="35"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="39" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C74" s="34"/>
+      <c r="D74" s="35"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="39" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="39" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C76" s="34"/>
+      <c r="D76" s="35"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="39" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C77" s="34"/>
+      <c r="D77" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA4E5AA-688C-484A-99F1-9AC8F41EC26C}">
   <dimension ref="A1:D392"/>
   <sheetViews>
@@ -14241,11 +15346,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3BCC8-1641-433F-8FC0-0BC9EA113D75}">
   <dimension ref="D1:G736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H550" sqref="H550"/>
     </sheetView>
   </sheetViews>
@@ -21751,6 +22856,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D174:D277"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D3:D49"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D157"/>
+    <mergeCell ref="D158:D173"/>
     <mergeCell ref="D524:D539"/>
     <mergeCell ref="D540:D643"/>
     <mergeCell ref="D644:D697"/>
@@ -21761,12 +22872,6 @@
     <mergeCell ref="D373:D415"/>
     <mergeCell ref="D416:D425"/>
     <mergeCell ref="D426:D523"/>
-    <mergeCell ref="D174:D277"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D3:D49"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D157"/>
-    <mergeCell ref="D158:D173"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G44" r:id="rId1" xr:uid="{249BC4C0-3423-4E91-A0D7-112396468B55}"/>
@@ -21775,7 +22880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC48D60B-A2DA-4B33-8870-4BC720D13BF5}">
   <dimension ref="A1:D416"/>
   <sheetViews>
@@ -26081,18 +27186,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A371:D371"/>
+    <mergeCell ref="A381:D381"/>
+    <mergeCell ref="A391:D391"/>
+    <mergeCell ref="A403:D403"/>
+    <mergeCell ref="A278:A331"/>
+    <mergeCell ref="A332:A353"/>
     <mergeCell ref="A174:A277"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A49"/>
     <mergeCell ref="A50:A59"/>
     <mergeCell ref="A60:A157"/>
     <mergeCell ref="A158:A173"/>
-    <mergeCell ref="A371:D371"/>
-    <mergeCell ref="A381:D381"/>
-    <mergeCell ref="A391:D391"/>
-    <mergeCell ref="A403:D403"/>
-    <mergeCell ref="A278:A331"/>
-    <mergeCell ref="A332:A353"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D44" r:id="rId1" xr:uid="{DE8D0F4F-6169-48C2-82D8-7C8293E1696B}"/>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InsuranceNowAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INOW Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ABA827-2614-41F0-8CB8-811A07162F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8839ECBB-7580-48A0-8D6E-F63B244B74A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="16" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="14" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NewBussines" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,11 @@
     <sheet name="Reinstatement" sheetId="26" r:id="rId12"/>
     <sheet name="Credentials" sheetId="27" r:id="rId13"/>
     <sheet name="Payment Screen" sheetId="30" r:id="rId14"/>
-    <sheet name="Batch Job" sheetId="31" r:id="rId15"/>
-    <sheet name="TS_01" sheetId="25" r:id="rId16"/>
-    <sheet name="TS_02" sheetId="28" r:id="rId17"/>
-    <sheet name="TS_03" sheetId="29" r:id="rId18"/>
+    <sheet name="Producer Creation" sheetId="32" r:id="rId15"/>
+    <sheet name="Batch Job" sheetId="31" r:id="rId16"/>
+    <sheet name="TS_01" sheetId="25" r:id="rId17"/>
+    <sheet name="TS_02" sheetId="28" r:id="rId18"/>
+    <sheet name="TS_03" sheetId="29" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6404" uniqueCount="1680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6558" uniqueCount="1762">
   <si>
     <t>NewBussines</t>
   </si>
@@ -5093,6 +5094,252 @@
   </si>
   <si>
     <t>19XFC1F36GE218891</t>
+  </si>
+  <si>
+    <t>Producer Creation</t>
+  </si>
+  <si>
+    <t>Producer Detail</t>
+  </si>
+  <si>
+    <t>producerCode</t>
+  </si>
+  <si>
+    <t>producerType</t>
+  </si>
+  <si>
+    <t>producerAgency</t>
+  </si>
+  <si>
+    <t>producerGroup</t>
+  </si>
+  <si>
+    <t>producerStatus</t>
+  </si>
+  <si>
+    <t>producerStatusDate</t>
+  </si>
+  <si>
+    <t>producerDateAppointed</t>
+  </si>
+  <si>
+    <t>producerBusinessType</t>
+  </si>
+  <si>
+    <t>producerName</t>
+  </si>
+  <si>
+    <t>producerBusinessName</t>
+  </si>
+  <si>
+    <t>producerSearchName</t>
+  </si>
+  <si>
+    <t>producerDBA</t>
+  </si>
+  <si>
+    <t>producerSearchDBA</t>
+  </si>
+  <si>
+    <t>Street Address</t>
+  </si>
+  <si>
+    <t>producerAddress</t>
+  </si>
+  <si>
+    <t>producerCity</t>
+  </si>
+  <si>
+    <t>producerState</t>
+  </si>
+  <si>
+    <t>producerZip</t>
+  </si>
+  <si>
+    <t>producerCountry</t>
+  </si>
+  <si>
+    <t>Billing Address</t>
+  </si>
+  <si>
+    <t>producerBillingAddress</t>
+  </si>
+  <si>
+    <t>producerBillingCity</t>
+  </si>
+  <si>
+    <t>producerBillingState</t>
+  </si>
+  <si>
+    <t>producerBillingZip</t>
+  </si>
+  <si>
+    <t>producerBillingCountry</t>
+  </si>
+  <si>
+    <t>producerPrimaryPhone</t>
+  </si>
+  <si>
+    <t>producerSecondaryPhone</t>
+  </si>
+  <si>
+    <t>producerFaxNumber</t>
+  </si>
+  <si>
+    <t>producerEmailAddress</t>
+  </si>
+  <si>
+    <t>producerDeliveryPreference</t>
+  </si>
+  <si>
+    <t>producerEOCarrier</t>
+  </si>
+  <si>
+    <t>producerEOPolicyNumber</t>
+  </si>
+  <si>
+    <t>producerEOLimit</t>
+  </si>
+  <si>
+    <t>producerEOExpirationDate</t>
+  </si>
+  <si>
+    <t>producerBranchCode</t>
+  </si>
+  <si>
+    <t>producerReplacedbyProducer</t>
+  </si>
+  <si>
+    <t>producerReplacedbyEffDate</t>
+  </si>
+  <si>
+    <t>producerSubmitToUser</t>
+  </si>
+  <si>
+    <t>producerSubmitToGroup</t>
+  </si>
+  <si>
+    <t>producerLastCommissionPayThroughDate</t>
+  </si>
+  <si>
+    <t>producerDirectPortal</t>
+  </si>
+  <si>
+    <t>producereSignatureMethod</t>
+  </si>
+  <si>
+    <t>producerAgencyRenewalFee</t>
+  </si>
+  <si>
+    <t>producereSignature</t>
+  </si>
+  <si>
+    <t>Accounting Information</t>
+  </si>
+  <si>
+    <t>producerAccountingEntityName</t>
+  </si>
+  <si>
+    <t>producerPayTo</t>
+  </si>
+  <si>
+    <t>producerAccountEntryType</t>
+  </si>
+  <si>
+    <t>producerAccountType</t>
+  </si>
+  <si>
+    <t>producerAllowCombinedPayments</t>
+  </si>
+  <si>
+    <t>producerBankName</t>
+  </si>
+  <si>
+    <t>producerPaymentBy</t>
+  </si>
+  <si>
+    <t>producerAccountNumber</t>
+  </si>
+  <si>
+    <t>producerRoutingNumber</t>
+  </si>
+  <si>
+    <t>producerMailingAddress</t>
+  </si>
+  <si>
+    <t>producerMailingCity</t>
+  </si>
+  <si>
+    <t>producerMailingState</t>
+  </si>
+  <si>
+    <t>producerMailingZip</t>
+  </si>
+  <si>
+    <t>producerMailingCountry</t>
+  </si>
+  <si>
+    <t>State Detail</t>
+  </si>
+  <si>
+    <t>producerStateDetail</t>
+  </si>
+  <si>
+    <t>producerStateProgramType</t>
+  </si>
+  <si>
+    <t>producerStateDateAppointed</t>
+  </si>
+  <si>
+    <t>producerStateDateCancelled</t>
+  </si>
+  <si>
+    <t>Licensed Product Class List</t>
+  </si>
+  <si>
+    <t>producerLicensedExpirationDate</t>
+  </si>
+  <si>
+    <t>producerLicensedState</t>
+  </si>
+  <si>
+    <t>producerLicensedProgramType</t>
+  </si>
+  <si>
+    <t>producerLicensedLicenseClassCode</t>
+  </si>
+  <si>
+    <t>producerLicensedChannel</t>
+  </si>
+  <si>
+    <t>producerLicensedEffectivDate</t>
+  </si>
+  <si>
+    <t>producerLicensedCommissionNB</t>
+  </si>
+  <si>
+    <t>producerLicensedCommissionRenewal</t>
+  </si>
+  <si>
+    <t>producerLicensedCommissionOther</t>
+  </si>
+  <si>
+    <t>producerLicensedNBExpDate</t>
+  </si>
+  <si>
+    <t>producerLicensedRnwlExpDate</t>
+  </si>
+  <si>
+    <t>producerLicensedSubmitToUser</t>
+  </si>
+  <si>
+    <t>producerLicensedSubmitToGroup</t>
+  </si>
+  <si>
+    <t>producerLicensedCommissionPaidOut</t>
+  </si>
+  <si>
+    <t>producerLicensedCommissionPayRule</t>
   </si>
 </sst>
 </file>
@@ -5102,7 +5349,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5137,6 +5384,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF080808"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5164,7 +5424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -5248,12 +5508,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5318,6 +5602,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9995,6 +10306,800 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95B6287-F8D8-43A7-84A8-8B19753774B9}">
+  <dimension ref="A1:D77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="68.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="35"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C43" s="34"/>
+      <c r="D43" s="35"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C44" s="34"/>
+      <c r="D44" s="35"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C45" s="34"/>
+      <c r="D45" s="35"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="36" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="35"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="36" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C48" s="34"/>
+      <c r="D48" s="35"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="36" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C49" s="34"/>
+      <c r="D49" s="35"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="36" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C50" s="34"/>
+      <c r="D50" s="35"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="36" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C51" s="34"/>
+      <c r="D51" s="35"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="36" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C52" s="34"/>
+      <c r="D52" s="35"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="36" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C53" s="34"/>
+      <c r="D53" s="35"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C56" s="34"/>
+      <c r="D56" s="35"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C57" s="34"/>
+      <c r="D57" s="35"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C58" s="34"/>
+      <c r="D58" s="35"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="38" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C59" s="34"/>
+      <c r="D59" s="35"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="38" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C60" s="34"/>
+      <c r="D60" s="35"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="38" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="38" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C62" s="34"/>
+      <c r="D62" s="35"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="39" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C63" s="34"/>
+      <c r="D63" s="35"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="39" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C64" s="34"/>
+      <c r="D64" s="35"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="39" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C65" s="34"/>
+      <c r="D65" s="35"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="39" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C66" s="34"/>
+      <c r="D66" s="35"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="39" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C67" s="34"/>
+      <c r="D67" s="35"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="39" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C68" s="34"/>
+      <c r="D68" s="35"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="39" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C69" s="34"/>
+      <c r="D69" s="35"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="39" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C70" s="34"/>
+      <c r="D70" s="35"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="39" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C71" s="34"/>
+      <c r="D71" s="35"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="39" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C72" s="34"/>
+      <c r="D72" s="35"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="39" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C73" s="34"/>
+      <c r="D73" s="35"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="39" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C74" s="34"/>
+      <c r="D74" s="35"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="39" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="39" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C76" s="34"/>
+      <c r="D76" s="35"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="39" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C77" s="34"/>
+      <c r="D77" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7A5F1C-5DD4-479C-9560-FD8D81F4A536}">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -10160,7 +11265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA4E5AA-688C-484A-99F1-9AC8F41EC26C}">
   <dimension ref="A1:D392"/>
   <sheetViews>
@@ -14241,11 +15346,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3BCC8-1641-433F-8FC0-0BC9EA113D75}">
   <dimension ref="D1:G736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H550" sqref="H550"/>
     </sheetView>
   </sheetViews>
@@ -21751,6 +22856,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D174:D277"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D3:D49"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D157"/>
+    <mergeCell ref="D158:D173"/>
     <mergeCell ref="D524:D539"/>
     <mergeCell ref="D540:D643"/>
     <mergeCell ref="D644:D697"/>
@@ -21761,12 +22872,6 @@
     <mergeCell ref="D373:D415"/>
     <mergeCell ref="D416:D425"/>
     <mergeCell ref="D426:D523"/>
-    <mergeCell ref="D174:D277"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D3:D49"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D157"/>
-    <mergeCell ref="D158:D173"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G44" r:id="rId1" xr:uid="{249BC4C0-3423-4E91-A0D7-112396468B55}"/>
@@ -21775,7 +22880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC48D60B-A2DA-4B33-8870-4BC720D13BF5}">
   <dimension ref="A1:D416"/>
   <sheetViews>
@@ -26081,18 +27186,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A371:D371"/>
+    <mergeCell ref="A381:D381"/>
+    <mergeCell ref="A391:D391"/>
+    <mergeCell ref="A403:D403"/>
+    <mergeCell ref="A278:A331"/>
+    <mergeCell ref="A332:A353"/>
     <mergeCell ref="A174:A277"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A49"/>
     <mergeCell ref="A50:A59"/>
     <mergeCell ref="A60:A157"/>
     <mergeCell ref="A158:A173"/>
-    <mergeCell ref="A371:D371"/>
-    <mergeCell ref="A381:D381"/>
-    <mergeCell ref="A391:D391"/>
-    <mergeCell ref="A403:D403"/>
-    <mergeCell ref="A278:A331"/>
-    <mergeCell ref="A332:A353"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D44" r:id="rId1" xr:uid="{DE8D0F4F-6169-48C2-82D8-7C8293E1696B}"/>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InsuranceNowAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\InsuranceNowAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AEE311-CAFF-4114-9353-2E5CAD12CA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA0F24D-6571-4CB2-8AD8-4A247EABDEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="16" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="11" activeTab="17" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NewBussines" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,8 @@
     <sheet name="Batch Job" sheetId="31" r:id="rId15"/>
     <sheet name="TS_01" sheetId="25" r:id="rId16"/>
     <sheet name="TS_02" sheetId="28" r:id="rId17"/>
-    <sheet name="TS_03" sheetId="29" r:id="rId18"/>
+    <sheet name="TS_05" sheetId="32" r:id="rId18"/>
+    <sheet name="TS_03" sheetId="29" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6404" uniqueCount="1688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6423" uniqueCount="1694">
   <si>
     <t>NewBussines</t>
   </si>
@@ -5117,6 +5118,24 @@
   </si>
   <si>
     <t>endorsementNonDriver2Gender</t>
+  </si>
+  <si>
+    <t>hoa</t>
+  </si>
+  <si>
+    <t>renewalPolicyNumber</t>
+  </si>
+  <si>
+    <t>Renewal Start Done</t>
+  </si>
+  <si>
+    <t>renewalStartTransaction</t>
+  </si>
+  <si>
+    <t>renewalStartDescription</t>
+  </si>
+  <si>
+    <t>PA0000017-01</t>
   </si>
 </sst>
 </file>
@@ -9625,7 +9644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5456E97C-0A17-42B4-A214-4BA726B8ADBA}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="BO1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -14269,7 +14288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3BCC8-1641-433F-8FC0-0BC9EA113D75}">
   <dimension ref="D1:G736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A525" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A522" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F539" sqref="F539"/>
     </sheetView>
   </sheetViews>
@@ -21775,12 +21794,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D174:D277"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D3:D49"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D157"/>
-    <mergeCell ref="D158:D173"/>
     <mergeCell ref="D524:D539"/>
     <mergeCell ref="D540:D643"/>
     <mergeCell ref="D644:D697"/>
@@ -21791,6 +21804,12 @@
     <mergeCell ref="D373:D415"/>
     <mergeCell ref="D416:D425"/>
     <mergeCell ref="D426:D523"/>
+    <mergeCell ref="D174:D277"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D3:D49"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D157"/>
+    <mergeCell ref="D158:D173"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G44" r:id="rId1" xr:uid="{249BC4C0-3423-4E91-A0D7-112396468B55}"/>
@@ -21801,10 +21820,139 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C769D613-2896-45AA-B7E3-BA8DD5AD2AD8}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC48D60B-A2DA-4B33-8870-4BC720D13BF5}">
   <dimension ref="A1:D416"/>
   <sheetViews>
-    <sheetView topLeftCell="A380" workbookViewId="0">
+    <sheetView topLeftCell="A395" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -26106,18 +26254,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A174:A277"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A49"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="A60:A157"/>
+    <mergeCell ref="A158:A173"/>
     <mergeCell ref="A371:D371"/>
     <mergeCell ref="A381:D381"/>
     <mergeCell ref="A391:D391"/>
     <mergeCell ref="A403:D403"/>
     <mergeCell ref="A278:A331"/>
     <mergeCell ref="A332:A353"/>
-    <mergeCell ref="A174:A277"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A49"/>
-    <mergeCell ref="A50:A59"/>
-    <mergeCell ref="A60:A157"/>
-    <mergeCell ref="A158:A173"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D44" r:id="rId1" xr:uid="{DE8D0F4F-6169-48C2-82D8-7C8293E1696B}"/>
@@ -34293,7 +34441,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InsuranceNowAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3E5255-B20C-4B74-8E89-D8173689457B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4641E07E-EE0D-4201-A193-4FEC6AE93F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="16" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="16" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NewBussines" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,8 @@
     <sheet name="Batch Job" sheetId="31" r:id="rId15"/>
     <sheet name="TS_01" sheetId="25" r:id="rId16"/>
     <sheet name="TS_02" sheetId="28" r:id="rId17"/>
-    <sheet name="TS_03" sheetId="29" r:id="rId18"/>
+    <sheet name="NBPolicyNumber" sheetId="32" r:id="rId18"/>
+    <sheet name="TS_03" sheetId="29" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6405" uniqueCount="1691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6407" uniqueCount="1693">
   <si>
     <t>NewBussines</t>
   </si>
@@ -4831,9 +4832,6 @@
     <t>10/01/2023</t>
   </si>
   <si>
-    <t>10/02/2023</t>
-  </si>
-  <si>
     <t>Post</t>
   </si>
   <si>
@@ -5126,6 +5124,15 @@
   </si>
   <si>
     <t>endorsementVehicle1TowingAndLabor</t>
+  </si>
+  <si>
+    <t>NewBusiness03PolicyNumber</t>
+  </si>
+  <si>
+    <t>NewBusiness04PolicyNumber</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
   </si>
 </sst>
 </file>
@@ -9869,7 +9876,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -9895,7 +9902,7 @@
         <v>355</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -9905,7 +9912,7 @@
         <v>355</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -9915,7 +9922,7 @@
         <v>355</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -9925,7 +9932,7 @@
         <v>355</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -9935,7 +9942,7 @@
         <v>355</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -9945,7 +9952,7 @@
         <v>355</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -9955,7 +9962,7 @@
         <v>355</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -9965,7 +9972,7 @@
         <v>355</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -9975,7 +9982,7 @@
         <v>355</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -9985,7 +9992,7 @@
         <v>355</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -10045,7 +10052,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -10071,7 +10078,7 @@
         <v>355</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -10081,7 +10088,7 @@
         <v>355</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -10091,7 +10098,7 @@
         <v>355</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -10101,7 +10108,7 @@
         <v>355</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -10111,7 +10118,7 @@
         <v>355</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -10121,7 +10128,7 @@
         <v>355</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -10131,7 +10138,7 @@
         <v>355</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -10141,7 +10148,7 @@
         <v>355</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -10151,7 +10158,7 @@
         <v>355</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -10161,7 +10168,7 @@
         <v>355</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -10171,7 +10178,7 @@
         <v>355</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -10181,7 +10188,7 @@
         <v>355</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -10331,7 +10338,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -10970,7 +10977,7 @@
         <v>1565</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -14003,7 +14010,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="30" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B371" s="30"/>
       <c r="C371" s="30"/>
@@ -14015,7 +14022,7 @@
         <v>7</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>1542</v>
@@ -14027,10 +14034,10 @@
         <v>7</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -14039,7 +14046,7 @@
         <v>7</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D374" s="1"/>
     </row>
@@ -14049,10 +14056,10 @@
         <v>7</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -14061,7 +14068,7 @@
         <v>7</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D376" s="1"/>
     </row>
@@ -14071,43 +14078,43 @@
         <v>7</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D377" s="17" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C378" s="2" t="s">
         <v>1662</v>
       </c>
-      <c r="C378" s="2" t="s">
-        <v>1663</v>
-      </c>
       <c r="D378" s="1" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="2" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="2" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>1536</v>
@@ -14116,13 +14123,13 @@
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="2" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D381" s="17" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -14131,10 +14138,10 @@
         <v>9</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -14143,10 +14150,10 @@
         <v>9</v>
       </c>
       <c r="C383" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D383" s="17" t="s">
         <v>1671</v>
-      </c>
-      <c r="D383" s="17" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -14155,7 +14162,7 @@
         <v>9</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>1548</v>
@@ -14167,7 +14174,7 @@
         <v>9</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>1543</v>
@@ -14179,7 +14186,7 @@
         <v>9</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>1544</v>
@@ -14187,7 +14194,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="30" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B387" s="30"/>
       <c r="C387" s="30"/>
@@ -14196,46 +14203,46 @@
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C388" s="13" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C389" s="13" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D389" s="17" t="s">
         <v>1656</v>
-      </c>
-      <c r="C389" s="13" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D389" s="17" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C390" s="13" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D390" s="17" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C391" s="13" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>1536</v>
@@ -14244,10 +14251,10 @@
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C392" s="13" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>1537</v>
@@ -14278,8 +14285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3BCC8-1641-433F-8FC0-0BC9EA113D75}">
   <dimension ref="D1:G736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A718" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F722" sqref="F722"/>
+    <sheetView tabSelected="1" topLeftCell="A362" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G373" sqref="G373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14379,7 +14386,7 @@
         <v>1575</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.25">
@@ -18105,7 +18112,7 @@
         <v>37</v>
       </c>
       <c r="G373" s="16" t="s">
-        <v>1592</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="374" spans="4:7" x14ac:dyDescent="0.25">
@@ -19617,7 +19624,7 @@
         <v>159</v>
       </c>
       <c r="G524" s="1" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="525" spans="4:7" x14ac:dyDescent="0.25">
@@ -19636,10 +19643,10 @@
         <v>15</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="G526" s="1" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="527" spans="4:7" x14ac:dyDescent="0.25">
@@ -19648,10 +19655,10 @@
         <v>15</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="G527" s="1" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="528" spans="4:7" x14ac:dyDescent="0.25">
@@ -19660,10 +19667,10 @@
         <v>15</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="G528" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="529" spans="4:7" x14ac:dyDescent="0.25">
@@ -19672,7 +19679,7 @@
         <v>15</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="G529" s="1" t="s">
         <v>1558</v>
@@ -19687,7 +19694,7 @@
         <v>165</v>
       </c>
       <c r="G530" s="17" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="531" spans="4:7" x14ac:dyDescent="0.25">
@@ -19699,7 +19706,7 @@
         <v>166</v>
       </c>
       <c r="G531" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="532" spans="4:7" x14ac:dyDescent="0.25">
@@ -19711,7 +19718,7 @@
         <v>167</v>
       </c>
       <c r="G532" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="533" spans="4:7" x14ac:dyDescent="0.25">
@@ -19720,7 +19727,7 @@
         <v>15</v>
       </c>
       <c r="F533" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="G533" s="1"/>
     </row>
@@ -19730,10 +19737,10 @@
         <v>15</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="G534" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="535" spans="4:7" x14ac:dyDescent="0.25">
@@ -19742,10 +19749,10 @@
         <v>15</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="G535" s="1" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="536" spans="4:7" x14ac:dyDescent="0.25">
@@ -19754,10 +19761,10 @@
         <v>15</v>
       </c>
       <c r="F536" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="G536" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="537" spans="4:7" x14ac:dyDescent="0.25">
@@ -19766,10 +19773,10 @@
         <v>15</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="G537" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="538" spans="4:7" x14ac:dyDescent="0.25">
@@ -19781,7 +19788,7 @@
         <v>173</v>
       </c>
       <c r="G538" s="17" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="539" spans="4:7" x14ac:dyDescent="0.25">
@@ -19793,7 +19800,7 @@
         <v>174</v>
       </c>
       <c r="G539" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="540" spans="4:7" x14ac:dyDescent="0.25">
@@ -19807,7 +19814,7 @@
         <v>175</v>
       </c>
       <c r="G540" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="541" spans="4:7" x14ac:dyDescent="0.25">
@@ -19918,7 +19925,7 @@
         <v>16</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="G551" s="1" t="s">
         <v>1569</v>
@@ -20016,7 +20023,7 @@
         <v>16</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G560" s="1" t="s">
         <v>1571</v>
@@ -21399,7 +21406,7 @@
         <v>260</v>
       </c>
       <c r="G698" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="699" spans="4:7" x14ac:dyDescent="0.25">
@@ -21411,7 +21418,7 @@
         <v>261</v>
       </c>
       <c r="G699" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="700" spans="4:7" x14ac:dyDescent="0.25">
@@ -21786,12 +21793,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D174:D277"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D3:D49"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D157"/>
-    <mergeCell ref="D158:D173"/>
     <mergeCell ref="D524:D539"/>
     <mergeCell ref="D540:D643"/>
     <mergeCell ref="D644:D697"/>
@@ -21802,6 +21803,12 @@
     <mergeCell ref="D373:D415"/>
     <mergeCell ref="D416:D425"/>
     <mergeCell ref="D426:D523"/>
+    <mergeCell ref="D174:D277"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D3:D49"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D157"/>
+    <mergeCell ref="D158:D173"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G44" r:id="rId1" xr:uid="{249BC4C0-3423-4E91-A0D7-112396468B55}"/>
@@ -21812,6 +21819,34 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812DB0A4-DE2B-48B4-ADFF-E7310E8380F2}">
+  <dimension ref="B3:B4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC48D60B-A2DA-4B33-8870-4BC720D13BF5}">
   <dimension ref="A1:D416"/>
   <sheetViews>
@@ -21829,7 +21864,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -25660,7 +25695,7 @@
         <v>363</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -25672,7 +25707,7 @@
         <v>364</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -25724,7 +25759,7 @@
         <v>369</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -25831,7 +25866,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="29" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B391" s="29"/>
       <c r="C391" s="29"/>
@@ -25857,10 +25892,10 @@
         <v>355</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D393" s="20" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -25869,7 +25904,7 @@
         <v>355</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D394" s="1"/>
     </row>
@@ -25879,10 +25914,10 @@
         <v>355</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D395" s="21" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -25891,10 +25926,10 @@
         <v>355</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D396" s="21" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -25903,7 +25938,7 @@
         <v>355</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>25</v>
@@ -25915,10 +25950,10 @@
         <v>355</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -25927,10 +25962,10 @@
         <v>355</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -25939,10 +25974,10 @@
         <v>355</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D400" s="17" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -25951,10 +25986,10 @@
         <v>355</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D401" s="17" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -25963,7 +25998,7 @@
         <v>355</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>1587</v>
@@ -25971,7 +26006,7 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="29" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B403" s="29"/>
       <c r="C403" s="29"/>
@@ -25997,10 +26032,10 @@
         <v>355</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D405" s="17" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -26009,10 +26044,10 @@
         <v>355</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D406" s="17" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -26021,7 +26056,7 @@
         <v>355</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D407" s="1"/>
     </row>
@@ -26031,7 +26066,7 @@
         <v>355</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D408" s="1"/>
     </row>
@@ -26041,7 +26076,7 @@
         <v>355</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D409" s="1"/>
     </row>
@@ -26051,7 +26086,7 @@
         <v>355</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D410" s="1"/>
     </row>
@@ -26061,7 +26096,7 @@
         <v>355</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D411" s="1"/>
     </row>
@@ -26071,7 +26106,7 @@
         <v>355</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D412" s="1"/>
     </row>
@@ -26081,7 +26116,7 @@
         <v>355</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D413" s="1"/>
     </row>
@@ -26091,7 +26126,7 @@
         <v>355</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D414" s="1"/>
     </row>
@@ -26101,7 +26136,7 @@
         <v>355</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D415" s="1"/>
     </row>
@@ -26111,24 +26146,24 @@
         <v>355</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D416" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A174:A277"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A49"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="A60:A157"/>
+    <mergeCell ref="A158:A173"/>
     <mergeCell ref="A371:D371"/>
     <mergeCell ref="A381:D381"/>
     <mergeCell ref="A391:D391"/>
     <mergeCell ref="A403:D403"/>
     <mergeCell ref="A278:A331"/>
     <mergeCell ref="A332:A353"/>
-    <mergeCell ref="A174:A277"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A49"/>
-    <mergeCell ref="A50:A59"/>
-    <mergeCell ref="A60:A157"/>
-    <mergeCell ref="A158:A173"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D44" r:id="rId1" xr:uid="{DE8D0F4F-6169-48C2-82D8-7C8293E1696B}"/>
